--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -10,7 +10,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="13">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;¥&quot;* #,##0_);_(&quot;¥&quot;* \(#,##0\);_(&quot;¥&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -375,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,96 +405,78 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>账号类型</v>
+        <v>M5547373</v>
       </c>
       <c r="B2" t="str">
-        <v>语料</v>
-      </c>
-      <c r="C2" t="str">
-        <v>type</v>
-      </c>
-      <c r="D2">
+        <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>M5547373</v>
+        <v>M1233088</v>
       </c>
       <c r="B3" t="str">
-        <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
+        <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>M1233088</v>
+        <v>M6198841</v>
       </c>
       <c r="B4" t="str">
-        <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
-      </c>
-      <c r="C4" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D4">
+        <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>M6198841</v>
+        <v>N7866060</v>
       </c>
       <c r="B5" t="str">
-        <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
-      </c>
-      <c r="C5" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
+        <v>您好,你找回密码的验证码是:\d*</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>N7866060</v>
+        <v>N2716352</v>
       </c>
       <c r="B6" t="str">
-        <v>您好,你找回密码的验证码是:\d*</v>
-      </c>
-      <c r="C6" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D6">
+        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>N2716352</v>
+        <v>N1837777</v>
       </c>
       <c r="B7" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
-      </c>
-      <c r="C7" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D7">
+        <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>N1837777</v>
+        <v>N1449833</v>
       </c>
       <c r="B8" t="str">
-        <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
-      </c>
-      <c r="C8" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D8">
+        <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -491,12 +485,9 @@
         <v>N1449833</v>
       </c>
       <c r="B9" t="str">
-        <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
-      </c>
-      <c r="C9" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D9">
+        <v>您有新的费用申请需要审批.*</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -505,696 +496,549 @@
         <v>N1449833</v>
       </c>
       <c r="B10" t="str">
-        <v>您有新的费用申请需要审批.*</v>
-      </c>
-      <c r="C10" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D10">
+        <v>你的销单已经被打回</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>N1449833</v>
+        <v>M8220467</v>
       </c>
       <c r="B11" t="str">
-        <v>你的销单已经被打回</v>
-      </c>
-      <c r="C11" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D11">
+        <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>M8220467</v>
+        <v>N3314338</v>
       </c>
       <c r="B12" t="str">
-        <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
-      </c>
-      <c r="C12" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D12">
-        <v>300</v>
+        <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>N3314338</v>
+        <v>N3965461</v>
       </c>
       <c r="B13" t="str">
-        <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
-      </c>
-      <c r="C13" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D13">
+        <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>N3965461</v>
+        <v>N4231084</v>
       </c>
       <c r="B14" t="str">
-        <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
-      </c>
-      <c r="C14" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D14">
+        <v>您好，您的验证码为.{0,10}</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>N4231084</v>
+        <v>M18119879376</v>
       </c>
       <c r="B15" t="str">
-        <v>您好，您的验证码为.{0,10}</v>
-      </c>
-      <c r="C15" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D15">
+        <v>尊敬的用户，您好，测试退订回复TD</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>M18119879376</v>
+        <v>M13817110002</v>
       </c>
       <c r="B16" t="str">
-        <v>尊敬的用户，您好，测试退订回复TD</v>
-      </c>
-      <c r="C16" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
+        <v>您的，您的订单号为3255565的订单已支付成功！</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>M13817110002</v>
+        <v>M1240014</v>
       </c>
       <c r="B17" t="str">
-        <v>您的，您的订单号为3255565的订单已支付成功！</v>
-      </c>
-      <c r="C17" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D17">
+        <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>M1240014</v>
+        <v>M9902946</v>
       </c>
       <c r="B18" t="str">
-        <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
-      </c>
-      <c r="C18" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D18">
-        <v>300</v>
+        <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>M9902946</v>
+        <v>N9509432</v>
       </c>
       <c r="B19" t="str">
-        <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
-      </c>
-      <c r="C19" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D19">
-        <v>300</v>
+        <v>.*(member verification).*(for 10 mins.)</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>N9509432</v>
+        <v>N3471562</v>
       </c>
       <c r="B20" t="str">
-        <v>.*(member verification).*(for 10 mins.)</v>
-      </c>
-      <c r="C20" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D20">
+        <v>亲爱的用户，您的验证码是：.*</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>N3471562</v>
+        <v>N6452483</v>
       </c>
       <c r="B21" t="str">
-        <v>亲爱的用户，您的验证码是：.*</v>
-      </c>
-      <c r="C21" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D21">
+        <v>.*会员.*新礼包.*山东省分公司</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>N6452483</v>
+        <v>N4917757</v>
       </c>
       <c r="B22" t="str">
-        <v>.*会员.*新礼包.*山东省分公司</v>
-      </c>
-      <c r="C22" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D22">
+        <v>您的操作码是.*</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>N4917757</v>
+        <v>M8111370</v>
       </c>
       <c r="B23" t="str">
-        <v>您的操作码是.*</v>
-      </c>
-      <c r="C23" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D23">
+        <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>M8111370</v>
+        <v>M9230769</v>
       </c>
       <c r="B24" t="str">
-        <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
-      </c>
-      <c r="C24" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D24">
-        <v>300</v>
+        <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>M9230769</v>
+        <v>N18621742881</v>
       </c>
       <c r="B25" t="str">
-        <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
+        <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
       </c>
       <c r="C25">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>N18621742881</v>
+        <v>N1262693</v>
       </c>
       <c r="B26" t="str">
-        <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
-      </c>
-      <c r="C26" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D26">
+        <v>您的验证码为：.*，欢迎注册微菜单！</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>N1262693</v>
+        <v>N7344316</v>
       </c>
       <c r="B27" t="str">
-        <v>您的验证码为：.*，欢迎注册微菜单！</v>
-      </c>
-      <c r="C27" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D27">
+        <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>N7344316</v>
+        <v>N8772265</v>
       </c>
       <c r="B28" t="str">
-        <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
-      </c>
-      <c r="C28" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D28">
+        <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>N8772265</v>
+        <v>M1998680</v>
       </c>
       <c r="B29" t="str">
-        <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
-      </c>
-      <c r="C29" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D29">
+        <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>M1998680</v>
+        <v>M4699901</v>
       </c>
       <c r="B30" t="str">
-        <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
-      </c>
-      <c r="C30" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D30">
+        <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>M4699901</v>
+        <v>N15019264528</v>
       </c>
       <c r="B31" t="str">
-        <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
-      </c>
-      <c r="C31" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D31">
+        <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>N15019264528</v>
+        <v>N15920501324</v>
       </c>
       <c r="B32" t="str">
-        <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
-      </c>
-      <c r="C32" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D32">
+        <v>您的验证码是：.*</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>N15920501324</v>
+        <v>N15601837010</v>
       </c>
       <c r="B33" t="str">
-        <v>您的验证码是：.*</v>
-      </c>
-      <c r="C33" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D33">
+        <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>N15601837010</v>
+        <v>N15019264528</v>
       </c>
       <c r="B34" t="str">
-        <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
-      </c>
-      <c r="C34" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D34">
+        <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>N15019264528</v>
+        <v>N18610175213</v>
       </c>
       <c r="B35" t="str">
-        <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
-      </c>
-      <c r="C35" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D35">
+        <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
+      </c>
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>N18610175213</v>
+        <v>N5473131</v>
       </c>
       <c r="B36" t="str">
-        <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
-      </c>
-      <c r="C36" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D36">
+        <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>N5473131</v>
+        <v>N8388342</v>
       </c>
       <c r="B37" t="str">
-        <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
-      </c>
-      <c r="C37" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D37">
+        <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>N8388342</v>
+        <v>N1437892</v>
       </c>
       <c r="B38" t="str">
-        <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
-      </c>
-      <c r="C38" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D38">
+        <v>您已付款，订单号为：12</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>N1437892</v>
+        <v>N6023778</v>
       </c>
       <c r="B39" t="str">
-        <v>您已付款，订单号为：12</v>
-      </c>
-      <c r="C39" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D39">
+        <v>.{2,15}您的短信验证码为.{0,8}</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>N6023778</v>
+        <v>zensen</v>
       </c>
       <c r="B40" t="str">
-        <v>.{2,15}您的短信验证码为.{0,8}</v>
-      </c>
-      <c r="C40" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D40">
+        <v>无签名的审核通过模板</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>zensen</v>
+        <v>M4307447</v>
       </c>
       <c r="B41" t="str">
-        <v>无签名的审核通过模板</v>
-      </c>
-      <c r="C41" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D41">
+        <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>M4307447</v>
+        <v>N1711607</v>
       </c>
       <c r="B42" t="str">
-        <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
-      </c>
-      <c r="C42" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D42">
-        <v>300</v>
+        <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>N1711607</v>
+        <v>M6240301</v>
       </c>
       <c r="B43" t="str">
-        <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
-      </c>
-      <c r="C43" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D43">
+        <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>M6240301</v>
+        <v>M2423008</v>
       </c>
       <c r="B44" t="str">
-        <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
-      </c>
-      <c r="C44" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D44">
-        <v>300</v>
+        <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>M2423008</v>
+        <v>M4351472</v>
       </c>
       <c r="B45" t="str">
-        <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
-      </c>
-      <c r="C45" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D45">
+        <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>M4351472</v>
+        <v>N8930831</v>
       </c>
       <c r="B46" t="str">
-        <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
-      </c>
-      <c r="C46" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D46">
-        <v>300</v>
+        <v>本次修改提现银行账户的验证码是:\d+</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>N8930831</v>
+        <v>N1437892</v>
       </c>
       <c r="B47" t="str">
-        <v>本次修改提现银行账户的验证码是:\d+</v>
-      </c>
-      <c r="C47" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D47">
+        <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>N1437892</v>
+        <v>N13923734231</v>
       </c>
       <c r="B48" t="str">
-        <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
-      </c>
-      <c r="C48" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D48">
+        <v>您的验证码是.{0,12}</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>N13923734231</v>
+        <v>N15373088887</v>
       </c>
       <c r="B49" t="str">
-        <v>您的验证码是.{0,12}</v>
-      </c>
-      <c r="C49" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D49">
+        <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>N15373088887</v>
+        <v>N15823301928</v>
       </c>
       <c r="B50" t="str">
-        <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
-      </c>
-      <c r="C50" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D50">
+        <v>您的验证码是：\w*，五分钟之内有效。</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>N15823301928</v>
+        <v>N15802682964</v>
       </c>
       <c r="B51" t="str">
-        <v>您的验证码是：\w*，五分钟之内有效。</v>
-      </c>
-      <c r="C51" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D51">
+        <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>N15802682964</v>
+        <v>N15724742512</v>
       </c>
       <c r="B52" t="str">
-        <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
-      </c>
-      <c r="C52" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D52">
+        <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>N15724742512</v>
+        <v>N7710616</v>
       </c>
       <c r="B53" t="str">
-        <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
-      </c>
-      <c r="C53" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D53">
+        <v>你的注册申请已经通过</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>N7710616</v>
+        <v>N9526797</v>
       </c>
       <c r="B54" t="str">
-        <v>你的注册申请已经通过</v>
-      </c>
-      <c r="C54" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D54">
+        <v>您好,您的验证码是:\w*</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>N9526797</v>
+        <v>N4899746</v>
       </c>
       <c r="B55" t="str">
-        <v>您好,您的验证码是:\w*</v>
-      </c>
-      <c r="C55" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D55">
+        <v>验证码:\w*公司动漫专区。</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>N4899746</v>
+        <v>N3808461</v>
       </c>
       <c r="B56" t="str">
-        <v>验证码:\w*公司动漫专区。</v>
-      </c>
-      <c r="C56" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D56">
+        <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
+      </c>
+      <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>N3808461</v>
+        <v>N9650123</v>
       </c>
       <c r="B57" t="str">
-        <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
-      </c>
-      <c r="C57" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D57">
+        <v>您的验证码是\w*http://www.sina.com.cn/</v>
+      </c>
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>N9650123</v>
+        <v>N1033003</v>
       </c>
       <c r="B58" t="str">
-        <v>您的验证码是\w*http://www.sina.com.cn/</v>
-      </c>
-      <c r="C58" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D58">
+        <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>N1033003</v>
+        <v>N5255792</v>
       </c>
       <c r="B59" t="str">
-        <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
-      </c>
-      <c r="C59" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
+      </c>
+      <c r="C59">
+        <v>400</v>
       </c>
     </row>
     <row r="60">
@@ -1202,208 +1046,163 @@
         <v>N5255792</v>
       </c>
       <c r="B60" t="str">
-        <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
-      </c>
-      <c r="C60" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D60">
-        <v>300</v>
+        <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
+      </c>
+      <c r="C60">
+        <v>400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>N5255792</v>
+        <v>N7400950</v>
       </c>
       <c r="B61" t="str">
-        <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
-      </c>
-      <c r="C61" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D61">
-        <v>300</v>
+        <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>N7400950</v>
+        <v>N6483072</v>
       </c>
       <c r="B62" t="str">
-        <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
-      </c>
-      <c r="C62" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D62">
+        <v>验证码是.{0,10}</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>N6483072</v>
+        <v>M3173434</v>
       </c>
       <c r="B63" t="str">
-        <v>验证码是.{0,10}</v>
-      </c>
-      <c r="C63" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D63">
+        <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
+      </c>
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>M3173434</v>
+        <v>M5129810</v>
       </c>
       <c r="B64" t="str">
-        <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
-      </c>
-      <c r="C64" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D64">
+        <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
+      </c>
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>M5129810</v>
+        <v>N9509432</v>
       </c>
       <c r="B65" t="str">
-        <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
-      </c>
-      <c r="C65" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D65">
-        <v>300</v>
+        <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>N9509432</v>
+        <v>N1262693</v>
       </c>
       <c r="B66" t="str">
-        <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
-      </c>
-      <c r="C66" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D66">
+        <v>您的验证码为：\w*，欢迎注册微菜单！</v>
+      </c>
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>N1262693</v>
+        <v>N6000071</v>
       </c>
       <c r="B67" t="str">
-        <v>您的验证码为：\w*，欢迎注册微菜单！</v>
-      </c>
-      <c r="C67" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D67">
+        <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
+      </c>
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>N6000071</v>
+        <v>N3145894</v>
       </c>
       <c r="B68" t="str">
-        <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
-      </c>
-      <c r="C68" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D68">
+        <v>验证码如下： \w* 有效期为10分钟</v>
+      </c>
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>N3145894</v>
+        <v>N6686342</v>
       </c>
       <c r="B69" t="str">
-        <v>验证码如下： \w* 有效期为10分钟</v>
-      </c>
-      <c r="C69" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D69">
+        <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
+      </c>
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>N6686342</v>
+        <v>N6838971</v>
       </c>
       <c r="B70" t="str">
-        <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
-      </c>
-      <c r="C70" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D70">
+        <v>您\w*</v>
+      </c>
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>N6838971</v>
+        <v>N4971212</v>
       </c>
       <c r="B71" t="str">
-        <v>您\w*</v>
-      </c>
-      <c r="C71" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D71">
+        <v xml:space="preserve">你的验证码是 \w* </v>
+      </c>
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>N4971212</v>
+        <v>N1721391</v>
       </c>
       <c r="B72" t="str">
-        <v xml:space="preserve">你的验证码是 \w* </v>
-      </c>
-      <c r="C72" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D72">
+        <v>您好！您的验证码是：</v>
+      </c>
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>N1721391</v>
+        <v>N1449833</v>
       </c>
       <c r="B73" t="str">
-        <v>您好！您的验证码是：</v>
-      </c>
-      <c r="C73" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D73">
+        <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>N1449833</v>
+        <v>N3719867</v>
       </c>
       <c r="B74" t="str">
-        <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
-      </c>
-      <c r="C74" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D74">
+        <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+      </c>
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
@@ -1412,12 +1211,9 @@
         <v>N3719867</v>
       </c>
       <c r="B75" t="str">
-        <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
-      </c>
-      <c r="C75" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D75">
+        <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
+      </c>
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
@@ -1426,12 +1222,9 @@
         <v>N3719867</v>
       </c>
       <c r="B76" t="str">
-        <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
-      </c>
-      <c r="C76" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D76">
+        <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+      </c>
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
@@ -1440,152 +1233,119 @@
         <v>N3719867</v>
       </c>
       <c r="B77" t="str">
-        <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
-      </c>
-      <c r="C77" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D77">
+        <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
+      </c>
+      <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>N3719867</v>
+        <v>N6413270</v>
       </c>
       <c r="B78" t="str">
-        <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
-      </c>
-      <c r="C78" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D78">
+        <v>.{0,10}您的验证码是.{0,10}</v>
+      </c>
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>N6413270</v>
+        <v>M1371446</v>
       </c>
       <c r="B79" t="str">
-        <v>.{0,10}您的验证码是.{0,10}</v>
-      </c>
-      <c r="C79" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D79">
+        <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>M1371446</v>
+        <v>N2214607</v>
       </c>
       <c r="B80" t="str">
-        <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
-      </c>
-      <c r="C80" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D80">
+        <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
+      </c>
+      <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>N2214607</v>
+        <v>N9453190</v>
       </c>
       <c r="B81" t="str">
-        <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
-      </c>
-      <c r="C81" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D81">
+        <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
+      </c>
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>N9453190</v>
+        <v>M5262635</v>
       </c>
       <c r="B82" t="str">
-        <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
-      </c>
-      <c r="C82" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D82">
+        <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
+      </c>
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>M5262635</v>
+        <v>N5233471</v>
       </c>
       <c r="B83" t="str">
-        <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
-      </c>
-      <c r="C83" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D83">
-        <v>300</v>
+        <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>N5233471</v>
+        <v>M1445140</v>
       </c>
       <c r="B84" t="str">
-        <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
-      </c>
-      <c r="C84" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D84">
+        <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
+      </c>
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>M1445140</v>
+        <v>M9794773</v>
       </c>
       <c r="B85" t="str">
-        <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
-      </c>
-      <c r="C85" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D85">
-        <v>300</v>
+        <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>M9794773</v>
+        <v>N4219390</v>
       </c>
       <c r="B86" t="str">
-        <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
-      </c>
-      <c r="C86" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D86">
+        <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
+      </c>
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>N4219390</v>
+        <v>M2326959</v>
       </c>
       <c r="B87" t="str">
-        <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
-      </c>
-      <c r="C87" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D87">
+        <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
+      </c>
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -1594,466 +1354,346 @@
         <v>M2326959</v>
       </c>
       <c r="B88" t="str">
-        <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
-      </c>
-      <c r="C88" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D88">
-        <v>300</v>
+        <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>M2326959</v>
+        <v>M1115314</v>
       </c>
       <c r="B89" t="str">
-        <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
-      </c>
-      <c r="C89" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D89">
-        <v>300</v>
+        <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>M1115314</v>
+        <v>M3103989</v>
       </c>
       <c r="B90" t="str">
-        <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
-      </c>
-      <c r="C90" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D90">
-        <v>300</v>
+        <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>M3103989</v>
+        <v>M7306228</v>
       </c>
       <c r="B91" t="str">
-        <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
-      </c>
-      <c r="C91" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D91">
-        <v>300</v>
+        <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>M7306228</v>
+        <v>N18701840782</v>
       </c>
       <c r="B92" t="str">
-        <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
+        <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
       </c>
       <c r="C92">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>N18701840782</v>
+        <v>M9023981</v>
       </c>
       <c r="B93" t="str">
-        <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
-      </c>
-      <c r="C93" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D93">
+        <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
+      </c>
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>M9023981</v>
+        <v>N1449833</v>
       </c>
       <c r="B94" t="str">
-        <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
-      </c>
-      <c r="C94" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D94">
-        <v>300</v>
+        <v>.*点评了您办理的任务“@”</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>N1449833</v>
+        <v>M3314031</v>
       </c>
       <c r="B95" t="str">
-        <v>.*点评了您办理的任务“@”</v>
-      </c>
-      <c r="C95" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D95">
+        <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
+      </c>
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>M3314031</v>
+        <v>N8535724</v>
       </c>
       <c r="B96" t="str">
-        <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
-      </c>
-      <c r="C96" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D96">
+        <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
+      </c>
+      <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>N8535724</v>
+        <v>N4049746</v>
       </c>
       <c r="B97" t="str">
-        <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
-      </c>
-      <c r="C97" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D97">
+        <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
+      </c>
+      <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>N4049746</v>
+        <v>N824972_N5779929</v>
       </c>
       <c r="B98" t="str">
-        <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
-      </c>
-      <c r="C98" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D98">
+        <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
+      </c>
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>N824972_N5779929</v>
+        <v>M1345393</v>
       </c>
       <c r="B99" t="str">
-        <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
-      </c>
-      <c r="C99" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
+      </c>
+      <c r="C99">
+        <v>400</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>M1345393</v>
+        <v>N6452326</v>
       </c>
       <c r="B100" t="str">
-        <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
-      </c>
-      <c r="C100" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D100">
-        <v>300</v>
+        <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>N6452326</v>
+        <v>M7014839</v>
       </c>
       <c r="B101" t="str">
-        <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
-      </c>
-      <c r="C101" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D101">
+        <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
+      </c>
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>M7014839</v>
+        <v>M5331967</v>
       </c>
       <c r="B102" t="str">
-        <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
-      </c>
-      <c r="C102" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D102">
+        <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
+      </c>
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>M5331967</v>
+        <v>N8930831</v>
       </c>
       <c r="B103" t="str">
-        <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
-      </c>
-      <c r="C103" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D103">
+        <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
+      </c>
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>N8930831</v>
+        <v>M1129616</v>
       </c>
       <c r="B104" t="str">
-        <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
-      </c>
-      <c r="C104" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D104">
+        <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
+      </c>
+      <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>M1129616</v>
+        <v>N6244007</v>
       </c>
       <c r="B105" t="str">
-        <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
+        <v>您好，您正在进行找回密码，您的验证码：\d+</v>
       </c>
       <c r="C105">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>N6244007</v>
+        <v>N13066815811</v>
       </c>
       <c r="B106" t="str">
-        <v>您好，您正在进行找回密码，您的验证码：\d+</v>
-      </c>
-      <c r="C106" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D106">
+        <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
+      </c>
+      <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>N13066815811</v>
+        <v>N4736145</v>
       </c>
       <c r="B107" t="str">
-        <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
-      </c>
-      <c r="C107" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D107">
+        <v>您的验证码是\d+</v>
+      </c>
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>N4736145</v>
+        <v>M1303173</v>
       </c>
       <c r="B108" t="str">
-        <v>您的验证码是\d+</v>
-      </c>
-      <c r="C108" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D108">
+        <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
+      </c>
+      <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>M1303173</v>
+        <v>M5605804</v>
       </c>
       <c r="B109" t="str">
-        <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
-      </c>
-      <c r="C109" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D109">
-        <v>300</v>
+        <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>M5605804</v>
+        <v>N2970938</v>
       </c>
       <c r="B110" t="str">
-        <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
-      </c>
-      <c r="C110" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D110">
-        <v>300</v>
+        <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>N2970938</v>
+        <v>M2664070</v>
       </c>
       <c r="B111" t="str">
-        <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
-      </c>
-      <c r="C111" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D111">
+        <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
+      </c>
+      <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>M2664070</v>
+        <v>N9298771</v>
       </c>
       <c r="B112" t="str">
-        <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
-      </c>
-      <c r="C112" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D112">
-        <v>300</v>
+        <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>N9298771</v>
+        <v>N7779507</v>
       </c>
       <c r="B113" t="str">
-        <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
-      </c>
-      <c r="C113" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
+        <v>有新的取款信息等您处理，请登录后台处理问题。</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>N7779507</v>
+        <v>M1341782</v>
       </c>
       <c r="B114" t="str">
-        <v>有新的取款信息等您处理，请登录后台处理问题。</v>
-      </c>
-      <c r="C114" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
+        <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>M1341782</v>
+        <v>N8325675</v>
       </c>
       <c r="B115" t="str">
-        <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
-      </c>
-      <c r="C115" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D115">
-        <v>300</v>
+        <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>N8325675</v>
+        <v>N8388342</v>
       </c>
       <c r="B116" t="str">
-        <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
-      </c>
-      <c r="C116" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
+        <v>您预订了.+的课程，请准时上课！</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>N8388342</v>
+        <v>N9090212</v>
       </c>
       <c r="B117" t="str">
-        <v>您预订了.+的课程，请准时上课！</v>
-      </c>
-      <c r="C117" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
+        <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>N9090212</v>
+        <v>N2937014</v>
       </c>
       <c r="B118" t="str">
-        <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
-      </c>
-      <c r="C118" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
+        <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>N2937014</v>
+        <v>M6951228</v>
       </c>
       <c r="B119" t="str">
-        <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
-      </c>
-      <c r="C119" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>M6951228</v>
+        <v>M7150517</v>
       </c>
       <c r="B120" t="str">
-        <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
-      </c>
-      <c r="C120">
-        <v>300</v>
+        <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>M7150517</v>
+        <v>N8930831</v>
       </c>
       <c r="B121" t="str">
-        <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
-      </c>
-      <c r="C121" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
+        <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
       </c>
     </row>
     <row r="122">
@@ -2061,251 +1701,161 @@
         <v>N8930831</v>
       </c>
       <c r="B122" t="str">
-        <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
-      </c>
-      <c r="C122" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
+        <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>N8930831</v>
+        <v>M2297143</v>
       </c>
       <c r="B123" t="str">
-        <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
-      </c>
-      <c r="C123" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+        <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>M2297143</v>
+        <v>N5927922</v>
       </c>
       <c r="B124" t="str">
-        <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
-      </c>
-      <c r="C124" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
+        <v>你好,你的注册验证码是:.{2,8}</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>N5927922</v>
+        <v>M7959731</v>
       </c>
       <c r="B125" t="str">
-        <v>你好,你的注册验证码是:.{2,8}</v>
-      </c>
-      <c r="C125" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
+        <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>M7959731</v>
+        <v>M7014839</v>
       </c>
       <c r="B126" t="str">
-        <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
-      </c>
-      <c r="C126" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D126">
-        <v>300</v>
+        <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>M7014839</v>
+        <v>N3560116</v>
       </c>
       <c r="B127" t="str">
-        <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
-      </c>
-      <c r="C127" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D127">
-        <v>300</v>
+        <v>您的订单已经提交成功，请等待收货。</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>N3560116</v>
+        <v>N9298771</v>
       </c>
       <c r="B128" t="str">
-        <v>您的订单已经提交成功，请等待收货。</v>
-      </c>
-      <c r="C128" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
+        <v>客服中心有一份新订单，请及时推送。</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>N9298771</v>
+        <v>N8535724</v>
       </c>
       <c r="B129" t="str">
-        <v>客服中心有一份新订单，请及时推送。</v>
-      </c>
-      <c r="C129" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
+        <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>N8535724</v>
+        <v>M9230769</v>
       </c>
       <c r="B130" t="str">
-        <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
-      </c>
-      <c r="C130" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
+        <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>M9230769</v>
+        <v>N4145870</v>
       </c>
       <c r="B131" t="str">
-        <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
-      </c>
-      <c r="C131" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D131">
-        <v>300</v>
+        <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>N4145870</v>
+        <v>N2667198</v>
       </c>
       <c r="B132" t="str">
-        <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
-      </c>
-      <c r="C132" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
+        <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>N2667198</v>
+        <v>M7150517</v>
       </c>
       <c r="B133" t="str">
-        <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
-      </c>
-      <c r="C133" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
+        <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>M7150517</v>
+        <v>M8503966</v>
       </c>
       <c r="B134" t="str">
-        <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
-      </c>
-      <c r="C134" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D134">
-        <v>300</v>
+        <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>M8503966</v>
+        <v>N9298771</v>
       </c>
       <c r="B135" t="str">
-        <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
-      </c>
-      <c r="C135" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D135">
-        <v>300</v>
+        <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>N9298771</v>
+        <v>M7290174</v>
       </c>
       <c r="B136" t="str">
-        <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
-      </c>
-      <c r="C136" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D136">
+        <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
+      </c>
+      <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>M7290174</v>
+        <v>N1261882</v>
       </c>
       <c r="B137" t="str">
-        <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
-      </c>
-      <c r="C137" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D137">
-        <v>300</v>
+        <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>N1261882</v>
+        <v>M2628831</v>
       </c>
       <c r="B138" t="str">
-        <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
-      </c>
-      <c r="C138" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D138">
+        <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
+      </c>
+      <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>M2628831</v>
+        <v>N1261882</v>
       </c>
       <c r="B139" t="str">
-        <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
-      </c>
-      <c r="C139" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D139">
-        <v>300</v>
+        <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2313,12 +1863,9 @@
         <v>N1261882</v>
       </c>
       <c r="B140" t="str">
-        <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
-      </c>
-      <c r="C140" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D140">
+        <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
+      </c>
+      <c r="C140">
         <v>1</v>
       </c>
     </row>
@@ -2327,110 +1874,86 @@
         <v>N1261882</v>
       </c>
       <c r="B141" t="str">
-        <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
-      </c>
-      <c r="C141" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D141">
+        <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
+      </c>
+      <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>N1261882</v>
+        <v>M3390424</v>
       </c>
       <c r="B142" t="str">
-        <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
-      </c>
-      <c r="C142" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D142">
+        <v>12.*贡桔.*元。退订回TD</v>
+      </c>
+      <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>M3390424</v>
+        <v>M8272624</v>
       </c>
       <c r="B143" t="str">
-        <v>12.*贡桔.*元。退订回TD</v>
-      </c>
-      <c r="C143" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D143">
-        <v>300</v>
+        <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>M8272624</v>
+        <v>N8348288</v>
       </c>
       <c r="B144" t="str">
-        <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
-      </c>
-      <c r="C144" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D144">
-        <v>300</v>
+        <v>您本次验证码:\w+,10分钟内有效</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>N8348288</v>
+        <v>N8678056</v>
       </c>
       <c r="B145" t="str">
-        <v>您本次验证码:\w+,10分钟内有效</v>
-      </c>
-      <c r="C145" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D145">
+        <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
+      </c>
+      <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>N8678056</v>
+        <v>N5979074</v>
       </c>
       <c r="B146" t="str">
-        <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
-      </c>
-      <c r="C146" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D146">
+        <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
+      </c>
+      <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>N5979074</v>
+        <v>N3620301</v>
       </c>
       <c r="B147" t="str">
-        <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
-      </c>
-      <c r="C147" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D147">
+        <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
+      </c>
+      <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>N3620301</v>
+        <v>N8994322</v>
       </c>
       <c r="B148" t="str">
-        <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
-      </c>
-      <c r="C148" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D148">
+        <v>预订编号.+</v>
+      </c>
+      <c r="C148">
         <v>1</v>
       </c>
     </row>
@@ -2439,12 +1962,9 @@
         <v>N8994322</v>
       </c>
       <c r="B149" t="str">
-        <v>预订编号.+</v>
-      </c>
-      <c r="C149" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D149">
+        <v>尊敬.+火车.+</v>
+      </c>
+      <c r="C149">
         <v>1</v>
       </c>
     </row>
@@ -2453,12 +1973,9 @@
         <v>N8994322</v>
       </c>
       <c r="B150" t="str">
-        <v>尊敬.+火车.+</v>
-      </c>
-      <c r="C150" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D150">
+        <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
+      </c>
+      <c r="C150">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1984,40 @@
         <v>N8994322</v>
       </c>
       <c r="B151" t="str">
-        <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
-      </c>
-      <c r="C151" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D151">
+        <v>订单.+请及时关注！</v>
+      </c>
+      <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>N8994322</v>
+        <v>M3917225</v>
       </c>
       <c r="B152" t="str">
-        <v>订单.+请及时关注！</v>
-      </c>
-      <c r="C152" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D152">
+        <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
+      </c>
+      <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>M3917225</v>
+        <v>N3438022</v>
       </c>
       <c r="B153" t="str">
-        <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
-      </c>
-      <c r="C153" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D153">
-        <v>300</v>
+        <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>N3438022</v>
+        <v>N7963607</v>
       </c>
       <c r="B154" t="str">
-        <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
+        <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2520,12 +2028,9 @@
         <v>N7963607</v>
       </c>
       <c r="B155" t="str">
-        <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
-      </c>
-      <c r="C155" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D155">
+        <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
+      </c>
+      <c r="C155">
         <v>1</v>
       </c>
     </row>
@@ -2534,69 +2039,54 @@
         <v>N7963607</v>
       </c>
       <c r="B156" t="str">
-        <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
-      </c>
-      <c r="C156" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D156">
+        <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
+      </c>
+      <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>N7963607</v>
+        <v>N3438022</v>
       </c>
       <c r="B157" t="str">
-        <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
-      </c>
-      <c r="C157" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D157">
+        <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
+      </c>
+      <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>N3438022</v>
+        <v>N5473131</v>
       </c>
       <c r="B158" t="str">
-        <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
-      </c>
-      <c r="C158" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D158">
+        <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
+      </c>
+      <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>N5473131</v>
+        <v>M5382321</v>
       </c>
       <c r="B159" t="str">
-        <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
-      </c>
-      <c r="C159" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D159">
+        <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
+      </c>
+      <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>M5382321</v>
+        <v>N2667198</v>
       </c>
       <c r="B160" t="str">
-        <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
-      </c>
-      <c r="C160" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D160">
-        <v>300</v>
+        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2604,96 +2094,75 @@
         <v>N2667198</v>
       </c>
       <c r="B161" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
-      </c>
-      <c r="C161" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D161">
+        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
+      </c>
+      <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>N2667198</v>
+        <v>N7963607</v>
       </c>
       <c r="B162" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
-      </c>
-      <c r="C162" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D162">
+        <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
+      </c>
+      <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>N7963607</v>
+        <v>N7911438</v>
       </c>
       <c r="B163" t="str">
-        <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
-      </c>
-      <c r="C163" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D163">
+        <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
+      </c>
+      <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>N7911438</v>
+        <v>M3675880</v>
       </c>
       <c r="B164" t="str">
-        <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
-      </c>
-      <c r="C164" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D164">
+        <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
+      </c>
+      <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>M3675880</v>
+        <v>M5262635</v>
       </c>
       <c r="B165" t="str">
-        <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
-      </c>
-      <c r="C165" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D165">
+        <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
+      </c>
+      <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>M5262635</v>
+        <v>N7911438</v>
       </c>
       <c r="B166" t="str">
-        <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
-      </c>
-      <c r="C166" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D166">
-        <v>300</v>
+        <v>您好，您的验证码是.{2,10}</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>N7911438</v>
+        <v>N7963607</v>
       </c>
       <c r="B167" t="str">
-        <v>您好，您的验证码是.{2,10}</v>
-      </c>
-      <c r="C167" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D167">
+        <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
+      </c>
+      <c r="C167">
         <v>1</v>
       </c>
     </row>
@@ -2702,116 +2171,95 @@
         <v>N7963607</v>
       </c>
       <c r="B168" t="str">
-        <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
-      </c>
-      <c r="C168" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D168">
+        <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
+      </c>
+      <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>N7963607</v>
+        <v>N5408348</v>
       </c>
       <c r="B169" t="str">
-        <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
-      </c>
-      <c r="C169" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D169">
+        <v>您好，您的验证码是.{0,10}</v>
+      </c>
+      <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>N5408348</v>
+        <v>N1686159</v>
       </c>
       <c r="B170" t="str">
-        <v>您好，您的验证码是.{0,10}</v>
-      </c>
-      <c r="C170" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D170">
+        <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
+      </c>
+      <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>N1686159</v>
+        <v>M8097078</v>
       </c>
       <c r="B171" t="str">
-        <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
-      </c>
-      <c r="C171" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D171">
+        <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
+      </c>
+      <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>M8097078</v>
+        <v>M8219163</v>
       </c>
       <c r="B172" t="str">
-        <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
-      </c>
-      <c r="C172" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D172">
-        <v>300</v>
+        <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>M8219163</v>
+        <v>M7388401</v>
       </c>
       <c r="B173" t="str">
-        <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
-      </c>
-      <c r="C173" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D173">
-        <v>300</v>
+        <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>M7388401</v>
+        <v>M4864226</v>
       </c>
       <c r="B174" t="str">
-        <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
+        <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
       </c>
       <c r="C174">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>M4864226</v>
+        <v>N5142803</v>
       </c>
       <c r="B175" t="str">
-        <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
-      </c>
-      <c r="C175" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D175">
+        <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
+      </c>
+      <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>N5142803</v>
+        <v>N5523562</v>
       </c>
       <c r="B176" t="str">
-        <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
+        <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2822,7 +2270,7 @@
         <v>N5523562</v>
       </c>
       <c r="B177" t="str">
-        <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
+        <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2830,58 +2278,46 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>N5523562</v>
+        <v>N3189631</v>
       </c>
       <c r="B178" t="str">
-        <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
-      </c>
-      <c r="C178" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D178">
+        <v>您好，您的验证码是.{0,15}</v>
+      </c>
+      <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>N3189631</v>
+        <v>N6164610</v>
       </c>
       <c r="B179" t="str">
-        <v>您好，您的验证码是.{0,15}</v>
-      </c>
-      <c r="C179" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D179">
+        <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
+      </c>
+      <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>N6164610</v>
+        <v>M7980461</v>
       </c>
       <c r="B180" t="str">
-        <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
-      </c>
-      <c r="C180" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D180">
+        <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
+      </c>
+      <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>M7980461</v>
+        <v>N5030495</v>
       </c>
       <c r="B181" t="str">
-        <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
-      </c>
-      <c r="C181" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D181">
-        <v>300</v>
+        <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2889,96 +2325,75 @@
         <v>N5030495</v>
       </c>
       <c r="B182" t="str">
-        <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
-      </c>
-      <c r="C182" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D182">
+        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
+      </c>
+      <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>N5030495</v>
+        <v>N5148682</v>
       </c>
       <c r="B183" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
-      </c>
-      <c r="C183" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D183">
+        <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
+      </c>
+      <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>N5148682</v>
+        <v>N7080731</v>
       </c>
       <c r="B184" t="str">
-        <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
-      </c>
-      <c r="C184" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D184">
+        <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
+      </c>
+      <c r="C184">
         <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>N7080731</v>
+        <v>N2716352</v>
       </c>
       <c r="B185" t="str">
-        <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
-      </c>
-      <c r="C185" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D185">
+        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
+      </c>
+      <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>N2716352</v>
+        <v>N1333913</v>
       </c>
       <c r="B186" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
-      </c>
-      <c r="C186" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D186">
+        <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
+      </c>
+      <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>N1333913</v>
+        <v>N6486332</v>
       </c>
       <c r="B187" t="str">
-        <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
-      </c>
-      <c r="C187" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D187">
+        <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
+      </c>
+      <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>N6486332</v>
+        <v>N5030495</v>
       </c>
       <c r="B188" t="str">
-        <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
-      </c>
-      <c r="C188" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D188">
+        <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
+      </c>
+      <c r="C188">
         <v>1</v>
       </c>
     </row>
@@ -2987,41 +2402,32 @@
         <v>N5030495</v>
       </c>
       <c r="B189" t="str">
-        <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
-      </c>
-      <c r="C189" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D189">
+        <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
+      </c>
+      <c r="C189">
         <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>N5030495</v>
+        <v>N18701840782</v>
       </c>
       <c r="B190" t="str">
-        <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
-      </c>
-      <c r="C190" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D190">
+        <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
+      </c>
+      <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>N18701840782</v>
+        <v>N8609344</v>
       </c>
       <c r="B191" t="str">
-        <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
-      </c>
-      <c r="C191" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D191">
-        <v>300</v>
+        <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3029,94 +2435,76 @@
         <v>N8609344</v>
       </c>
       <c r="B192" t="str">
-        <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
-      </c>
-      <c r="C192" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D192">
+        <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
+      </c>
+      <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>N8609344</v>
+        <v>M6827905</v>
       </c>
       <c r="B193" t="str">
-        <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
-      </c>
-      <c r="C193" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D193">
+        <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
+      </c>
+      <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>M6827905</v>
+        <v>N8609344</v>
       </c>
       <c r="B194" t="str">
-        <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
-      </c>
-      <c r="C194" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D194">
-        <v>300</v>
+        <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>N8609344</v>
+        <v>N2033905</v>
       </c>
       <c r="B195" t="str">
-        <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
-      </c>
-      <c r="C195" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D195">
+        <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
+      </c>
+      <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>N2033905</v>
+        <v>M5568914</v>
       </c>
       <c r="B196" t="str">
-        <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
-      </c>
-      <c r="C196" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D196">
+        <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
+      </c>
+      <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>M5568914</v>
+        <v>M3504161</v>
       </c>
       <c r="B197" t="str">
-        <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
+        <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
       </c>
       <c r="C197">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>M3504161</v>
+        <v>N4006876</v>
       </c>
       <c r="B198" t="str">
-        <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
-      </c>
-      <c r="C198" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D198">
-        <v>300</v>
+        <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3124,122 +2512,95 @@
         <v>N4006876</v>
       </c>
       <c r="B199" t="str">
-        <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
-      </c>
-      <c r="C199" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D199">
+        <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
+      </c>
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>N4006876</v>
+        <v>M8710160</v>
       </c>
       <c r="B200" t="str">
-        <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
-      </c>
-      <c r="C200" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D200">
+        <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
+      </c>
+      <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>M8710160</v>
+        <v>N5261027</v>
       </c>
       <c r="B201" t="str">
-        <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
-      </c>
-      <c r="C201" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D201">
-        <v>300</v>
+        <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>N5261027</v>
+        <v>N3588635</v>
       </c>
       <c r="B202" t="str">
-        <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
-      </c>
-      <c r="C202" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D202">
+        <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
+      </c>
+      <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>N3588635</v>
+        <v>N4006876</v>
       </c>
       <c r="B203" t="str">
-        <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
-      </c>
-      <c r="C203" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D203">
+        <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
+      </c>
+      <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>N4006876</v>
+        <v>N8699715</v>
       </c>
       <c r="B204" t="str">
-        <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
-      </c>
-      <c r="C204" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D204">
-        <v>300</v>
+        <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>N8699715</v>
+        <v>M8528910</v>
       </c>
       <c r="B205" t="str">
-        <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
-      </c>
-      <c r="C205" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D205">
+        <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
+      </c>
+      <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>M8528910</v>
+        <v>N1083891</v>
       </c>
       <c r="B206" t="str">
-        <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
+        <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
       </c>
       <c r="C206">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>N1083891</v>
+        <v>N6881179</v>
       </c>
       <c r="B207" t="str">
-        <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
-      </c>
-      <c r="C207" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
+        <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
       </c>
     </row>
     <row r="208">
@@ -3247,139 +2608,79 @@
         <v>N6881179</v>
       </c>
       <c r="B208" t="str">
-        <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
-      </c>
-      <c r="C208" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
+        <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>N6881179</v>
+        <v>N3218638</v>
       </c>
       <c r="B209" t="str">
-        <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
-      </c>
-      <c r="C209" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D209">
-        <v>1</v>
+        <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>N3218638</v>
+        <v>N4049746</v>
       </c>
       <c r="B210" t="str">
-        <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
-      </c>
-      <c r="C210" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
+        <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>N4049746</v>
+        <v>M3390424</v>
       </c>
       <c r="B211" t="str">
-        <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
-      </c>
-      <c r="C211" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
+        <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>M3390424</v>
+        <v>N9053820</v>
       </c>
       <c r="B212" t="str">
-        <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
-      </c>
-      <c r="C212" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
+        <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>N9053820</v>
+        <v>N7059101</v>
       </c>
       <c r="B213" t="str">
-        <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
-      </c>
-      <c r="C213" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
+        <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>N7059101</v>
+        <v>N9053820</v>
       </c>
       <c r="B214" t="str">
-        <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
-      </c>
-      <c r="C214" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
+        <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>N9053820</v>
+        <v>N5030495</v>
       </c>
       <c r="B215" t="str">
-        <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
-      </c>
-      <c r="C215" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
+        <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>N5030495</v>
+        <v>N4184665</v>
       </c>
       <c r="B216" t="str">
-        <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
-      </c>
-      <c r="C216" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
+        <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>N4184665</v>
+        <v>N6873724</v>
       </c>
       <c r="B217" t="str">
-        <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
-      </c>
-      <c r="C217" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
+        <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
       </c>
     </row>
     <row r="218">
@@ -3387,13 +2688,7 @@
         <v>N6873724</v>
       </c>
       <c r="B218" t="str">
-        <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
-      </c>
-      <c r="C218" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
+        <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
       </c>
     </row>
     <row r="219">
@@ -3401,13 +2696,7 @@
         <v>N6873724</v>
       </c>
       <c r="B219" t="str">
-        <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
-      </c>
-      <c r="C219" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D219">
-        <v>300</v>
+        <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
       </c>
     </row>
     <row r="220">
@@ -3415,139 +2704,79 @@
         <v>N6873724</v>
       </c>
       <c r="B220" t="str">
-        <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
-      </c>
-      <c r="C220" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
+        <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>N6873724</v>
+        <v>M2664070</v>
       </c>
       <c r="B221" t="str">
-        <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
-      </c>
-      <c r="C221" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
+        <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>M2664070</v>
+        <v>N1333913</v>
       </c>
       <c r="B222" t="str">
-        <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
-      </c>
-      <c r="C222" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D222">
-        <v>300</v>
+        <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>N1333913</v>
+        <v>N1606651</v>
       </c>
       <c r="B223" t="str">
-        <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
-      </c>
-      <c r="C223" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
+        <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>N1606651</v>
+        <v>N6651869</v>
       </c>
       <c r="B224" t="str">
-        <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
-      </c>
-      <c r="C224" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
+        <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>N6651869</v>
+        <v>M5972359</v>
       </c>
       <c r="B225" t="str">
-        <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
-      </c>
-      <c r="C225" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
+        <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>M5972359</v>
+        <v>M2479438</v>
       </c>
       <c r="B226" t="str">
-        <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
-      </c>
-      <c r="C226" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D226">
-        <v>300</v>
+        <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>M2479438</v>
+        <v>N4689491</v>
       </c>
       <c r="B227" t="str">
-        <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
-      </c>
-      <c r="C227" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
+        <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>N4689491</v>
+        <v>N5233471</v>
       </c>
       <c r="B228" t="str">
-        <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
-      </c>
-      <c r="C228" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
+        <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>N5233471</v>
+        <v>N5030495</v>
       </c>
       <c r="B229" t="str">
-        <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
-      </c>
-      <c r="C229" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
+        <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
       </c>
     </row>
     <row r="230">
@@ -3555,27 +2784,15 @@
         <v>N5030495</v>
       </c>
       <c r="B230" t="str">
-        <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
-      </c>
-      <c r="C230" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
+        <v>您的验证码是.{0,10}，10分钟内有效。</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>N5030495</v>
+        <v>N4689491</v>
       </c>
       <c r="B231" t="str">
-        <v>您的验证码是.{0,10}，10分钟内有效。</v>
-      </c>
-      <c r="C231" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
+        <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
       </c>
     </row>
     <row r="232">
@@ -3583,66 +2800,39 @@
         <v>N4689491</v>
       </c>
       <c r="B232" t="str">
-        <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
-      </c>
-      <c r="C232" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
+        <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>N4689491</v>
+        <v>M1509359</v>
       </c>
       <c r="B233" t="str">
-        <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
+        <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>M1509359</v>
+        <v>M9434897</v>
       </c>
       <c r="B234" t="str">
-        <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
-      </c>
-      <c r="C234" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D234">
-        <v>300</v>
+        <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>M9434897</v>
+        <v>M4582717</v>
       </c>
       <c r="B235" t="str">
-        <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
-      </c>
-      <c r="C235" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
+        <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>M4582717</v>
+        <v>N5268364</v>
       </c>
       <c r="B236" t="str">
-        <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
-      </c>
-      <c r="C236" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D236">
-        <v>300</v>
+        <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
       </c>
     </row>
     <row r="237">
@@ -3650,97 +2840,55 @@
         <v>N5268364</v>
       </c>
       <c r="B237" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
-      </c>
-      <c r="C237" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
+        <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>N5268364</v>
+        <v>N8988822</v>
       </c>
       <c r="B238" t="str">
-        <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
-      </c>
-      <c r="C238" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
+        <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>N8988822</v>
+        <v>M4979026</v>
       </c>
       <c r="B239" t="str">
-        <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
-      </c>
-      <c r="C239" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
+        <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>M4979026</v>
+        <v>N1666314</v>
       </c>
       <c r="B240" t="str">
-        <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
-      </c>
-      <c r="C240" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D240">
-        <v>300</v>
+        <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>N1666314</v>
+        <v>N5233471</v>
       </c>
       <c r="B241" t="str">
-        <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
-      </c>
-      <c r="C241" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
+        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>N5233471</v>
+        <v>M2561720</v>
       </c>
       <c r="B242" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
-      </c>
-      <c r="C242" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
+        <v>测试模板是否有效，\d+退订回TD</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>M2561720</v>
+        <v>N5268364</v>
       </c>
       <c r="B243" t="str">
-        <v>测试模板是否有效，\d+退订回TD</v>
-      </c>
-      <c r="C243" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D243">
-        <v>300</v>
+        <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
       </c>
     </row>
     <row r="244">
@@ -3748,307 +2896,175 @@
         <v>N5268364</v>
       </c>
       <c r="B244" t="str">
-        <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
-      </c>
-      <c r="C244" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
+        <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>N5268364</v>
+        <v>M2561720</v>
       </c>
       <c r="B245" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
-      </c>
-      <c r="C245" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D245">
-        <v>300</v>
+        <v>测试模板是否有效，日期.{0,12}退订回TD</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>M2561720</v>
+        <v>N7645941</v>
       </c>
       <c r="B246" t="str">
-        <v>测试模板是否有效，日期.{0,12}退订回TD</v>
-      </c>
-      <c r="C246" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D246">
-        <v>300</v>
+        <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>N7645941</v>
+        <v>N6623314</v>
       </c>
       <c r="B247" t="str">
-        <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
-      </c>
-      <c r="C247" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
+        <v>您好，您的验证码是：\d+</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>N6623314</v>
+        <v>N3131625</v>
       </c>
       <c r="B248" t="str">
-        <v>您好，您的验证码是：\d+</v>
-      </c>
-      <c r="C248" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
+        <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>N3131625</v>
+        <v>M7736805</v>
       </c>
       <c r="B249" t="str">
-        <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
-      </c>
-      <c r="C249" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
+        <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>M7736805</v>
+        <v>M4364918</v>
       </c>
       <c r="B250" t="str">
-        <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
-      </c>
-      <c r="C250" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
+        <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>M4364918</v>
+        <v>M5129810</v>
       </c>
       <c r="B251" t="str">
-        <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
-      </c>
-      <c r="C251" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D251">
-        <v>300</v>
+        <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>M5129810</v>
+        <v>M655095_M4818426</v>
       </c>
       <c r="B252" t="str">
-        <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
-      </c>
-      <c r="C252" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
+        <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>M655095_M4818426</v>
+        <v>N6716489</v>
       </c>
       <c r="B253" t="str">
-        <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
-      </c>
-      <c r="C253" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D253">
-        <v>300</v>
+        <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>N6716489</v>
+        <v>M9313989</v>
       </c>
       <c r="B254" t="str">
-        <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
-      </c>
-      <c r="C254" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
+        <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>M9313989</v>
+        <v>N9745907</v>
       </c>
       <c r="B255" t="str">
-        <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
-      </c>
-      <c r="C255" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D255">
-        <v>300</v>
+        <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>N9745907</v>
+        <v>N3037712</v>
       </c>
       <c r="B256" t="str">
-        <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
-      </c>
-      <c r="C256" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
+        <v>您好，您的注册验证码是.{0,10}</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>N3037712</v>
+        <v>M1233088</v>
       </c>
       <c r="B257" t="str">
-        <v>您好，您的注册验证码是.{0,10}</v>
-      </c>
-      <c r="C257" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
+        <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>M1233088</v>
+        <v>N6716489</v>
       </c>
       <c r="B258" t="str">
-        <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
-      </c>
-      <c r="C258" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D258">
-        <v>300</v>
+        <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>N6716489</v>
+        <v>M1233088</v>
       </c>
       <c r="B259" t="str">
-        <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
-      </c>
-      <c r="C259" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
+        <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>M1233088</v>
+        <v>M5129810</v>
       </c>
       <c r="B260" t="str">
-        <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
-      </c>
-      <c r="C260" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D260">
-        <v>300</v>
+        <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>M5129810</v>
+        <v>N9686649</v>
       </c>
       <c r="B261" t="str">
-        <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
-      </c>
-      <c r="C261" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D261">
-        <v>300</v>
+        <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>N9686649</v>
+        <v>M5129810</v>
       </c>
       <c r="B262" t="str">
-        <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
-      </c>
-      <c r="C262" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
+        <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>M5129810</v>
+        <v>N7566157</v>
       </c>
       <c r="B263" t="str">
-        <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
-      </c>
-      <c r="C263" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D263">
-        <v>300</v>
+        <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>N7566157</v>
+        <v>N6873724</v>
       </c>
       <c r="B264" t="str">
-        <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
-      </c>
-      <c r="C264" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
+        <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>N6873724</v>
+        <v>N811652_N1666314</v>
       </c>
       <c r="B265" t="str">
-        <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
-      </c>
-      <c r="C265" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D265">
-        <v>300</v>
+        <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
     </row>
     <row r="266">
@@ -4056,111 +3072,63 @@
         <v>N811652_N1666314</v>
       </c>
       <c r="B266" t="str">
-        <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
-      </c>
-      <c r="C266" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
+        <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>N811652_N1666314</v>
+        <v>N7449087</v>
       </c>
       <c r="B267" t="str">
-        <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
-      </c>
-      <c r="C267" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
+        <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>N7449087</v>
+        <v>M8997564</v>
       </c>
       <c r="B268" t="str">
-        <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
-      </c>
-      <c r="C268" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
+        <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>M8997564</v>
+        <v>M2802919</v>
       </c>
       <c r="B269" t="str">
-        <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
-      </c>
-      <c r="C269" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D269">
-        <v>300</v>
+        <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>M2802919</v>
+        <v>N7139403</v>
       </c>
       <c r="B270" t="str">
-        <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
-      </c>
-      <c r="C270" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D270">
-        <v>300</v>
+        <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>N7139403</v>
+        <v>M5362782</v>
       </c>
       <c r="B271" t="str">
-        <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
-      </c>
-      <c r="C271" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
+        <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>M5362782</v>
+        <v>N6678451</v>
       </c>
       <c r="B272" t="str">
-        <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
-      </c>
-      <c r="C272" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D272">
-        <v>300</v>
+        <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>N6678451</v>
+        <v>N3966816</v>
       </c>
       <c r="B273" t="str">
-        <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
-      </c>
-      <c r="C273" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
+        <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
       </c>
     </row>
     <row r="274">
@@ -4168,237 +3136,135 @@
         <v>N3966816</v>
       </c>
       <c r="B274" t="str">
-        <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
-      </c>
-      <c r="C274" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
+        <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>N3966816</v>
+        <v>M7611222</v>
       </c>
       <c r="B275" t="str">
-        <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
-      </c>
-      <c r="C275" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
+        <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>M7611222</v>
+        <v>N4145870</v>
       </c>
       <c r="B276" t="str">
-        <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
-      </c>
-      <c r="C276" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D276">
-        <v>300</v>
+        <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>N4145870</v>
+        <v>M4623918</v>
       </c>
       <c r="B277" t="str">
-        <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
-      </c>
-      <c r="C277" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
+        <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>M4623918</v>
+        <v>M8093322</v>
       </c>
       <c r="B278" t="str">
-        <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
-      </c>
-      <c r="C278" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D278">
-        <v>300</v>
+        <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>M8093322</v>
+        <v>M4558853</v>
       </c>
       <c r="B279" t="str">
-        <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
-      </c>
-      <c r="C279" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D279">
-        <v>300</v>
+        <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>M4558853</v>
+        <v>N3966816</v>
       </c>
       <c r="B280" t="str">
-        <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
-      </c>
-      <c r="C280" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D280">
-        <v>300</v>
+        <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>N3966816</v>
+        <v>N8917788</v>
       </c>
       <c r="B281" t="str">
-        <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
-      </c>
-      <c r="C281" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
+        <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>N8917788</v>
+        <v>N7566157</v>
       </c>
       <c r="B282" t="str">
-        <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
-      </c>
-      <c r="C282" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
+        <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>N7566157</v>
+        <v>N2440260</v>
       </c>
       <c r="B283" t="str">
-        <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
-      </c>
-      <c r="C283" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
+        <v>有一个新的项目需要审核。</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>N2440260</v>
+        <v>N824972_N5779929</v>
       </c>
       <c r="B284" t="str">
-        <v>有一个新的项目需要审核。</v>
-      </c>
-      <c r="C284" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
+        <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>N824972_N5779929</v>
+        <v>M5129810</v>
       </c>
       <c r="B285" t="str">
-        <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
-      </c>
-      <c r="C285" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D285">
-        <v>1</v>
+        <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>M5129810</v>
+        <v>M8928040</v>
       </c>
       <c r="B286" t="str">
-        <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
-      </c>
-      <c r="C286" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D286">
-        <v>300</v>
+        <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>M8928040</v>
+        <v>N4602312</v>
       </c>
       <c r="B287" t="str">
-        <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
-      </c>
-      <c r="C287" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D287">
-        <v>300</v>
+        <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>N4602312</v>
+        <v>N8369795</v>
       </c>
       <c r="B288" t="str">
-        <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
-      </c>
-      <c r="C288" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D288">
-        <v>1</v>
+        <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>N8369795</v>
+        <v>N1437892</v>
       </c>
       <c r="B289" t="str">
-        <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
-      </c>
-      <c r="C289" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D289">
-        <v>1</v>
+        <v>您的验证码是：123</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>N1437892</v>
+        <v>N1083891</v>
       </c>
       <c r="B290" t="str">
-        <v>您的验证码是：123</v>
-      </c>
-      <c r="C290" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
+        <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
       </c>
     </row>
     <row r="291">
@@ -4406,27 +3272,15 @@
         <v>N1083891</v>
       </c>
       <c r="B291" t="str">
-        <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
-      </c>
-      <c r="C291" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
+        <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>N1083891</v>
+        <v>N4383936</v>
       </c>
       <c r="B292" t="str">
-        <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
-      </c>
-      <c r="C292" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D292">
-        <v>1</v>
+        <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
       </c>
     </row>
     <row r="293">
@@ -4434,13 +3288,7 @@
         <v>N4383936</v>
       </c>
       <c r="B293" t="str">
-        <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
-      </c>
-      <c r="C293" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D293">
-        <v>1</v>
+        <v>会员.*刚才.*操作,请登陆平台审查。</v>
       </c>
     </row>
     <row r="294">
@@ -4448,13 +3296,7 @@
         <v>N4383936</v>
       </c>
       <c r="B294" t="str">
-        <v>会员.*刚才.*操作,请登陆平台审查。</v>
-      </c>
-      <c r="C294" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D294">
-        <v>1</v>
+        <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
       </c>
     </row>
     <row r="295">
@@ -4462,13 +3304,7 @@
         <v>N4383936</v>
       </c>
       <c r="B295" t="str">
-        <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
-      </c>
-      <c r="C295" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D295">
-        <v>1</v>
+        <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
       </c>
     </row>
     <row r="296">
@@ -4476,13 +3312,7 @@
         <v>N4383936</v>
       </c>
       <c r="B296" t="str">
-        <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
-      </c>
-      <c r="C296" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D296">
-        <v>1</v>
+        <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
       </c>
     </row>
     <row r="297">
@@ -4490,66 +3320,39 @@
         <v>N4383936</v>
       </c>
       <c r="B297" t="str">
-        <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
-      </c>
-      <c r="C297" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
+        <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>N4383936</v>
+        <v>M6010411</v>
       </c>
       <c r="B298" t="str">
-        <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
-      </c>
-      <c r="C298" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
+        <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>M6010411</v>
+        <v>M4364918</v>
       </c>
       <c r="B299" t="str">
-        <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
-      </c>
-      <c r="C299">
-        <v>300</v>
+        <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>M4364918</v>
+        <v>M8348728</v>
       </c>
       <c r="B300" t="str">
-        <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
-      </c>
-      <c r="C300" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D300">
-        <v>300</v>
+        <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>M8348728</v>
+        <v>N4383936</v>
       </c>
       <c r="B301" t="str">
-        <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
-      </c>
-      <c r="C301" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D301">
-        <v>300</v>
+        <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
       </c>
     </row>
     <row r="302">
@@ -4557,13 +3360,7 @@
         <v>N4383936</v>
       </c>
       <c r="B302" t="str">
-        <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
-      </c>
-      <c r="C302" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
+        <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
       </c>
     </row>
     <row r="303">
@@ -4571,10 +3368,7 @@
         <v>N4383936</v>
       </c>
       <c r="B303" t="str">
-        <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
-      </c>
-      <c r="C303">
-        <v>1</v>
+        <v>域名.+出现异常情况！</v>
       </c>
     </row>
     <row r="304">
@@ -4582,13 +3376,7 @@
         <v>N4383936</v>
       </c>
       <c r="B304" t="str">
-        <v>域名.+出现异常情况！</v>
-      </c>
-      <c r="C304" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D304">
-        <v>1</v>
+        <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
       </c>
     </row>
     <row r="305">
@@ -4596,13 +3384,7 @@
         <v>N4383936</v>
       </c>
       <c r="B305" t="str">
-        <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
-      </c>
-      <c r="C305" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D305">
-        <v>1</v>
+        <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
       </c>
     </row>
     <row r="306">
@@ -4610,13 +3392,7 @@
         <v>N4383936</v>
       </c>
       <c r="B306" t="str">
-        <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
-      </c>
-      <c r="C306" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D306">
-        <v>1</v>
+        <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
       </c>
     </row>
     <row r="307">
@@ -4624,13 +3400,7 @@
         <v>N4383936</v>
       </c>
       <c r="B307" t="str">
-        <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
-      </c>
-      <c r="C307" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D307">
-        <v>1</v>
+        <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
       </c>
     </row>
     <row r="308">
@@ -4638,88 +3408,55 @@
         <v>N4383936</v>
       </c>
       <c r="B308" t="str">
-        <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
-      </c>
-      <c r="C308" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
+        <v>统一用户中心账号开通通知.+请注意跟进。</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>N4383936</v>
+        <v>M3202601</v>
       </c>
       <c r="B309" t="str">
-        <v>统一用户中心账号开通通知.+请注意跟进。</v>
-      </c>
-      <c r="C309" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
+        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>M3202601</v>
+        <v>M3434071</v>
       </c>
       <c r="B310" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
-      </c>
-      <c r="C310">
-        <v>300</v>
+        <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>M3434071</v>
+        <v>M5129810</v>
       </c>
       <c r="B311" t="str">
-        <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
-      </c>
-      <c r="C311">
-        <v>300</v>
+        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>M5129810</v>
+        <v>M4980299</v>
       </c>
       <c r="B312" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
-      </c>
-      <c r="C312" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D312">
-        <v>300</v>
+        <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>M4980299</v>
+        <v>N2112240</v>
       </c>
       <c r="B313" t="str">
-        <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
-      </c>
-      <c r="C313">
-        <v>300</v>
+        <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>N2112240</v>
+        <v>N4383936</v>
       </c>
       <c r="B314" t="str">
-        <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
-      </c>
-      <c r="C314" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
+        <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
       </c>
     </row>
     <row r="315">
@@ -4727,13 +3464,7 @@
         <v>N4383936</v>
       </c>
       <c r="B315" t="str">
-        <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
-      </c>
-      <c r="C315" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D315">
-        <v>1</v>
+        <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
       </c>
     </row>
     <row r="316">
@@ -4741,13 +3472,7 @@
         <v>N4383936</v>
       </c>
       <c r="B316" t="str">
-        <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
-      </c>
-      <c r="C316" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D316">
-        <v>1</v>
+        <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
       </c>
     </row>
     <row r="317">
@@ -4755,10 +3480,7 @@
         <v>N4383936</v>
       </c>
       <c r="B317" t="str">
-        <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
-      </c>
-      <c r="C317">
-        <v>1</v>
+        <v>您的视频定制已经完成。点击查询下载链接\w+</v>
       </c>
     </row>
     <row r="318">
@@ -4766,41 +3488,23 @@
         <v>N4383936</v>
       </c>
       <c r="B318" t="str">
-        <v>您的视频定制已经完成。点击查询下载链接\w+</v>
-      </c>
-      <c r="C318" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D318">
-        <v>1</v>
+        <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>N4383936</v>
+        <v>M6180832</v>
       </c>
       <c r="B319" t="str">
-        <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
-      </c>
-      <c r="C319" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D319">
-        <v>1</v>
+        <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>M6180832</v>
+        <v>N8369795</v>
       </c>
       <c r="B320" t="str">
-        <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
-      </c>
-      <c r="C320" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D320">
-        <v>300</v>
+        <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
       </c>
     </row>
     <row r="321">
@@ -4808,88 +3512,55 @@
         <v>N8369795</v>
       </c>
       <c r="B321" t="str">
-        <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
-      </c>
-      <c r="C321" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
+        <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>N8369795</v>
+        <v>M7223621</v>
       </c>
       <c r="B322" t="str">
-        <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
-      </c>
-      <c r="C322" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D322">
-        <v>300</v>
+        <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>M7223621</v>
+        <v>M667356_M1772685</v>
       </c>
       <c r="B323" t="str">
-        <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
-      </c>
-      <c r="C323">
-        <v>300</v>
+        <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>M667356_M1772685</v>
+        <v>M5129810</v>
       </c>
       <c r="B324" t="str">
-        <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
-      </c>
-      <c r="C324">
-        <v>300</v>
+        <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>M5129810</v>
+        <v>N4383936</v>
       </c>
       <c r="B325" t="str">
-        <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
-      </c>
-      <c r="C325">
-        <v>300</v>
+        <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>N4383936</v>
+        <v>N1449833</v>
       </c>
       <c r="B326" t="str">
-        <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
-      </c>
-      <c r="C326" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D326">
-        <v>300</v>
+        <v>.*驳回了您的@申请，请注意查看。</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>N1449833</v>
+        <v>N4383936</v>
       </c>
       <c r="B327" t="str">
-        <v>.*驳回了您的@申请，请注意查看。</v>
-      </c>
-      <c r="C327" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
+        <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
       </c>
     </row>
     <row r="328">
@@ -4897,13 +3568,7 @@
         <v>N4383936</v>
       </c>
       <c r="B328" t="str">
-        <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
-      </c>
-      <c r="C328" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D328">
-        <v>1</v>
+        <v>.+您好，请及时处理.+谢谢！</v>
       </c>
     </row>
     <row r="329">
@@ -4911,13 +3576,7 @@
         <v>N4383936</v>
       </c>
       <c r="B329" t="str">
-        <v>.+您好，请及时处理.+谢谢！</v>
-      </c>
-      <c r="C329" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D329">
-        <v>1</v>
+        <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
       </c>
     </row>
     <row r="330">
@@ -4925,13 +3584,7 @@
         <v>N4383936</v>
       </c>
       <c r="B330" t="str">
-        <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
-      </c>
-      <c r="C330" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D330">
-        <v>1</v>
+        <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
       </c>
     </row>
     <row r="331">
@@ -4939,66 +3592,39 @@
         <v>N4383936</v>
       </c>
       <c r="B331" t="str">
-        <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
-      </c>
-      <c r="C331" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
+        <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>N4383936</v>
+        <v>M3202601</v>
       </c>
       <c r="B332" t="str">
-        <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
-      </c>
-      <c r="C332">
-        <v>1</v>
+        <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>M3202601</v>
+        <v>N1199199</v>
       </c>
       <c r="B333" t="str">
-        <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
-      </c>
-      <c r="C333" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D333">
-        <v>300</v>
+        <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>N1199199</v>
+        <v>N2702621</v>
       </c>
       <c r="B334" t="str">
-        <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
-      </c>
-      <c r="C334" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D334">
-        <v>1</v>
+        <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>N2702621</v>
+        <v>N4383936</v>
       </c>
       <c r="B335" t="str">
-        <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
-      </c>
-      <c r="C335" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D335">
-        <v>1</v>
+        <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
       </c>
     </row>
     <row r="336">
@@ -5006,10 +3632,7 @@
         <v>N4383936</v>
       </c>
       <c r="B336" t="str">
-        <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
-      </c>
-      <c r="C336">
-        <v>1</v>
+        <v>您申报的项目未通过审核</v>
       </c>
     </row>
     <row r="337">
@@ -5017,27 +3640,15 @@
         <v>N4383936</v>
       </c>
       <c r="B337" t="str">
-        <v>您申报的项目未通过审核</v>
-      </c>
-      <c r="C337" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D337">
-        <v>1</v>
+        <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B338" t="str">
-        <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
-      </c>
-      <c r="C338" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D338">
-        <v>300</v>
+        <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
       </c>
     </row>
     <row r="339">
@@ -5045,24 +3656,15 @@
         <v>M1147250</v>
       </c>
       <c r="B339" t="str">
-        <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
-      </c>
-      <c r="C339" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D339">
-        <v>300</v>
+        <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B340" t="str">
-        <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
-      </c>
-      <c r="C340">
-        <v>1</v>
+        <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
       </c>
     </row>
     <row r="341">
@@ -5070,13 +3672,7 @@
         <v>N4383936</v>
       </c>
       <c r="B341" t="str">
-        <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
-      </c>
-      <c r="C341" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D341">
-        <v>1</v>
+        <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
       </c>
     </row>
     <row r="342">
@@ -5084,13 +3680,7 @@
         <v>N4383936</v>
       </c>
       <c r="B342" t="str">
-        <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
-      </c>
-      <c r="C342" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D342">
-        <v>1</v>
+        <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
       </c>
     </row>
     <row r="343">
@@ -5098,35 +3688,29 @@
         <v>N4383936</v>
       </c>
       <c r="B343" t="str">
-        <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
-      </c>
-      <c r="C343" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D343">
+        <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
+      </c>
+      <c r="C343">
         <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>N4383936</v>
+        <v>M8467004</v>
       </c>
       <c r="B344" t="str">
-        <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
-      </c>
-      <c r="C344" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D344">
+        <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
+      </c>
+      <c r="C344">
         <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>M8467004</v>
+        <v>N4383936</v>
       </c>
       <c r="B345" t="str">
-        <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
+        <v>您有流程编号为.+需要您登录平台进行审核！</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -5137,26 +3721,20 @@
         <v>N4383936</v>
       </c>
       <c r="B346" t="str">
-        <v>您有流程编号为.+需要您登录平台进行审核！</v>
-      </c>
-      <c r="C346" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D346">
+        <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
+      </c>
+      <c r="C346">
         <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B347" t="str">
-        <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
-      </c>
-      <c r="C347" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D347">
+        <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
+      </c>
+      <c r="C347">
         <v>1</v>
       </c>
     </row>
@@ -5165,12 +3743,9 @@
         <v>M1147250</v>
       </c>
       <c r="B348" t="str">
-        <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
-      </c>
-      <c r="C348" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D348">
+        <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
+      </c>
+      <c r="C348">
         <v>1</v>
       </c>
     </row>
@@ -5179,23 +3754,20 @@
         <v>M1147250</v>
       </c>
       <c r="B349" t="str">
-        <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
+        <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
       </c>
       <c r="C349">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B350" t="str">
-        <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
-      </c>
-      <c r="C350" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D350">
+        <v>Failtopurchase,pleasetryagain.</v>
+      </c>
+      <c r="C350">
         <v>1</v>
       </c>
     </row>
@@ -5204,12 +3776,9 @@
         <v>N4383936</v>
       </c>
       <c r="B351" t="str">
-        <v>Failtopurchase,pleasetryagain.</v>
-      </c>
-      <c r="C351" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D351">
+        <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
+      </c>
+      <c r="C351">
         <v>1</v>
       </c>
     </row>
@@ -5218,12 +3787,9 @@
         <v>N4383936</v>
       </c>
       <c r="B352" t="str">
-        <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
-      </c>
-      <c r="C352" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D352">
+        <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
+      </c>
+      <c r="C352">
         <v>1</v>
       </c>
     </row>
@@ -5232,12 +3798,9 @@
         <v>N4383936</v>
       </c>
       <c r="B353" t="str">
-        <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
-      </c>
-      <c r="C353" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D353">
+        <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
+      </c>
+      <c r="C353">
         <v>1</v>
       </c>
     </row>
@@ -5246,12 +3809,9 @@
         <v>N4383936</v>
       </c>
       <c r="B354" t="str">
-        <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
-      </c>
-      <c r="C354" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D354">
+        <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
+      </c>
+      <c r="C354">
         <v>1</v>
       </c>
     </row>
@@ -5260,82 +3820,64 @@
         <v>N4383936</v>
       </c>
       <c r="B355" t="str">
-        <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
-      </c>
-      <c r="C355" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D355">
-        <v>300</v>
+        <v>您的快递已.*即将发往中转站。</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>N4383936</v>
+        <v>M7223621</v>
       </c>
       <c r="B356" t="str">
-        <v>您的快递已.*即将发往中转站。</v>
-      </c>
-      <c r="C356" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D356">
+        <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
+      </c>
+      <c r="C356">
         <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>M7223621</v>
+        <v>M5129810</v>
       </c>
       <c r="B357" t="str">
-        <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
-      </c>
-      <c r="C357" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D357">
+        <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
+      </c>
+      <c r="C357">
         <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>M5129810</v>
+        <v>N4660285</v>
       </c>
       <c r="B358" t="str">
-        <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
-      </c>
-      <c r="C358" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D358">
-        <v>300</v>
+        <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>N4660285</v>
+        <v>N2772660</v>
       </c>
       <c r="B359" t="str">
-        <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
-      </c>
-      <c r="C359" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D359">
+        <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
+      </c>
+      <c r="C359">
         <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>N2772660</v>
+        <v>N4383936</v>
       </c>
       <c r="B360" t="str">
-        <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
-      </c>
-      <c r="C360" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D360">
+        <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
+      </c>
+      <c r="C360">
         <v>1</v>
       </c>
     </row>
@@ -5344,12 +3886,9 @@
         <v>N4383936</v>
       </c>
       <c r="B361" t="str">
-        <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
-      </c>
-      <c r="C361" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D361">
+        <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
+      </c>
+      <c r="C361">
         <v>1</v>
       </c>
     </row>
@@ -5358,12 +3897,9 @@
         <v>N4383936</v>
       </c>
       <c r="B362" t="str">
-        <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
-      </c>
-      <c r="C362" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D362">
+        <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
+      </c>
+      <c r="C362">
         <v>1</v>
       </c>
     </row>
@@ -5372,12 +3908,9 @@
         <v>N4383936</v>
       </c>
       <c r="B363" t="str">
-        <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
-      </c>
-      <c r="C363" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D363">
+        <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
+      </c>
+      <c r="C363">
         <v>1</v>
       </c>
     </row>
@@ -5386,12 +3919,9 @@
         <v>N4383936</v>
       </c>
       <c r="B364" t="str">
-        <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
-      </c>
-      <c r="C364" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D364">
+        <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
+      </c>
+      <c r="C364">
         <v>1</v>
       </c>
     </row>
@@ -5400,12 +3930,9 @@
         <v>N4383936</v>
       </c>
       <c r="B365" t="str">
-        <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
-      </c>
-      <c r="C365" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D365">
+        <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
+      </c>
+      <c r="C365">
         <v>1</v>
       </c>
     </row>
@@ -5414,26 +3941,20 @@
         <v>N4383936</v>
       </c>
       <c r="B366" t="str">
-        <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
-      </c>
-      <c r="C366" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D366">
+        <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
+      </c>
+      <c r="C366">
         <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B367" t="str">
-        <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
-      </c>
-      <c r="C367" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D367">
+        <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
+      </c>
+      <c r="C367">
         <v>1</v>
       </c>
     </row>
@@ -5442,26 +3963,20 @@
         <v>M1147250</v>
       </c>
       <c r="B368" t="str">
-        <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
-      </c>
-      <c r="C368" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D368">
-        <v>300</v>
+        <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B369" t="str">
-        <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
-      </c>
-      <c r="C369" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D369">
+        <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
+      </c>
+      <c r="C369">
         <v>1</v>
       </c>
     </row>
@@ -5470,12 +3985,9 @@
         <v>N4383936</v>
       </c>
       <c r="B370" t="str">
-        <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
-      </c>
-      <c r="C370" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D370">
+        <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
+      </c>
+      <c r="C370">
         <v>1</v>
       </c>
     </row>
@@ -5484,12 +3996,9 @@
         <v>N4383936</v>
       </c>
       <c r="B371" t="str">
-        <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
-      </c>
-      <c r="C371" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D371">
+        <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
+      </c>
+      <c r="C371">
         <v>1</v>
       </c>
     </row>
@@ -5498,12 +4007,9 @@
         <v>N4383936</v>
       </c>
       <c r="B372" t="str">
-        <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
-      </c>
-      <c r="C372" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D372">
+        <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
+      </c>
+      <c r="C372">
         <v>1</v>
       </c>
     </row>
@@ -5512,12 +4018,9 @@
         <v>N4383936</v>
       </c>
       <c r="B373" t="str">
-        <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
-      </c>
-      <c r="C373" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D373">
+        <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
+      </c>
+      <c r="C373">
         <v>1</v>
       </c>
     </row>
@@ -5526,12 +4029,9 @@
         <v>N4383936</v>
       </c>
       <c r="B374" t="str">
-        <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
-      </c>
-      <c r="C374" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D374">
+        <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
+      </c>
+      <c r="C374">
         <v>1</v>
       </c>
     </row>
@@ -5540,12 +4040,9 @@
         <v>N4383936</v>
       </c>
       <c r="B375" t="str">
-        <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
-      </c>
-      <c r="C375" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D375">
+        <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
+      </c>
+      <c r="C375">
         <v>1</v>
       </c>
     </row>
@@ -5554,12 +4051,9 @@
         <v>N4383936</v>
       </c>
       <c r="B376" t="str">
-        <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
-      </c>
-      <c r="C376" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D376">
+        <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
+      </c>
+      <c r="C376">
         <v>1</v>
       </c>
     </row>
@@ -5568,13 +4062,10 @@
         <v>N4383936</v>
       </c>
       <c r="B377" t="str">
-        <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
-      </c>
-      <c r="C377" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D377">
-        <v>300</v>
+        <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -5582,27 +4073,21 @@
         <v>N4383936</v>
       </c>
       <c r="B378" t="str">
-        <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
-      </c>
-      <c r="C378" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D378">
+        <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
+      </c>
+      <c r="C378">
         <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B379" t="str">
-        <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
-      </c>
-      <c r="C379" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D379">
-        <v>300</v>
+        <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -5610,7 +4095,7 @@
         <v>M1147250</v>
       </c>
       <c r="B380" t="str">
-        <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
+        <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -5621,152 +4106,119 @@
         <v>M1147250</v>
       </c>
       <c r="B381" t="str">
-        <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
-      </c>
-      <c r="C381" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D381">
-        <v>300</v>
+        <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>M1147250</v>
+        <v>M6240301</v>
       </c>
       <c r="B382" t="str">
-        <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
-      </c>
-      <c r="C382" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D382">
-        <v>300</v>
+        <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>M6240301</v>
+        <v>M5168581</v>
       </c>
       <c r="B383" t="str">
-        <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
-      </c>
-      <c r="C383" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D383">
+        <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
+      </c>
+      <c r="C383">
         <v>300</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>M5168581</v>
+        <v>N8988951</v>
       </c>
       <c r="B384" t="str">
-        <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
-      </c>
-      <c r="C384" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D384">
-        <v>300</v>
+        <v>您的快速登陆验证码为.{0,10}</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>N8988951</v>
+        <v>N9478151</v>
       </c>
       <c r="B385" t="str">
-        <v>您的快速登陆验证码为.{0,10}</v>
-      </c>
-      <c r="C385" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D385">
+        <v>12为您的验证码，30分钟内有效！</v>
+      </c>
+      <c r="C385">
         <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>N9478151</v>
+        <v>N6873724</v>
       </c>
       <c r="B386" t="str">
-        <v>12为您的验证码，30分钟内有效！</v>
-      </c>
-      <c r="C386" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D386">
+        <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
+      </c>
+      <c r="C386">
         <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>N6873724</v>
+        <v>N2852505</v>
       </c>
       <c r="B387" t="str">
-        <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
-      </c>
-      <c r="C387" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D387">
+        <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
+      </c>
+      <c r="C387">
         <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>N2852505</v>
+        <v>N2341491</v>
       </c>
       <c r="B388" t="str">
-        <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
-      </c>
-      <c r="C388" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D388">
+        <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
+      </c>
+      <c r="C388">
         <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>N2341491</v>
+        <v>N2852505</v>
       </c>
       <c r="B389" t="str">
-        <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
-      </c>
-      <c r="C389" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D389">
+        <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
+      </c>
+      <c r="C389">
         <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>N2852505</v>
+        <v>N2745707</v>
       </c>
       <c r="B390" t="str">
-        <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
-      </c>
-      <c r="C390" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D390">
+        <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
+      </c>
+      <c r="C390">
         <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>N2745707</v>
+        <v>N4383936</v>
       </c>
       <c r="B391" t="str">
-        <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
-      </c>
-      <c r="C391" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D391">
+        <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
+      </c>
+      <c r="C391">
         <v>1</v>
       </c>
     </row>
@@ -5775,12 +4227,9 @@
         <v>N4383936</v>
       </c>
       <c r="B392" t="str">
-        <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
-      </c>
-      <c r="C392" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D392">
+        <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
+      </c>
+      <c r="C392">
         <v>1</v>
       </c>
     </row>
@@ -5789,12 +4238,9 @@
         <v>N4383936</v>
       </c>
       <c r="B393" t="str">
-        <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
-      </c>
-      <c r="C393" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D393">
+        <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
+      </c>
+      <c r="C393">
         <v>1</v>
       </c>
     </row>
@@ -5803,12 +4249,9 @@
         <v>N4383936</v>
       </c>
       <c r="B394" t="str">
-        <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
-      </c>
-      <c r="C394" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D394">
+        <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+      </c>
+      <c r="C394">
         <v>1</v>
       </c>
     </row>
@@ -5817,7 +4260,7 @@
         <v>N4383936</v>
       </c>
       <c r="B395" t="str">
-        <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+        <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -5828,12 +4271,9 @@
         <v>N4383936</v>
       </c>
       <c r="B396" t="str">
-        <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
-      </c>
-      <c r="C396" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D396">
+        <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
+      </c>
+      <c r="C396">
         <v>1</v>
       </c>
     </row>
@@ -5842,26 +4282,20 @@
         <v>N4383936</v>
       </c>
       <c r="B397" t="str">
-        <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
-      </c>
-      <c r="C397" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D397">
+        <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
+      </c>
+      <c r="C397">
         <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B398" t="str">
-        <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
-      </c>
-      <c r="C398" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D398">
+        <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
+      </c>
+      <c r="C398">
         <v>1</v>
       </c>
     </row>
@@ -5870,13 +4304,10 @@
         <v>M1147250</v>
       </c>
       <c r="B399" t="str">
-        <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
-      </c>
-      <c r="C399" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D399">
-        <v>300</v>
+        <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -5884,12 +4315,9 @@
         <v>M1147250</v>
       </c>
       <c r="B400" t="str">
-        <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
-      </c>
-      <c r="C400" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D400">
+        <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
+      </c>
+      <c r="C400">
         <v>1</v>
       </c>
     </row>
@@ -5898,13 +4326,10 @@
         <v>M1147250</v>
       </c>
       <c r="B401" t="str">
-        <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
-      </c>
-      <c r="C401" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D401">
-        <v>300</v>
+        <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -5912,13 +4337,10 @@
         <v>M1147250</v>
       </c>
       <c r="B402" t="str">
-        <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
-      </c>
-      <c r="C402" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D402">
-        <v>300</v>
+        <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -5926,13 +4348,10 @@
         <v>M1147250</v>
       </c>
       <c r="B403" t="str">
-        <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
-      </c>
-      <c r="C403" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D403">
-        <v>300</v>
+        <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -5940,38 +4359,32 @@
         <v>M1147250</v>
       </c>
       <c r="B404" t="str">
-        <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
-      </c>
-      <c r="C404" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D404">
+        <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
+      </c>
+      <c r="C404">
         <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>M1147250</v>
+        <v>N6873724</v>
       </c>
       <c r="B405" t="str">
-        <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
+        <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
       </c>
       <c r="C405">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>N6873724</v>
+        <v>N4383936</v>
       </c>
       <c r="B406" t="str">
-        <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
-      </c>
-      <c r="C406" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D406">
-        <v>300</v>
+        <v>您好，您有新订单，详情：.+</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -5979,12 +4392,9 @@
         <v>N4383936</v>
       </c>
       <c r="B407" t="str">
-        <v>您好，您有新订单，详情：.+</v>
-      </c>
-      <c r="C407" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D407">
+        <v>诚邀您参加.+详情请致电.+</v>
+      </c>
+      <c r="C407">
         <v>1</v>
       </c>
     </row>
@@ -5993,12 +4403,9 @@
         <v>N4383936</v>
       </c>
       <c r="B408" t="str">
-        <v>诚邀您参加.+详情请致电.+</v>
-      </c>
-      <c r="C408" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D408">
+        <v>您本次操作的验证码是\d+</v>
+      </c>
+      <c r="C408">
         <v>1</v>
       </c>
     </row>
@@ -6007,12 +4414,9 @@
         <v>N4383936</v>
       </c>
       <c r="B409" t="str">
-        <v>您本次操作的验证码是\d+</v>
-      </c>
-      <c r="C409" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D409">
+        <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
+      </c>
+      <c r="C409">
         <v>1</v>
       </c>
     </row>
@@ -6021,12 +4425,9 @@
         <v>N4383936</v>
       </c>
       <c r="B410" t="str">
-        <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
-      </c>
-      <c r="C410" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D410">
+        <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
+      </c>
+      <c r="C410">
         <v>1</v>
       </c>
     </row>
@@ -6035,55 +4436,43 @@
         <v>N4383936</v>
       </c>
       <c r="B411" t="str">
-        <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
-      </c>
-      <c r="C411" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D411">
+        <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
+      </c>
+      <c r="C411">
         <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>N4383936</v>
+        <v>M6662737</v>
       </c>
       <c r="B412" t="str">
-        <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
-      </c>
-      <c r="C412" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D412">
+        <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
+      </c>
+      <c r="C412">
         <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>M6662737</v>
+        <v>N3559833</v>
       </c>
       <c r="B413" t="str">
-        <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
-      </c>
-      <c r="C413" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D413">
-        <v>300</v>
+        <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>N3559833</v>
+        <v>N4383936</v>
       </c>
       <c r="B414" t="str">
-        <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
-      </c>
-      <c r="C414" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D414">
-        <v>300</v>
+        <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -6091,12 +4480,9 @@
         <v>N4383936</v>
       </c>
       <c r="B415" t="str">
-        <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
-      </c>
-      <c r="C415" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D415">
+        <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
+      </c>
+      <c r="C415">
         <v>1</v>
       </c>
     </row>
@@ -6105,7 +4491,7 @@
         <v>N4383936</v>
       </c>
       <c r="B416" t="str">
-        <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
+        <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -6116,12 +4502,9 @@
         <v>N4383936</v>
       </c>
       <c r="B417" t="str">
-        <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
-      </c>
-      <c r="C417" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D417">
+        <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
+      </c>
+      <c r="C417">
         <v>1</v>
       </c>
     </row>
@@ -6130,26 +4513,20 @@
         <v>N4383936</v>
       </c>
       <c r="B418" t="str">
-        <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
-      </c>
-      <c r="C418" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D418">
+        <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
+      </c>
+      <c r="C418">
         <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B419" t="str">
-        <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
-      </c>
-      <c r="C419" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D419">
+        <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
+      </c>
+      <c r="C419">
         <v>1</v>
       </c>
     </row>
@@ -6158,12 +4535,9 @@
         <v>M1147250</v>
       </c>
       <c r="B420" t="str">
-        <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
-      </c>
-      <c r="C420" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D420">
+        <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
+      </c>
+      <c r="C420">
         <v>1</v>
       </c>
     </row>
@@ -6172,10 +4546,10 @@
         <v>M1147250</v>
       </c>
       <c r="B421" t="str">
-        <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
+        <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
       </c>
       <c r="C421">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -6183,13 +4557,10 @@
         <v>M1147250</v>
       </c>
       <c r="B422" t="str">
-        <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
-      </c>
-      <c r="C422" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D422">
-        <v>300</v>
+        <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -6197,18 +4568,18 @@
         <v>M1147250</v>
       </c>
       <c r="B423" t="str">
-        <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
+        <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
       </c>
       <c r="C423">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B424" t="str">
-        <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
+        <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -6219,12 +4590,9 @@
         <v>N4383936</v>
       </c>
       <c r="B425" t="str">
-        <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
-      </c>
-      <c r="C425" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D425">
+        <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
+      </c>
+      <c r="C425">
         <v>1</v>
       </c>
     </row>
@@ -6233,12 +4601,9 @@
         <v>N4383936</v>
       </c>
       <c r="B426" t="str">
-        <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
-      </c>
-      <c r="C426" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D426">
+        <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
+      </c>
+      <c r="C426">
         <v>1</v>
       </c>
     </row>
@@ -6247,12 +4612,9 @@
         <v>N4383936</v>
       </c>
       <c r="B427" t="str">
-        <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
-      </c>
-      <c r="C427" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D427">
+        <v>.+请持身份证至.+办理，详询.+</v>
+      </c>
+      <c r="C427">
         <v>1</v>
       </c>
     </row>
@@ -6261,13 +4623,10 @@
         <v>N4383936</v>
       </c>
       <c r="B428" t="str">
-        <v>.+请持身份证至.+办理，详询.+</v>
-      </c>
-      <c r="C428" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D428">
-        <v>300</v>
+        <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -6275,12 +4634,9 @@
         <v>N4383936</v>
       </c>
       <c r="B429" t="str">
-        <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
-      </c>
-      <c r="C429" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D429">
+        <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
+      </c>
+      <c r="C429">
         <v>1</v>
       </c>
     </row>
@@ -6289,12 +4645,9 @@
         <v>N4383936</v>
       </c>
       <c r="B430" t="str">
-        <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
-      </c>
-      <c r="C430" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D430">
+        <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
+      </c>
+      <c r="C430">
         <v>1</v>
       </c>
     </row>
@@ -6303,12 +4656,9 @@
         <v>N4383936</v>
       </c>
       <c r="B431" t="str">
-        <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
-      </c>
-      <c r="C431" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D431">
+        <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
+      </c>
+      <c r="C431">
         <v>1</v>
       </c>
     </row>
@@ -6317,12 +4667,9 @@
         <v>N4383936</v>
       </c>
       <c r="B432" t="str">
-        <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
-      </c>
-      <c r="C432" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D432">
+        <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
+      </c>
+      <c r="C432">
         <v>1</v>
       </c>
     </row>
@@ -6331,12 +4678,9 @@
         <v>N4383936</v>
       </c>
       <c r="B433" t="str">
-        <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
-      </c>
-      <c r="C433" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D433">
+        <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
+      </c>
+      <c r="C433">
         <v>1</v>
       </c>
     </row>
@@ -6345,12 +4689,9 @@
         <v>N4383936</v>
       </c>
       <c r="B434" t="str">
-        <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
-      </c>
-      <c r="C434" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D434">
+        <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
+      </c>
+      <c r="C434">
         <v>1</v>
       </c>
     </row>
@@ -6359,12 +4700,9 @@
         <v>N4383936</v>
       </c>
       <c r="B435" t="str">
-        <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
-      </c>
-      <c r="C435" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D435">
+        <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
+      </c>
+      <c r="C435">
         <v>1</v>
       </c>
     </row>
@@ -6373,12 +4711,9 @@
         <v>N4383936</v>
       </c>
       <c r="B436" t="str">
-        <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
-      </c>
-      <c r="C436" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D436">
+        <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
+      </c>
+      <c r="C436">
         <v>1</v>
       </c>
     </row>
@@ -6387,7 +4722,7 @@
         <v>N4383936</v>
       </c>
       <c r="B437" t="str">
-        <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
+        <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -6398,26 +4733,20 @@
         <v>N4383936</v>
       </c>
       <c r="B438" t="str">
-        <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
-      </c>
-      <c r="C438" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D438">
+        <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
+      </c>
+      <c r="C438">
         <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B439" t="str">
-        <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
-      </c>
-      <c r="C439" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D439">
+        <v>.*数量有限售完即止</v>
+      </c>
+      <c r="C439">
         <v>1</v>
       </c>
     </row>
@@ -6426,12 +4755,9 @@
         <v>M1147250</v>
       </c>
       <c r="B440" t="str">
-        <v>.*数量有限售完即止</v>
-      </c>
-      <c r="C440" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D440">
+        <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
+      </c>
+      <c r="C440">
         <v>1</v>
       </c>
     </row>
@@ -6440,13 +4766,10 @@
         <v>M1147250</v>
       </c>
       <c r="B441" t="str">
-        <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
-      </c>
-      <c r="C441" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D441">
-        <v>300</v>
+        <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -6454,12 +4777,9 @@
         <v>M1147250</v>
       </c>
       <c r="B442" t="str">
-        <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
-      </c>
-      <c r="C442" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D442">
+        <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
+      </c>
+      <c r="C442">
         <v>1</v>
       </c>
     </row>
@@ -6468,27 +4788,21 @@
         <v>M1147250</v>
       </c>
       <c r="B443" t="str">
-        <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
-      </c>
-      <c r="C443" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D443">
+        <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
+      </c>
+      <c r="C443">
         <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B444" t="str">
-        <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
-      </c>
-      <c r="C444" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D444">
-        <v>300</v>
+        <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -6496,12 +4810,9 @@
         <v>N4383936</v>
       </c>
       <c r="B445" t="str">
-        <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
-      </c>
-      <c r="C445" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D445">
+        <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
+      </c>
+      <c r="C445">
         <v>1</v>
       </c>
     </row>
@@ -6510,12 +4821,9 @@
         <v>N4383936</v>
       </c>
       <c r="B446" t="str">
-        <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
-      </c>
-      <c r="C446" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D446">
+        <v>您的货物.+已到达，请持身份证到.+提取.+</v>
+      </c>
+      <c r="C446">
         <v>1</v>
       </c>
     </row>
@@ -6524,12 +4832,9 @@
         <v>N4383936</v>
       </c>
       <c r="B447" t="str">
-        <v>您的货物.+已到达，请持身份证到.+提取.+</v>
-      </c>
-      <c r="C447" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D447">
+        <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
+      </c>
+      <c r="C447">
         <v>1</v>
       </c>
     </row>
@@ -6538,12 +4843,9 @@
         <v>N4383936</v>
       </c>
       <c r="B448" t="str">
-        <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
-      </c>
-      <c r="C448" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D448">
+        <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
+      </c>
+      <c r="C448">
         <v>1</v>
       </c>
     </row>
@@ -6552,12 +4854,9 @@
         <v>N4383936</v>
       </c>
       <c r="B449" t="str">
-        <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
-      </c>
-      <c r="C449" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D449">
+        <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
+      </c>
+      <c r="C449">
         <v>1</v>
       </c>
     </row>
@@ -6566,12 +4865,9 @@
         <v>N4383936</v>
       </c>
       <c r="B450" t="str">
-        <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
-      </c>
-      <c r="C450" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D450">
+        <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
+      </c>
+      <c r="C450">
         <v>1</v>
       </c>
     </row>
@@ -6580,7 +4876,7 @@
         <v>N4383936</v>
       </c>
       <c r="B451" t="str">
-        <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
+        <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -6591,12 +4887,9 @@
         <v>N4383936</v>
       </c>
       <c r="B452" t="str">
-        <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
-      </c>
-      <c r="C452" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D452">
+        <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
+      </c>
+      <c r="C452">
         <v>1</v>
       </c>
     </row>
@@ -6605,12 +4898,9 @@
         <v>N4383936</v>
       </c>
       <c r="B453" t="str">
-        <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
-      </c>
-      <c r="C453" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D453">
+        <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
+      </c>
+      <c r="C453">
         <v>1</v>
       </c>
     </row>
@@ -6619,12 +4909,9 @@
         <v>N4383936</v>
       </c>
       <c r="B454" t="str">
-        <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
-      </c>
-      <c r="C454" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D454">
+        <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
+      </c>
+      <c r="C454">
         <v>1</v>
       </c>
     </row>
@@ -6633,12 +4920,9 @@
         <v>N4383936</v>
       </c>
       <c r="B455" t="str">
-        <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
-      </c>
-      <c r="C455" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D455">
+        <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
+      </c>
+      <c r="C455">
         <v>1</v>
       </c>
     </row>
@@ -6647,12 +4931,9 @@
         <v>N4383936</v>
       </c>
       <c r="B456" t="str">
-        <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
-      </c>
-      <c r="C456" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D456">
+        <v>卡券.+剩余张数.+请及时更新.+</v>
+      </c>
+      <c r="C456">
         <v>1</v>
       </c>
     </row>
@@ -6661,12 +4942,9 @@
         <v>N4383936</v>
       </c>
       <c r="B457" t="str">
-        <v>卡券.+剩余张数.+请及时更新.+</v>
-      </c>
-      <c r="C457" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D457">
+        <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
+      </c>
+      <c r="C457">
         <v>1</v>
       </c>
     </row>
@@ -6675,10 +4953,10 @@
         <v>N4383936</v>
       </c>
       <c r="B458" t="str">
-        <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
+        <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
       </c>
       <c r="C458">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -6686,12 +4964,9 @@
         <v>N4383936</v>
       </c>
       <c r="B459" t="str">
-        <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
-      </c>
-      <c r="C459" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D459">
+        <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
+      </c>
+      <c r="C459">
         <v>1</v>
       </c>
     </row>
@@ -6700,26 +4975,20 @@
         <v>N4383936</v>
       </c>
       <c r="B460" t="str">
-        <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
-      </c>
-      <c r="C460" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D460">
+        <v>通知.+早上好，你已成功提交工单，谢谢</v>
+      </c>
+      <c r="C460">
         <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B461" t="str">
-        <v>通知.+早上好，你已成功提交工单，谢谢</v>
-      </c>
-      <c r="C461" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D461">
+        <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
+      </c>
+      <c r="C461">
         <v>1</v>
       </c>
     </row>
@@ -6728,27 +4997,21 @@
         <v>M1147250</v>
       </c>
       <c r="B462" t="str">
-        <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
-      </c>
-      <c r="C462" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D462">
-        <v>300</v>
+        <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B463" t="str">
-        <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
-      </c>
-      <c r="C463" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D463">
-        <v>300</v>
+        <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -6756,12 +5019,9 @@
         <v>N4383936</v>
       </c>
       <c r="B464" t="str">
-        <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
-      </c>
-      <c r="C464" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D464">
+        <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
+      </c>
+      <c r="C464">
         <v>1</v>
       </c>
     </row>
@@ -6770,12 +5030,9 @@
         <v>N4383936</v>
       </c>
       <c r="B465" t="str">
-        <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
-      </c>
-      <c r="C465" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D465">
+        <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
+      </c>
+      <c r="C465">
         <v>1</v>
       </c>
     </row>
@@ -6784,12 +5041,9 @@
         <v>N4383936</v>
       </c>
       <c r="B466" t="str">
-        <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
-      </c>
-      <c r="C466" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D466">
+        <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
+      </c>
+      <c r="C466">
         <v>1</v>
       </c>
     </row>
@@ -6798,12 +5052,9 @@
         <v>N4383936</v>
       </c>
       <c r="B467" t="str">
-        <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
-      </c>
-      <c r="C467" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D467">
+        <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
+      </c>
+      <c r="C467">
         <v>1</v>
       </c>
     </row>
@@ -6812,13 +5063,10 @@
         <v>N4383936</v>
       </c>
       <c r="B468" t="str">
-        <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
-      </c>
-      <c r="C468" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D468">
-        <v>300</v>
+        <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -6826,12 +5074,9 @@
         <v>N4383936</v>
       </c>
       <c r="B469" t="str">
-        <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
-      </c>
-      <c r="C469" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D469">
+        <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
+      </c>
+      <c r="C469">
         <v>1</v>
       </c>
     </row>
@@ -6840,12 +5085,9 @@
         <v>N4383936</v>
       </c>
       <c r="B470" t="str">
-        <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
-      </c>
-      <c r="C470" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D470">
+        <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
+      </c>
+      <c r="C470">
         <v>1</v>
       </c>
     </row>
@@ -6854,12 +5096,9 @@
         <v>N4383936</v>
       </c>
       <c r="B471" t="str">
-        <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
-      </c>
-      <c r="C471" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D471">
+        <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
+      </c>
+      <c r="C471">
         <v>1</v>
       </c>
     </row>
@@ -6868,13 +5107,10 @@
         <v>N4383936</v>
       </c>
       <c r="B472" t="str">
-        <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
-      </c>
-      <c r="C472" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D472">
-        <v>300</v>
+        <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -6882,13 +5118,10 @@
         <v>N4383936</v>
       </c>
       <c r="B473" t="str">
-        <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
-      </c>
-      <c r="C473" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D473">
-        <v>300</v>
+        <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -6896,12 +5129,9 @@
         <v>N4383936</v>
       </c>
       <c r="B474" t="str">
-        <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
-      </c>
-      <c r="C474" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D474">
+        <v>您有新的订单，请关注！</v>
+      </c>
+      <c r="C474">
         <v>1</v>
       </c>
     </row>
@@ -6910,26 +5140,20 @@
         <v>N4383936</v>
       </c>
       <c r="B475" t="str">
-        <v>您有新的订单，请关注！</v>
-      </c>
-      <c r="C475" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D475">
+        <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C475">
         <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B476" t="str">
-        <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
-      </c>
-      <c r="C476" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D476">
+        <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+      </c>
+      <c r="C476">
         <v>1</v>
       </c>
     </row>
@@ -6938,13 +5162,10 @@
         <v>M1147250</v>
       </c>
       <c r="B477" t="str">
-        <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
-      </c>
-      <c r="C477" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D477">
-        <v>300</v>
+        <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -6952,69 +5173,54 @@
         <v>M1147250</v>
       </c>
       <c r="B478" t="str">
-        <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
-      </c>
-      <c r="C478" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D478">
+        <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
+      </c>
+      <c r="C478">
         <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>M1147250</v>
+        <v>N487096_N4293657</v>
       </c>
       <c r="B479" t="str">
-        <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
-      </c>
-      <c r="C479" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D479">
-        <v>300</v>
+        <v>您的手机验证码为：123456</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>N487096_N4293657</v>
+        <v>N6982558</v>
       </c>
       <c r="B480" t="str">
-        <v>您的手机验证码为：123456</v>
-      </c>
-      <c r="C480" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D480">
+        <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
+      </c>
+      <c r="C480">
         <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>N6982558</v>
+        <v>M7024442</v>
       </c>
       <c r="B481" t="str">
-        <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
-      </c>
-      <c r="C481" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D481">
-        <v>300</v>
+        <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>M7024442</v>
+        <v>N4383936</v>
       </c>
       <c r="B482" t="str">
-        <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
-      </c>
-      <c r="C482" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D482">
-        <v>300</v>
+        <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -7022,12 +5228,9 @@
         <v>N4383936</v>
       </c>
       <c r="B483" t="str">
-        <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
-      </c>
-      <c r="C483" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D483">
+        <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
+      </c>
+      <c r="C483">
         <v>1</v>
       </c>
     </row>
@@ -7036,7 +5239,7 @@
         <v>N4383936</v>
       </c>
       <c r="B484" t="str">
-        <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
+        <v>后台有新的业务申请，请尽快处理！</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -7047,12 +5250,9 @@
         <v>N4383936</v>
       </c>
       <c r="B485" t="str">
-        <v>后台有新的业务申请，请尽快处理！</v>
-      </c>
-      <c r="C485" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D485">
+        <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C485">
         <v>1</v>
       </c>
     </row>
@@ -7061,12 +5261,9 @@
         <v>N4383936</v>
       </c>
       <c r="B486" t="str">
-        <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
-      </c>
-      <c r="C486" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D486">
+        <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
+      </c>
+      <c r="C486">
         <v>1</v>
       </c>
     </row>
@@ -7075,12 +5272,9 @@
         <v>N4383936</v>
       </c>
       <c r="B487" t="str">
-        <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
-      </c>
-      <c r="C487" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D487">
+        <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
+      </c>
+      <c r="C487">
         <v>1</v>
       </c>
     </row>
@@ -7089,12 +5283,9 @@
         <v>N4383936</v>
       </c>
       <c r="B488" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
-      </c>
-      <c r="C488" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D488">
+        <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
+      </c>
+      <c r="C488">
         <v>1</v>
       </c>
     </row>
@@ -7103,35 +5294,29 @@
         <v>N4383936</v>
       </c>
       <c r="B489" t="str">
-        <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
-      </c>
-      <c r="C489" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D489">
+        <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C489">
         <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B490" t="str">
-        <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
-      </c>
-      <c r="C490" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D490">
+        <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
+      </c>
+      <c r="C490">
         <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>M1147250</v>
+        <v>N8369795</v>
       </c>
       <c r="B491" t="str">
-        <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
+        <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -7142,27 +5327,21 @@
         <v>N8369795</v>
       </c>
       <c r="B492" t="str">
-        <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
-      </c>
-      <c r="C492" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D492">
+        <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
+      </c>
+      <c r="C492">
         <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>N8369795</v>
+        <v>N4383936</v>
       </c>
       <c r="B493" t="str">
-        <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
-      </c>
-      <c r="C493" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D493">
-        <v>300</v>
+        <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -7170,12 +5349,9 @@
         <v>N4383936</v>
       </c>
       <c r="B494" t="str">
-        <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
-      </c>
-      <c r="C494" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D494">
+        <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
+      </c>
+      <c r="C494">
         <v>1</v>
       </c>
     </row>
@@ -7184,12 +5360,9 @@
         <v>N4383936</v>
       </c>
       <c r="B495" t="str">
-        <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
-      </c>
-      <c r="C495" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D495">
+        <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
+      </c>
+      <c r="C495">
         <v>1</v>
       </c>
     </row>
@@ -7198,12 +5371,9 @@
         <v>N4383936</v>
       </c>
       <c r="B496" t="str">
-        <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
-      </c>
-      <c r="C496" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D496">
+        <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
+      </c>
+      <c r="C496">
         <v>1</v>
       </c>
     </row>
@@ -7212,12 +5382,9 @@
         <v>N4383936</v>
       </c>
       <c r="B497" t="str">
-        <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
-      </c>
-      <c r="C497" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D497">
+        <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
+      </c>
+      <c r="C497">
         <v>1</v>
       </c>
     </row>
@@ -7226,12 +5393,9 @@
         <v>N4383936</v>
       </c>
       <c r="B498" t="str">
-        <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
-      </c>
-      <c r="C498" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D498">
+        <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
+      </c>
+      <c r="C498">
         <v>1</v>
       </c>
     </row>
@@ -7240,12 +5404,9 @@
         <v>N4383936</v>
       </c>
       <c r="B499" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
-      </c>
-      <c r="C499" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D499">
+        <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
+      </c>
+      <c r="C499">
         <v>1</v>
       </c>
     </row>
@@ -7254,12 +5415,9 @@
         <v>N4383936</v>
       </c>
       <c r="B500" t="str">
-        <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
-      </c>
-      <c r="C500" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D500">
+        <v>感谢使用.+提示.+</v>
+      </c>
+      <c r="C500">
         <v>1</v>
       </c>
     </row>
@@ -7268,32 +5426,15 @@
         <v>N4383936</v>
       </c>
       <c r="B501" t="str">
-        <v>感谢使用.+提示.+</v>
-      </c>
-      <c r="C501" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="str">
-        <v>N4383936</v>
-      </c>
-      <c r="B502" t="str">
         <v>感谢您选择使用'云立付'，您的资料已审核通过，如使用过程中如有疑问请致电400-188-6496，我们将竭诚为您服务！</v>
       </c>
-      <c r="C502" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D502">
+      <c r="C501">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D502"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C501"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -10,19 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="13">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;¥&quot;* #,##0_);_(&quot;¥&quot;* \(#,##0\);_(&quot;¥&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -405,10 +393,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>M5547373</v>
+        <v>account</v>
       </c>
       <c r="B2" t="str">
-        <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
+        <v>text</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -416,10 +404,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>M1233088</v>
+        <v>CM2351721</v>
       </c>
       <c r="B3" t="str">
-        <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
+        <v>【添可】您的维修网点账户密码已重置,新密码为:HxxkYZ,请勿泄露给他人,如有疑问请联系管理员。</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -427,10 +415,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>M6198841</v>
+        <v>CM2351721</v>
       </c>
       <c r="B4" t="str">
-        <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
+        <v>【添可】您的维修网点账户密码已重置,新密码为:g5d5kH,请勿泄露给他人,如有疑问请联系管理员。</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -438,10 +426,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>N7866060</v>
+        <v>CN0423072</v>
       </c>
       <c r="B5" t="str">
-        <v>您好,你找回密码的验证码是:\d*</v>
+        <v>【易施易工】提醒您，您发布【招募防水施工队】的订单，已有人抢单，后期可以查看您的发单信息，并保持电话畅通，以便接单者能及时跟您取得联系，与接单者洽谈完毕后，请及时选择成交与未成交的商家。</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -449,10 +437,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>N2716352</v>
+        <v>CN0423072</v>
       </c>
       <c r="B6" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
+        <v>【易施易工】提醒您，您发布【找瓦工】的订单，已有人抢单，后期可以查看您的发单信息，并保持电话畅通，以便接单者能及时跟您取得联系，与接单者洽谈完毕后，请及时选择成交与未成交的商家。</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -460,10 +448,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>N1837777</v>
+        <v>CN0423072</v>
       </c>
       <c r="B7" t="str">
-        <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
+        <v>【易施易工】提醒您，您发布【招募装修工长】的订单，已有人抢单，后期可以查看您的发单信息，并保持电话畅通，以便接单者能及时跟您取得联系，与接单者洽谈完毕后，请及时选择成交与未成交的商家。</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -471,10 +459,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>N1449833</v>
+        <v>CN0423072</v>
       </c>
       <c r="B8" t="str">
-        <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
+        <v>【易施易工】提醒您，您的入驻信息审核未通过，原因：测试。请您重新正确提交认证信息！感谢您对平台的支持！</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -482,10 +470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>N1449833</v>
+        <v>CN0423072</v>
       </c>
       <c r="B9" t="str">
-        <v>您有新的费用申请需要审批.*</v>
+        <v>【易施易工】提醒您，您发布【二保焊工】的订单，已有人抢单，后期可以查看您的发单信息，并保持电话畅通，以便接单者能及时跟您取得联系，与接单者洽谈完毕后，请及时选择成交与未成交的商家。</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -493,10 +481,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>N1449833</v>
+        <v>CN1107627</v>
       </c>
       <c r="B10" t="str">
-        <v>你的销单已经被打回</v>
+        <v>【优选假日】尊敬的用户，你已成功预定优选假日公寓（交大店）房间503，有效时间2019-04-08 2019-04-18，请你即时从微信公众号youxuanjiari的美团订单进入查看密码使用.</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -504,10 +492,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>M8220467</v>
+        <v>CN1107627</v>
       </c>
       <c r="B11" t="str">
-        <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
+        <v>【优选假日】尊敬的用户，你已成功预定优选假日酒店（团结旗舰店）房间101，有效时间2019-04-08 2019-04-09，请你即时从微信公众号youxuanjiari的美团订单进入查看密码使用.</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -515,10 +503,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>N3314338</v>
+        <v>CN1107627</v>
       </c>
       <c r="B12" t="str">
-        <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
+        <v>【优选假日】尊敬的用户，你已成功预定优选假日公寓（红光店）房间303，有效时间2019-04-08 2019-04-09，请你即时从微信公众号youxuanjiari的美团订单进入查看密码使用.</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -526,10 +514,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>N3965461</v>
+        <v>CN1107627</v>
       </c>
       <c r="B13" t="str">
-        <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
+        <v>【优选假日】你于04-04 18:06预定的优选假日公寓（交大店）403暖暖电热毯??房间由于，被扣押金0.00元。请到个人中心查看，有疑问请联系客服。</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -537,10 +525,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>N4231084</v>
+        <v>CN1107627</v>
       </c>
       <c r="B14" t="str">
-        <v>您好，您的验证码为.{0,10}</v>
+        <v>【优选假日】尊敬的用户，你已成功预定优选假日酒店（团结旗舰店）房间604，有效时间2019-04-08 2019-04-09，请你即时从微信公众号youxuanjiari的美团订单进入查看密码使用.</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -548,10 +536,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>M18119879376</v>
+        <v>CN1107627</v>
       </c>
       <c r="B15" t="str">
-        <v>尊敬的用户，您好，测试退订回复TD</v>
+        <v>【优选假日】你于04-04 18:06预定的优选假日公寓（交大店）403暖暖电热毯??房间由于o(*￣▽￣*)o，被扣押金0.00元。请到个人中心查看，有疑问请联系客服。</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -559,10 +547,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>M13817110002</v>
+        <v>CN1602424</v>
       </c>
       <c r="B16" t="str">
-        <v>您的，您的订单号为3255565的订单已支付成功！</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:16:05遭受流量攻击，攻击大小为75.84 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -570,10 +558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>M1240014</v>
+        <v>CN1602424</v>
       </c>
       <c r="B17" t="str">
-        <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:39:25 - 2019-04-08 18:43:45遭受流量攻击，攻击峰值为34.44 Mbps，攻击时长4分20秒，系统已成功为您防护。</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -581,10 +569,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>M9902946</v>
+        <v>CN1602424</v>
       </c>
       <c r="B18" t="str">
-        <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:18:55遭受流量攻击，攻击大小为63.03 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -592,10 +580,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>N9509432</v>
+        <v>CN1602424</v>
       </c>
       <c r="B19" t="str">
-        <v>.*(member verification).*(for 10 mins.)</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:12:50遭受流量攻击，攻击大小为59.92 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -603,10 +591,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>N3471562</v>
+        <v>CN1602424</v>
       </c>
       <c r="B20" t="str">
-        <v>亲爱的用户，您的验证码是：.*</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 16:00:15 - 2019-04-08 16:01:45遭受流量攻击，攻击峰值为71.59 Mbps，攻击时长1分29秒，系统已成功为您防护。</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -614,10 +602,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>N6452483</v>
+        <v>CN1602424</v>
       </c>
       <c r="B21" t="str">
-        <v>.*会员.*新礼包.*山东省分公司</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.140 遭受到DDoS攻击，攻击流量当前峰值为0.08 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性100 Gbps，IP已封停并将于2019-04-08 18:06:56 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -625,10 +613,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>N4917757</v>
+        <v>CN1602424</v>
       </c>
       <c r="B22" t="str">
-        <v>您的操作码是.*</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:20:50遭受流量攻击，攻击大小为56.62 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -636,10 +624,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>M8111370</v>
+        <v>CN1602424</v>
       </c>
       <c r="B23" t="str">
-        <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:43:55 - 2019-04-08 18:50:15遭受流量攻击，攻击峰值为34.46 Mbps，攻击时长6分19秒，系统已成功为您防护。</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -647,10 +635,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>M9230769</v>
+        <v>CN1602424</v>
       </c>
       <c r="B24" t="str">
-        <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:43:55遭受流量攻击，攻击大小为33.62 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -658,10 +646,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>N18621742881</v>
+        <v>CN1602424</v>
       </c>
       <c r="B25" t="str">
-        <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 18:27:50遭受流量攻击，攻击大小为48.00 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -669,10 +657,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>N1262693</v>
+        <v>CN1602424</v>
       </c>
       <c r="B26" t="str">
-        <v>您的验证码为：.*，欢迎注册微菜单！</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:39:25遭受流量攻击，攻击大小为34.44 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -680,10 +668,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>N7344316</v>
+        <v>CN1602424</v>
       </c>
       <c r="B27" t="str">
-        <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.144 遭受到DDoS攻击，攻击流量当前峰值为0.095 Gbps，已超出当前购买的DDoS防护峰值：基础10Gbps/弹性20 Gbps，IP已封停并将于2019-04-08 15:52:05 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -691,10 +679,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>N8772265</v>
+        <v>CN1602424</v>
       </c>
       <c r="B28" t="str">
-        <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:10:35遭受流量攻击，攻击大小为75.53 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -702,10 +690,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>M1998680</v>
+        <v>CN1602424</v>
       </c>
       <c r="B29" t="str">
-        <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:58:50 - 2019-04-08 18:01:55遭受流量攻击，攻击峰值为85.40 Mbps，攻击时长3分4秒，系统已成功为您防护。</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -713,10 +701,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>M4699901</v>
+        <v>CN1602424</v>
       </c>
       <c r="B30" t="str">
-        <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:10:35 - 2019-04-08 18:14:25遭受流量攻击，攻击峰值为83.19 Mbps，攻击时长3分49秒，系统已成功为您防护。</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -724,10 +712,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>N15019264528</v>
+        <v>CN1602424</v>
       </c>
       <c r="B31" t="str">
-        <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+        <v>【网堤安全】尊敬的zhoulh@ddos.com。您的防护IP183.2.206.145于2019-04-08 14:58:02遭受流量攻击，攻击大小为83.31 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -735,10 +723,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>N15920501324</v>
+        <v>CN1602424</v>
       </c>
       <c r="B32" t="str">
-        <v>您的验证码是：.*</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 16:09:05遭受流量攻击，攻击大小为55.90 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -746,10 +734,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>N15601837010</v>
+        <v>CN1602424</v>
       </c>
       <c r="B33" t="str">
-        <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:33:05遭受流量攻击，攻击大小为31.00 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -757,10 +745,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>N15019264528</v>
+        <v>CN1602424</v>
       </c>
       <c r="B34" t="str">
-        <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.140 遭受到DDoS攻击，攻击流量当前峰值为0.074 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性100 Gbps，IP已封停并将于2019-04-08 17:18:05 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -768,10 +756,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>N18610175213</v>
+        <v>CN1602424</v>
       </c>
       <c r="B35" t="str">
-        <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 18:27:50 - 2019-04-08 18:30:25遭受流量攻击，攻击峰值为50.90 Mbps，攻击时长2分35秒，系统已成功为您防护。</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -779,10 +767,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>N5473131</v>
+        <v>CN1602424</v>
       </c>
       <c r="B36" t="str">
-        <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
+        <v>【网堤安全】尊敬的786442384@qq.com，网堤安全为您的IP：118.112.248.252启动了DDoS防护服务，服务启动时间为2019-04-08 11:36:28，该IP购买的DDoS防护峰值为基础：20 Gbps/弹性：20 Gbps，敬请关注，谢谢。</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -790,10 +778,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>N8388342</v>
+        <v>CN1602424</v>
       </c>
       <c r="B37" t="str">
-        <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:20:50 - 2019-04-08 17:25:25遭受流量攻击，攻击峰值为82.95 Mbps，攻击时长4分35秒，系统已成功为您防护。</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -801,10 +789,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>N1437892</v>
+        <v>CN1602424</v>
       </c>
       <c r="B38" t="str">
-        <v>您已付款，订单号为：12</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.140 遭受到DDoS攻击，攻击流量当前峰值为0.147 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性100 Gbps，IP已封停并将于2019-04-08 18:27:36 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -812,10 +800,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>N6023778</v>
+        <v>CN1602424</v>
       </c>
       <c r="B39" t="str">
-        <v>.{2,15}您的短信验证码为.{0,8}</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:12:50 - 2019-04-08 17:15:10遭受流量攻击，攻击峰值为79.72 Mbps，攻击时长2分20秒，系统已成功为您防护。</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -823,10 +811,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>zensen</v>
+        <v>CN1602424</v>
       </c>
       <c r="B40" t="str">
-        <v>无签名的审核通过模板</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 18:19:35遭受流量攻击，攻击大小为108.30 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -834,10 +822,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>M4307447</v>
+        <v>CN1602424</v>
       </c>
       <c r="B41" t="str">
-        <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 16:00:15遭受流量攻击，攻击大小为57.63 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -845,10 +833,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>N1711607</v>
+        <v>CN1602424</v>
       </c>
       <c r="B42" t="str">
-        <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.144 遭受到DDoS攻击，攻击流量当前峰值为0.07 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性120 Gbps，IP已封停并将于2019-04-08 18:50:06 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -856,10 +844,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>M6240301</v>
+        <v>CN1602424</v>
       </c>
       <c r="B43" t="str">
-        <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:03:45遭受流量攻击，攻击大小为58.05 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -867,10 +855,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>M2423008</v>
+        <v>CN1602424</v>
       </c>
       <c r="B44" t="str">
-        <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 14:53:22遭受流量攻击，攻击大小为189.83 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -878,10 +866,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>M4351472</v>
+        <v>CN1602424</v>
       </c>
       <c r="B45" t="str">
-        <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
+        <v>【网堤安全】尊敬的zhoulh@ddos.com。您的防护IP183.2.206.145于2019-04-08 14:58:02 - 2019-04-08 15:00:32遭受流量攻击，攻击峰值为94.20 Mbps，攻击时长2分30秒，系统已成功为您防护。</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -889,10 +877,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>N8930831</v>
+        <v>CN1602424</v>
       </c>
       <c r="B46" t="str">
-        <v>本次修改提现银行账户的验证码是:\d+</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:18:55 - 2019-04-08 18:21:35遭受流量攻击，攻击峰值为78.89 Mbps，攻击时长2分40秒，系统已成功为您防护。</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -900,10 +888,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>N1437892</v>
+        <v>CN1602424</v>
       </c>
       <c r="B47" t="str">
-        <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 14:53:22 - 2019-04-08 14:56:52遭受流量攻击，攻击峰值为296.97 Mbps，攻击时长3分29秒，系统已成功为您防护。</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -911,10 +899,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>N13923734231</v>
+        <v>CN1602424</v>
       </c>
       <c r="B48" t="str">
-        <v>您的验证码是.{0,12}</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:33:05 - 2019-04-08 18:34:05遭受流量攻击，攻击峰值为31.81 Mbps，攻击时长1分，系统已成功为您防护。</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -922,10 +910,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>N15373088887</v>
+        <v>CN1602424</v>
       </c>
       <c r="B49" t="str">
-        <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.144 遭受到DDoS攻击，攻击流量当前峰值为0.185 Gbps，已超出当前购买的DDoS防护峰值：基础10Gbps/弹性20 Gbps，IP已封停并将于2019-04-08 14:55:22 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -933,10 +921,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>N15823301928</v>
+        <v>CN1602424</v>
       </c>
       <c r="B50" t="str">
-        <v>您的验证码是：\w*，五分钟之内有效。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.144 遭受到DDoS攻击，攻击流量当前峰值为0.083 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性20 Gbps，IP已封停并将于2019-04-08 16:39:05 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -944,10 +932,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>N15802682964</v>
+        <v>CN1602424</v>
       </c>
       <c r="B51" t="str">
-        <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:58:50遭受流量攻击，攻击大小为62.46 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -955,10 +943,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>N15724742512</v>
+        <v>CN1602424</v>
       </c>
       <c r="B52" t="str">
-        <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 15:47:05 - 2019-04-08 15:50:25遭受流量攻击，攻击峰值为73.44 Mbps，攻击时长3分19秒，系统已成功为您防护。</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -966,10 +954,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>N7710616</v>
+        <v>CN1602424</v>
       </c>
       <c r="B53" t="str">
-        <v>你的注册申请已经通过</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 18:19:35 - 2019-04-08 18:21:25遭受流量攻击，攻击峰值为166.73 Mbps，攻击时长1分49秒，系统已成功为您防护。</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -977,10 +965,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>N9526797</v>
+        <v>CN1602424</v>
       </c>
       <c r="B54" t="str">
-        <v>您好,您的验证码是:\w*</v>
+        <v>【网堤安全】尊敬的iju65602@zoqqa.com，网堤安全为您的IP：118.112.248.252启动了DDoS防护服务，服务启动时间为2019-04-08 18:09:56，该IP购买的DDoS防护峰值为基础：10 Gbps/弹性：10 Gbps，敬请关注，谢谢。</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -988,10 +976,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>N4899746</v>
+        <v>CN1602424</v>
       </c>
       <c r="B55" t="str">
-        <v>验证码:\w*公司动漫专区。</v>
+        <v>【网堤安全】尊敬的zhoulh@ddos.com。您的防护IP183.2.206.145于2019-04-08 14:33:22遭受流量攻击，攻击大小为90.81 Mbps，系统正在为您提供防护。</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -999,10 +987,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>N3808461</v>
+        <v>CN1602424</v>
       </c>
       <c r="B56" t="str">
-        <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
+        <v>【网堤安全】尊敬的gaohuayu_test，网堤安全为您的自服务账号532484853@qq.com重置了密码，重置后的密码为88888888，自服务登陆地址为：http://selfservice.ddos.com,请尽快登陆并修改重置后的初始密码，谢谢。</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1010,10 +998,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>N9650123</v>
+        <v>CN1602424</v>
       </c>
       <c r="B57" t="str">
-        <v>您的验证码是\w*http://www.sina.com.cn/</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.140于2019-04-08 17:16:05 - 2019-04-08 17:18:05遭受流量攻击，攻击峰值为84.45 Mbps，攻击时长1分59秒，系统已成功为您防护。</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1021,10 +1009,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>N1033003</v>
+        <v>CN1602424</v>
       </c>
       <c r="B58" t="str">
-        <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com。您的防护IP183.2.206.144于2019-04-08 18:03:45 - 2019-04-08 18:07:05遭受流量攻击，攻击峰值为80.09 Mbps，攻击时长3分20秒，系统已成功为您防护。</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1032,32 +1020,32 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>N5255792</v>
+        <v>CN1602424</v>
       </c>
       <c r="B59" t="str">
-        <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
+        <v>【网堤安全】尊敬的songjj@ddos.com，您的IP：183.2.206.140 遭受到DDoS攻击，攻击流量当前峰值为0.076 Gbps，已超出当前购买的DDoS防护峰值：基础0Gbps/弹性100 Gbps，IP已封停并将于2019-04-08 17:25:55 自动解封，敬请关注，谢谢！</v>
       </c>
       <c r="C59">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>N5255792</v>
+        <v>CN1602424</v>
       </c>
       <c r="B60" t="str">
-        <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
+        <v>【网堤安全】尊敬的zhoulh@ddos.com。您的防护IP183.2.206.145于2019-04-08 14:33:22 - 2019-04-08 14:37:32遭受流量攻击，攻击峰值为94.87 Mbps，攻击时长4分9秒，系统已成功为您防护。</v>
       </c>
       <c r="C60">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>N7400950</v>
+        <v>CN2245743</v>
       </c>
       <c r="B61" t="str">
-        <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
+        <v>【金翔达商旅】尊敬的贵宾，您预订的海口香格里拉大酒店，4月8号入住，4月9号离店，4间1晚，高级海景大床房，无早，580元/间/夜（内宾价）(合计2320元，房费我司预付，房费月结）。您的预订已确认并已保证入住全段，请您凭本人证件报（陈海龙、林一桢，陈富源，李昕）登记办理入住，此订单不可取消及更改，如订单首晚未到店(No show)或延迟入住请务必联系我司，否则酒店可能不会以任何方式通知客人，并直接取消整单不退费。酒店地址：海口 秀英区 滨海大道256号 ，近国际会展中心、五源河体育场、远大购物中心、海口市政府、假日海滩、海口火车站、南港码头、新海港码头。酒店电话：0898-68707799。祝您旅程愉快！（如需帮助,我们的工作时间为（09:00-23:00）请联系：18100217921，非工作时间（23:00-09:00）紧急联系电话：15989072096，广州金翔达：020-82222288)</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1065,10 +1053,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>N6483072</v>
+        <v>CN2430426</v>
       </c>
       <c r="B62" t="str">
-        <v>验证码是.{0,10}</v>
+        <v>【e快付】您提交的农商e快付商户入驻{$var}，有问题可联系官方客服。</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1076,10 +1064,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>M3173434</v>
+        <v>CN2714467</v>
       </c>
       <c r="B63" t="str">
-        <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
+        <v>【慧美惠】任务短信报警运行,发送华融光大租房数据失败,失败原因：链接异常,通知时间2019-04-08 13:47:37</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1087,10 +1075,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>M5129810</v>
+        <v>CN2714467</v>
       </c>
       <c r="B64" t="str">
-        <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
+        <v>【慧美惠】任务短信报警运行,发送华融光大租房数据失败,失败原因：链接异常,通知时间2019-04-08 14:04:39</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1098,10 +1086,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>N9509432</v>
+        <v>CN2714467</v>
       </c>
       <c r="B65" t="str">
-        <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
+        <v>【慧美惠】任务短信报警运行,发送华融光大租房数据失败,失败原因：链接异常,通知时间2019-04-08 14:02:31</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1109,10 +1097,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>N1262693</v>
+        <v>CN2714467</v>
       </c>
       <c r="B66" t="str">
-        <v>您的验证码为：\w*，欢迎注册微菜单！</v>
+        <v>【慧美惠】任务短信报警运行,发送华融光大租房数据失败,失败原因：链接异常,通知时间2019-04-08 13:15:09</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1120,10 +1108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>N6000071</v>
+        <v>CN2714467</v>
       </c>
       <c r="B67" t="str">
-        <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
+        <v>【慧美惠】任务短信报警运行,发送华融光大租房数据失败,失败原因：链接异常,通知时间2019-04-08 14:01:24</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1131,10 +1119,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>N3145894</v>
+        <v>CN3007603</v>
       </c>
       <c r="B68" t="str">
-        <v>验证码如下： \w* 有效期为10分钟</v>
+        <v>【油铜树】恭喜您注册成功，加入油铜树。油铜树专心提供安全稳健的产品，和诚挚的服务。回复TD退订</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1142,10 +1130,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>N6686342</v>
+        <v>CN3131606</v>
       </c>
       <c r="B69" t="str">
-        <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
+        <v>【滴水家族】您申请的爱心求助项目进度缓慢，请邀请亲朋好友一起证实和转发，人多力量大！如有疑问，请拨打官方电话：0851-28912989。</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1153,10 +1141,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>N6838971</v>
+        <v>CN4037030</v>
       </c>
       <c r="B70" t="str">
-        <v>您\w*</v>
+        <v>【BLOEX】該用戶【517126234@qq.com】在【2019-04-03 12:03:41】有一筆額度為【1.99000000ETH】的提幣區塊鏈驗證已超過1個小時，請知曉！</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1164,10 +1152,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>N4971212</v>
+        <v>CN4037030</v>
       </c>
       <c r="B71" t="str">
-        <v xml:space="preserve">你的验证码是 \w* </v>
+        <v>【BLOEX】該用戶【1127096549@qq.com】在【2019-04-04 22:11:17】有一筆額度為【106.00000000USDT】的提幣超過半小時未處理，請知曉！</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1175,10 +1163,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>N1721391</v>
+        <v>CN4247532</v>
       </c>
       <c r="B72" t="str">
-        <v>您好！您的验证码是：</v>
+        <v>【堂会】欢迎光临{$var}，您于{$var}在我司{$var}寄存的{$var}，已于今天{$var}在{$var}成功取用。祝愿您欢唱愉快！?</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1186,10 +1174,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>N1449833</v>
+        <v>CN4271030</v>
       </c>
       <c r="B73" t="str">
-        <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
+        <v>【文投汇】亲爱的Ft13289291795：恭喜您！您在平台申请了J49 房e贷1901012审核通过，请登录平台进行募集确认。</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1197,10 +1185,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>N3719867</v>
+        <v>CN7274736</v>
       </c>
       <c r="B74" t="str">
-        <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+        <v>【慕玛披萨】#3454#慕玛骑手黄成立(火车南站)于15:51送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1208,10 +1196,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>N3719867</v>
+        <v>CN7274736</v>
       </c>
       <c r="B75" t="str">
-        <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
+        <v>【慕玛披萨】#5220#慕玛骑手黄成立(火车南站)于12:04送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1219,10 +1207,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>N3719867</v>
+        <v>CN7274736</v>
       </c>
       <c r="B76" t="str">
-        <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+        <v>【慕玛披萨】#8359#慕玛骑手黄成立(火车南站)于12:51送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1230,10 +1218,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>N3719867</v>
+        <v>CN7274736</v>
       </c>
       <c r="B77" t="str">
-        <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
+        <v>【慕玛披萨】#2799#慕玛骑手黄成立(火车南站)于19:39送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1241,10 +1229,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>N6413270</v>
+        <v>CN7274736</v>
       </c>
       <c r="B78" t="str">
-        <v>.{0,10}您的验证码是.{0,10}</v>
+        <v>【慕玛披萨】#485#慕玛骑手黄成立(火车南站)于18:59送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1252,10 +1240,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>M1371446</v>
+        <v>CN7274736</v>
       </c>
       <c r="B79" t="str">
-        <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
+        <v>【慕玛披萨】#6850#慕玛骑手邵阳堂食顾客于12:56送出，电话17752669937。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1263,10 +1251,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>N2214607</v>
+        <v>CN7274736</v>
       </c>
       <c r="B80" t="str">
-        <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
+        <v>【慕玛披萨】#2402#慕玛骑手黄成立(火车南站)于15:23送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1274,10 +1262,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>N9453190</v>
+        <v>CN7274736</v>
       </c>
       <c r="B81" t="str">
-        <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
+        <v>【慕玛披萨】#4723#慕玛骑手黄成立(火车南站)于17:20送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1285,10 +1273,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>M5262635</v>
+        <v>CN7274736</v>
       </c>
       <c r="B82" t="str">
-        <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
+        <v>【慕玛披萨】#3289#慕玛骑手黄成立(火车南站)于15:03送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1296,10 +1284,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>N5233471</v>
+        <v>CN7274736</v>
       </c>
       <c r="B83" t="str">
-        <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
+        <v>【慕玛披萨】#2687#慕玛骑手黄成立(火车南站)于12:26送出，电话15360990819。微信进入“慕玛披萨“小程序，领取披萨优惠券！</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1307,10 +1295,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>M1445140</v>
+        <v>CN7463044</v>
       </c>
       <c r="B84" t="str">
-        <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
+        <v>【亲亲小保】您好，，您为何智健办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1318,10 +1306,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>M9794773</v>
+        <v>CN7463044</v>
       </c>
       <c r="B85" t="str">
-        <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
+        <v>【亲亲小保】您好，，您为李雪办理2019年4月社保代理业务的费用1622.76元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1329,10 +1317,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>N4219390</v>
+        <v>CN7463044</v>
       </c>
       <c r="B86" t="str">
-        <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
+        <v>【亲亲小保】您好，，您为王佳办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1340,10 +1328,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>M2326959</v>
+        <v>CN7463044</v>
       </c>
       <c r="B87" t="str">
-        <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
+        <v>【亲亲小保】您好，agneslxf，您为李晓菲办理2019年4月公积金代理业务的费用1008.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1351,10 +1339,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>M2326959</v>
+        <v>CN7463044</v>
       </c>
       <c r="B88" t="str">
-        <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
+        <v>【亲亲小保】您好，刘德胜，您为刘德胜办理2019年4月公积金代理业务的费用528.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1362,10 +1350,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>M1115314</v>
+        <v>CN7463044</v>
       </c>
       <c r="B89" t="str">
-        <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
+        <v>【亲亲小保】您好，李洪光，您为李洪光办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1373,10 +1361,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>M3103989</v>
+        <v>CN7463044</v>
       </c>
       <c r="B90" t="str">
-        <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
+        <v>【亲亲小保】您好，，您为付家兵办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1384,10 +1372,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>M7306228</v>
+        <v>CN7463044</v>
       </c>
       <c r="B91" t="str">
-        <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
+        <v>【亲亲小保】您好，，您为刘佳峰办理2019年4月公积金代理业务的费用400.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1395,10 +1383,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>N18701840782</v>
+        <v>CN7463044</v>
       </c>
       <c r="B92" t="str">
-        <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
+        <v>【亲亲小保】您好，，您为苏婷婷办理2019年4月社保代理业务的费用1615.98元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1406,10 +1394,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>M9023981</v>
+        <v>CN7463044</v>
       </c>
       <c r="B93" t="str">
-        <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
+        <v>【亲亲小保】您好，，您为王国兴办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1417,10 +1405,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>N1449833</v>
+        <v>CN7463044</v>
       </c>
       <c r="B94" t="str">
-        <v>.*点评了您办理的任务“@”</v>
+        <v>【亲亲小保】您好，，您为苏义富办理2019年4月公积金代理业务的费用482.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1428,10 +1416,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>M3314031</v>
+        <v>CN7463044</v>
       </c>
       <c r="B95" t="str">
-        <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
+        <v>【HRS100】您好，涛视传媒，您为徐涛办理2019年4月社保代理业务的费用1846.20元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1439,10 +1427,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>N8535724</v>
+        <v>CN7463044</v>
       </c>
       <c r="B96" t="str">
-        <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
+        <v>【HRS100】您好，深度科技，您为赵佳办理2019年4月社保代理业务的费用1851.90元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1450,10 +1438,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>N4049746</v>
+        <v>CN7463044</v>
       </c>
       <c r="B97" t="str">
-        <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
+        <v>【亲亲小保】您好，knight719，您为杨晓华办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1461,10 +1449,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>N824972_N5779929</v>
+        <v>CN7463044</v>
       </c>
       <c r="B98" t="str">
-        <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
+        <v>【亲亲小保】您好，，您为吕玲玲办理2019年4月公积金代理业务的费用892.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1472,21 +1460,21 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>M1345393</v>
+        <v>CN7463044</v>
       </c>
       <c r="B99" t="str">
-        <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
+        <v>【亲亲小保】您好，Sally2018，您为黄萍办理2019年4月公积金代理业务的费用500.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C99">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>N6452326</v>
+        <v>CN7463044</v>
       </c>
       <c r="B100" t="str">
-        <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
+        <v>【亲亲小保】您好，lilily，您为李礼礼办理2019年4月公积金代理业务的费用1500.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1494,10 +1482,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>M7014839</v>
+        <v>CN7463044</v>
       </c>
       <c r="B101" t="str">
-        <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
+        <v>【亲亲小保】您好，，您为赵晨阳办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1505,10 +1493,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>M5331967</v>
+        <v>CN7463044</v>
       </c>
       <c r="B102" t="str">
-        <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
+        <v>【亲亲小保】您好，，您为邬彪杨办理2019年4月公积金代理业务的费用213.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1516,10 +1504,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>N8930831</v>
+        <v>CN7463044</v>
       </c>
       <c r="B103" t="str">
-        <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
+        <v>【亲亲小保】您好，，您为姚怀宇办理2019年4月社保代理业务的费用1622.76元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1527,10 +1515,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>M1129616</v>
+        <v>CN7463044</v>
       </c>
       <c r="B104" t="str">
-        <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
+        <v>【亲亲小保】您好，，您为李杨办理2019年4月公积金代理业务的费用960.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1538,10 +1526,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>N6244007</v>
+        <v>CN7463044</v>
       </c>
       <c r="B105" t="str">
-        <v>您好，您正在进行找回密码，您的验证码：\d+</v>
+        <v>【亲亲小保】您好，，您为杨艳办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1549,10 +1537,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>N13066815811</v>
+        <v>CN7463044</v>
       </c>
       <c r="B106" t="str">
-        <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
+        <v>【亲亲小保】您好，，您为崔小艳办理2019年4月公积金代理业务的费用500.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1560,10 +1548,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>N4736145</v>
+        <v>CN7463044</v>
       </c>
       <c r="B107" t="str">
-        <v>您的验证码是\d+</v>
+        <v>【亲亲小保】您好，szrenbo，您为任华波办理2019年4月公积金代理业务的费用360.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1571,10 +1559,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>M1303173</v>
+        <v>CN7463044</v>
       </c>
       <c r="B108" t="str">
-        <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
+        <v>【亲亲小保】您好，，您为吴文韬办理2019年4月社保代理业务的费用2475.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1582,10 +1570,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>M5605804</v>
+        <v>CN7463044</v>
       </c>
       <c r="B109" t="str">
-        <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
+        <v>【亲亲小保】您好，，您为熊婷办理2019年4月社保代理业务的费用2622.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1593,10 +1581,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>N2970938</v>
+        <v>CN7463044</v>
       </c>
       <c r="B110" t="str">
-        <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
+        <v>【亲亲小保】您好，，您为郑嘉武办理2019年4月公积金代理业务的费用2504.40元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1604,10 +1592,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>M2664070</v>
+        <v>CN7463044</v>
       </c>
       <c r="B111" t="str">
-        <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
+        <v>【亲亲小保】您好，，您为陈洁琼办理2019年4月公积金代理业务的费用1000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1615,10 +1603,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>N9298771</v>
+        <v>CN7463044</v>
       </c>
       <c r="B112" t="str">
-        <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
+        <v>【亲亲小保】您好，CarrieZ，您为张群办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1626,178 +1614,241 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>N7779507</v>
+        <v>CN7463044</v>
       </c>
       <c r="B113" t="str">
-        <v>有新的取款信息等您处理，请登录后台处理问题。</v>
+        <v>【亲亲小保】您好，，您为帅开祥办理2019年4月公积金代理业务的费用2000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>M1341782</v>
+        <v>CN7463044</v>
       </c>
       <c r="B114" t="str">
-        <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
+        <v>【亲亲小保】您好，，您为徐明办理2019年4月社保代理业务的费用1622.76元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>N8325675</v>
+        <v>CN7463044</v>
       </c>
       <c r="B115" t="str">
-        <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
+        <v>【亲亲小保】您好，，您为曹炼办理2019年4月社保代理业务的费用1615.98元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>N8388342</v>
+        <v>CN7463044</v>
       </c>
       <c r="B116" t="str">
-        <v>您预订了.+的课程，请准时上课！</v>
+        <v>【亲亲小保】您好，，您为李杨办理2019年4月社保代理业务的费用1783.40元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>N9090212</v>
+        <v>CN7463044</v>
       </c>
       <c r="B117" t="str">
-        <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
+        <v>【亲亲小保】您好，weiyiwo，您为雷兴娟办理2019年4月公积金代理业务的费用1000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>N2937014</v>
+        <v>CN7463044</v>
       </c>
       <c r="B118" t="str">
-        <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
+        <v>【亲亲小保】您好，，您为方夕幻办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>M6951228</v>
+        <v>CN7463044</v>
       </c>
       <c r="B119" t="str">
-        <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
+        <v>【亲亲小保】您好，，您为皮本龙办理2019年4月公积金代理业务的费用213.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>M7150517</v>
+        <v>CN7463044</v>
       </c>
       <c r="B120" t="str">
-        <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
+        <v>【亲亲小保】您好，，您为陈滢办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>N8930831</v>
+        <v>CN7463044</v>
       </c>
       <c r="B121" t="str">
-        <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
+        <v>【亲亲小保】您好，jenda2009，您为潘首印办理的2019年4月社保代理业务已经参保成功。您可随时登录亲亲小保App或网站核查金额及订单状态。</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>N8930831</v>
+        <v>CN7463044</v>
       </c>
       <c r="B122" t="str">
-        <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
+        <v>【亲亲小保】您好，鈊氏，您为林雄品办理2019年4月公积金代理业务的费用303.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>M2297143</v>
+        <v>CN7463044</v>
       </c>
       <c r="B123" t="str">
-        <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
+        <v>【亲亲小保】您好，，您为石征办理2019年4月社保代理业务的费用1605.82元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>N5927922</v>
+        <v>CN7463044</v>
       </c>
       <c r="B124" t="str">
-        <v>你好,你的注册验证码是:.{2,8}</v>
+        <v>【亲亲小保】您好，，您为陈永彬办理2019年4月公积金代理业务的费用482.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>M7959731</v>
+        <v>CN7463044</v>
       </c>
       <c r="B125" t="str">
-        <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
+        <v>【亲亲小保】您好，，您为张姣办理2019年4月公积金代理业务的费用252.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>M7014839</v>
+        <v>CN7463044</v>
       </c>
       <c r="B126" t="str">
-        <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
+        <v>【亲亲小保】您好，，您为王文通办理的2019年4月社保代理业务已经参保成功。您可随时登录亲亲小保App或网站核查金额及订单状态。</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>N3560116</v>
+        <v>CN7463044</v>
       </c>
       <c r="B127" t="str">
-        <v>您的订单已经提交成功，请等待收货。</v>
+        <v>【亲亲小保】您好，，您为陈盼办理2019年4月公积金代理业务的费用300.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>N9298771</v>
+        <v>CN7463044</v>
       </c>
       <c r="B128" t="str">
-        <v>客服中心有一份新订单，请及时推送。</v>
+        <v>【亲亲小保】您好，，您为张超办理2019年4月公积金代理业务的费用800.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>N8535724</v>
+        <v>CN7463044</v>
       </c>
       <c r="B129" t="str">
-        <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
+        <v>【亲亲小保】您好，，您为沈跃珊办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>M9230769</v>
+        <v>CN7463044</v>
       </c>
       <c r="B130" t="str">
-        <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
+        <v>【HRS100】您好，北京因泰莱科技有限公司，您为寿锋锷办理2019年4月社保代理业务的费用1374.62元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>N4145870</v>
+        <v>CN7463044</v>
       </c>
       <c r="B131" t="str">
-        <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
+        <v>【亲亲小保】您好，tongwei，您为韦先聪办理2019年4月公积金代理业务的费用1000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>N2667198</v>
+        <v>CN7463044</v>
       </c>
       <c r="B132" t="str">
-        <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
+        <v>【亲亲小保】您好，冯小荣，您为冯小荣办理2019年4月公积金代理业务的费用814.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>M7150517</v>
+        <v>CN7463044</v>
       </c>
       <c r="B133" t="str">
-        <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
+        <v>【亲亲小保】您好，洪湖魏国虎，您为魏国虎办理2019年4月公积金代理业务的费用400.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>M8503966</v>
+        <v>CN7463044</v>
       </c>
       <c r="B134" t="str">
-        <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
+        <v>【亲亲小保】您好，，您为黄爱玲办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1805,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>N9298771</v>
+        <v>CN7463044</v>
       </c>
       <c r="B135" t="str">
-        <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
+        <v>【亲亲小保】您好，影子来了，您为郭晓颖办理2019年4月社保代理业务的费用1605.82元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1816,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>M7290174</v>
+        <v>CN7463044</v>
       </c>
       <c r="B136" t="str">
-        <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
+        <v>【亲亲小保】您好，，您为陈奇波办理2019年4月公积金代理业务的费用1560.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1827,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>N1261882</v>
+        <v>CN7463044</v>
       </c>
       <c r="B137" t="str">
-        <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
+        <v>【亲亲小保】您好，，您为陈翔办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1838,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>M2628831</v>
+        <v>CN7463044</v>
       </c>
       <c r="B138" t="str">
-        <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
+        <v>【亲亲小保】您好，我来自东岳，您为周广峰办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1849,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>N1261882</v>
+        <v>CN7463044</v>
       </c>
       <c r="B139" t="str">
-        <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
+        <v>【亲亲小保】您好，，您为刘威办理2019年4月公积金代理业务的费用482.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1860,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>N1261882</v>
+        <v>CN7463044</v>
       </c>
       <c r="B140" t="str">
-        <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
+        <v>【亲亲小保】您好，罗小萍，您为罗小萍办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1871,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>N1261882</v>
+        <v>CN7463044</v>
       </c>
       <c r="B141" t="str">
-        <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
+        <v>【亲亲小保】您好，，您为常艳艳办理2019年4月公积金代理业务的费用213.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1882,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>M3390424</v>
+        <v>CN7463044</v>
       </c>
       <c r="B142" t="str">
-        <v>12.*贡桔.*元。退订回TD</v>
+        <v>【亲亲小保】您好，，您为韦尚东办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1893,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>M8272624</v>
+        <v>CN7463044</v>
       </c>
       <c r="B143" t="str">
-        <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
+        <v>【HRS100】尊敬的中投中财（苏州）游戏产业投资管理中心（有限合伙），您办理的【定制参保缴费明细】业务已经完成，望悉知。如有问题请通过亲亲小保App或微信公众号联系客服。</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1904,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>N8348288</v>
+        <v>CN7463044</v>
       </c>
       <c r="B144" t="str">
-        <v>您本次验证码:\w+,10分钟内有效</v>
+        <v>【亲亲小保】您好，，您为刘留办理2019年4月公积金代理业务的费用482.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1915,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>N8678056</v>
+        <v>CN7463044</v>
       </c>
       <c r="B145" t="str">
-        <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
+        <v>【亲亲小保】您好，，您为崔楠办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1926,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>N5979074</v>
+        <v>CN7463044</v>
       </c>
       <c r="B146" t="str">
-        <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
+        <v>【亲亲小保】您好，，您为顾文静办理2019年4月社保代理业务的费用1712.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1937,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>N3620301</v>
+        <v>CN7463044</v>
       </c>
       <c r="B147" t="str">
-        <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
+        <v>【亲亲小保】您好，，您为鲁荣忠办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -1948,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>N8994322</v>
+        <v>CN7463044</v>
       </c>
       <c r="B148" t="str">
-        <v>预订编号.+</v>
+        <v>【亲亲小保】您好，冯小荣，您为冯小荣办理2019年4月社保代理业务的费用1615.98元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -1959,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>N8994322</v>
+        <v>CN7463044</v>
       </c>
       <c r="B149" t="str">
-        <v>尊敬.+火车.+</v>
+        <v>【亲亲小保】您好，，您为杨英莲办理2019年4月公积金代理业务的费用400.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -1970,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>N8994322</v>
+        <v>CN7463044</v>
       </c>
       <c r="B150" t="str">
-        <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
+        <v>【亲亲小保】您好，，您为王萌办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -1981,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>N8994322</v>
+        <v>CN7463044</v>
       </c>
       <c r="B151" t="str">
-        <v>订单.+请及时关注！</v>
+        <v>【亲亲小保】您好，，您为顾舒婷办理2019年4月公积金代理业务的费用400.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -1992,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>M3917225</v>
+        <v>CN7463044</v>
       </c>
       <c r="B152" t="str">
-        <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
+        <v>【亲亲小保】您好，ninglg，您为宁亮办理2019年4月社保代理业务的费用10417.41元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2003,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>N3438022</v>
+        <v>CN7463044</v>
       </c>
       <c r="B153" t="str">
-        <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
+        <v>【亲亲小保】您好，yueyun179，您为熊名胜办理2019年4月公积金代理业务的费用800.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2014,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B154" t="str">
-        <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
+        <v>【亲亲小保】您好，甘小辉，您为甘小辉办理2019年4月公积金代理业务的费用800.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2025,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B155" t="str">
-        <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
+        <v>【亲亲小保】您好，，您为成赞淑办理2019年4月社保代理业务的费用1615.98元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2036,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B156" t="str">
-        <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
+        <v>【亲亲小保】您好，，您为李爱林办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2047,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>N3438022</v>
+        <v>CN7463044</v>
       </c>
       <c r="B157" t="str">
-        <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
+        <v>【亲亲小保】您好，，您为潘嘉毓办理2019年4月社保代理业务的费用1622.76元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2058,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>N5473131</v>
+        <v>CN7463044</v>
       </c>
       <c r="B158" t="str">
-        <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
+        <v>【亲亲小保】您好，，您为王宁办理2019年4月公积金代理业务的费用482.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2069,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>M5382321</v>
+        <v>CN7463044</v>
       </c>
       <c r="B159" t="str">
-        <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
+        <v>【亲亲小保】您好，YF14588，您为纪仰锋办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2080,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>N2667198</v>
+        <v>CN7463044</v>
       </c>
       <c r="B160" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
+        <v>【亲亲小保】您好，lina123，您为李娜办理2019年4月公积金代理业务的费用700.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2091,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>N2667198</v>
+        <v>CN7463044</v>
       </c>
       <c r="B161" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
+        <v>【亲亲小保】您好，，您为张冬梅办理2019年4月公积金代理业务的费用170.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2102,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B162" t="str">
-        <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
+        <v>【亲亲小保】您好，，您为张姣办理2019年4月社保代理业务的费用1681.59元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2113,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>N7911438</v>
+        <v>CN7463044</v>
       </c>
       <c r="B163" t="str">
-        <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
+        <v>【亲亲小保】您好，，您为胡恩华办理2019年4月公积金代理业务的费用1000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2124,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>M3675880</v>
+        <v>CN7463044</v>
       </c>
       <c r="B164" t="str">
-        <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
+        <v>【亲亲小保】您好，liwei，您为李伟办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2135,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>M5262635</v>
+        <v>CN7463044</v>
       </c>
       <c r="B165" t="str">
-        <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
+        <v>【亲亲小保】您好，，您为李立娜办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2146,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>N7911438</v>
+        <v>CN7463044</v>
       </c>
       <c r="B166" t="str">
-        <v>您好，您的验证码是.{2,10}</v>
+        <v>【亲亲小保】您好，康晓洋，您为康晓洋办理2019年4月社保代理业务的费用1605.82元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2157,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B167" t="str">
-        <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
+        <v>【亲亲小保】您好，甘小辉，您为陈梦蓉办理2019年4月公积金代理业务的费用1000.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2168,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>N7963607</v>
+        <v>CN7463044</v>
       </c>
       <c r="B168" t="str">
-        <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
+        <v>【亲亲小保】您好，，您为李岩琪办理2019年4月社保代理业务的费用1612.60元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2179,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>N5408348</v>
+        <v>CN7463044</v>
       </c>
       <c r="B169" t="str">
-        <v>您好，您的验证码是.{0,10}</v>
+        <v>【亲亲小保】温馨提醒，绍兴市开始申报新的社保基数，贵司如需调整社保基数请于4月18日前通知您的客户经理或致电010-51528573，否则将默认缴纳基数不变（最低基数按新标准执行）感谢配合！</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2190,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>N1686159</v>
+        <v>CN7463044</v>
       </c>
       <c r="B170" t="str">
-        <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
+        <v>【HRS100】您好，深度科技，您为丁华锋办理2019年4月社保代理业务的费用963.73元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2201,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>M8097078</v>
+        <v>CN7463044</v>
       </c>
       <c r="B171" t="str">
-        <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
+        <v>【亲亲小保】您好，ninglg，您为宁亮办理2019年4月公积金代理业务的费用6096.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2212,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>M8219163</v>
+        <v>CN7463044</v>
       </c>
       <c r="B172" t="str">
-        <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
+        <v>【亲亲小保】您好，鬼画符，您为徐青林办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2223,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>M7388401</v>
+        <v>CN7463044</v>
       </c>
       <c r="B173" t="str">
-        <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
+        <v>【亲亲小保】您好，，您为周晓君办理2019年4月社保代理业务的费用1615.98元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2234,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>M4864226</v>
+        <v>CN7463044</v>
       </c>
       <c r="B174" t="str">
-        <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
+        <v>【HRS100】您好，深度科技，您为林长森办理2019年4月社保代理业务的费用963.73元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2245,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>N5142803</v>
+        <v>CN7463044</v>
       </c>
       <c r="B175" t="str">
-        <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
+        <v>【亲亲小保】您好，yxhxgs，您为鲁业芳办理2019年5月社保代理业务的费用1323.49元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2256,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>N5523562</v>
+        <v>CN7463044</v>
       </c>
       <c r="B176" t="str">
-        <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
+        <v>【亲亲小保】您好，，您为陈良德办理2019年4月公积金代理业务的费用220.00元已经扣费成功，我们将及时为您办理业务。您可随时登录亲亲小保App或网站核查金额、办理业务。</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2267,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>N5523562</v>
+        <v>M0010677</v>
       </c>
       <c r="B177" t="str">
-        <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
+        <v>【机蜜】亲爱的机友，{$var}是您的租赁订单还款日，请及时登录机蜜APP完成租金支付。 http://t.cn/RKRkDcT 温馨提醒：选择主动支付，可使用优惠券抵扣部分租金，还有利于建立良好的信用记录；选择系统代扣，则需确保您的账户余额充足，以便自动代扣成功，避免逾期。如有疑问，可致电机蜜客服热线400-179-8999或咨询机蜜在线客服。若您已完成当期租金支付，请忽略此提醒。退订回T</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2278,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>N3189631</v>
+        <v>M0010677</v>
       </c>
       <c r="B178" t="str">
-        <v>您好，您的验证码是.{0,15}</v>
+        <v>【机蜜】亲爱的机友，因您未及时归还所租商品，平台已开始计收罚金，请尽快登录机蜜APP进行续租/买断/预约还机。 http://t.cn/RKRkDcT 温馨提醒：若长时间未操作处理，导致订单无法按时完结，将会对您的信用记录产生影响。如有疑问，可致电机蜜客服热线400-179-8999或咨询机蜜在线客服。退订回T</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2289,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>N6164610</v>
+        <v>M0010677</v>
       </c>
       <c r="B179" t="str">
-        <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
+        <v>【机蜜】亲爱的机友，您的租赁订单已经通过审核啦！请尽快打开机蜜APP http://t.cn/RKRkDcT 完成首付，平台将会在支付完成后第一时间为您安排发货；若超过{$var}小时未支付，订单将被自动关闭。退订回T</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2300,21 +2351,21 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>M7980461</v>
+        <v>M0010677</v>
       </c>
       <c r="B180" t="str">
-        <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
+        <v>【机蜜】很抱歉，经综合评估，您的租赁订单暂未能通过审核，建议您过段时间再打开机蜜APP   http://t.cn/RKRkDcT 尝试申请。如有疑问，可致电机蜜客服热线400-179-8999或咨询机蜜在线客服。退订回T</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>N5030495</v>
+        <v>M0010677</v>
       </c>
       <c r="B181" t="str">
-        <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
+        <v>【机蜜】您已领取会员蜜卡，限时有效，快打开机蜜App http://t.cn/EitkYUW，前往“我的-机蜜CLUB”激活吧！</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2322,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>N5030495</v>
+        <v>M001115_M0547031</v>
       </c>
       <c r="B182" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
+        <v>【广州思哲影城】反贪风暴热映中！思哲影城提醒您有一张19.9元影票优惠券待领取，有效期为3日，请您登录广州思哲国际影城app，点击“优惠券”领取，本短信转发无效。如有疑问请咨询客服：大岗店:020-34938828 东涌店:020-39010108（广州思哲国际影城） 回复TD退订</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2333,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>N5148682</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B183" t="str">
-        <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，贝贝孕婴滨河店姗姗，祝宝宝生日快乐！并送您50元现金券，满199元可用，4月20号到期哦！ 回复TD退订</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2344,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>N7080731</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B184" t="str">
-        <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，贝贝孕婴府东店育儿顾问梦妍祝宝宝生日快乐！点http://s.joowing.com/p01Jo5g查看优惠 回复TD退订</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2355,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>N2716352</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B185" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，贝贝孕婴育儿顾问云云，提前祝宝宝生日快乐！点http://s.joowing.com/p01Jo5g查看优惠，贝贝孕婴送给宝宝50元的生日卷，您的优惠券到2月15号到期哦！ 回复TD退订</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2366,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>N1333913</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B186" t="str">
-        <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，府东育儿顾问王丽祝宝宝生日快乐！点http://s.joowing.com/p01Jo5g查看优惠 回复TD退订</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2377,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>N6486332</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B187" t="str">
-        <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
+        <v>【禹州贝贝孕婴】贝贝孕婴育儿顾问丹丹提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01Joa2 查看 回复TD退订</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2388,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>N5030495</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B188" t="str">
-        <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
+        <v>【禹州贝贝孕婴】贝贝育儿顾问丹丹提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01Joa2 查看 回复TD退订</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2399,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>N5030495</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B189" t="str">
-        <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，广场育儿顾问晓娟祝宝宝生日快乐！送您50元生日劵（满199减50   奶粉纸尿裤不参与）4月20日到期 点http://s.joowing.com/p01Jo5g查看 回复TD退订</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2410,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>N18701840782</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B190" t="str">
-        <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
+        <v>【禹州贝贝孕婴】贝贝孕婴颍川店育儿顾问云云，提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01Joa2 查看 回复TD退订</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2421,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>N8609344</v>
+        <v>M003553_M5419553</v>
       </c>
       <c r="B191" t="str">
-        <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
+        <v>【禹州贝贝孕婴】宝宝要过生日啦，贝贝孕婴育儿顾问云云，提前祝宝宝生日快乐！点http://s.joowing.com/p01Jo5g查看优惠，贝贝孕婴送给宝宝50元的生日卷，您的优惠券到4月20号到期哦！ 回复TD退订</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2432,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>N8609344</v>
+        <v>M005356_M1136433</v>
       </c>
       <c r="B192" t="str">
-        <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
+        <v>【云客赞优选】尊敬的客户您好！您购买的沙市区出老签串串店的【出老签】由于商家原因无法营业，订单已为您申请退款，款项会原路退回到您的账号上，给您带来不便非常抱歉！退订回T</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2443,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>M6827905</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B193" t="str">
-        <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
+        <v>【宁德爱倍多】我是您在爱倍多金涵店的导购郑燕秋，您有价值5元代金券即将到期，欢迎进店为宝宝选购商品，有疑问请联系我15859305650 回复TD退订</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2454,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>N8609344</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B194" t="str">
-        <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
+        <v>【宁德爱倍多】xx育儿顾问xx提醒您，新会员专享优惠即将到期！点  查看 回复TD退订</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2465,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>N2033905</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B195" t="str">
-        <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，xx育儿顾问xx祝宝宝生日快乐！点  查看优惠 回复TD退订</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2476,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>M5568914</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B196" t="str">
-        <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，蕉南爱倍多育儿顾问巧枝祝宝宝生日快乐！点  商城查看优惠 回复TD退订</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2487,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>M3504161</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B197" t="str">
-        <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，爱倍多金涵店燕秋祝宝宝生日快乐！您有价值10元的生日玩具代金券即将到期，欢迎进店为宝宝选购生日礼物，如有疑问请联系我15859305650 回复TD退订</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2498,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>N4006876</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B198" t="str">
-        <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
+        <v>【宁德爱倍多】长兴城爱倍多的育儿顾问蒋丽丹提醒您，新会员专享优惠即将到期！点  查看 回复TD退订</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2509,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>N4006876</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B199" t="str">
-        <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，郦景店育儿顾问周双琴祝宝宝生日快乐！点  查看优惠 回复TD退订</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2520,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>M8710160</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B200" t="str">
-        <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
+        <v>【宁德爱倍多】我是您在爱倍多金涵店的导购燕秋，您有价值100元的奶粉新客代金券即将过期， 欢迎到店为宝宝选购奶粉，如有疑问请联系我15859305650 回复TD退订</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2531,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>N5261027</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B201" t="str">
-        <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，蕉南爱倍多育儿顾问巧枝祝宝宝生日快乐！点 商城 查看优惠 回复TD退订</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2542,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>N3588635</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B202" t="str">
-        <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，爱倍多育儿顾问付巧燕祝宝宝生日快乐！点  查看优惠 回复TD退订</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2553,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>N4006876</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B203" t="str">
-        <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，长兴城爱倍多的育儿顾问蒋丽丹祝宝宝生日快乐！点  查看优惠 回复TD退订</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2564,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>N8699715</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B204" t="str">
-        <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
+        <v>【宁德爱倍多】宝宝要过生日啦，爱倍多育儿顾问小邱祝宝宝生日快乐！点  查看优惠 回复TD退订</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2575,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>M8528910</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B205" t="str">
-        <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
+        <v>【宁德爱倍多】我是您在爱倍多的顾问李萍，您有价值100元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15659960589 回复TD退订</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2586,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>N1083891</v>
+        <v>M005431_M5419553</v>
       </c>
       <c r="B206" t="str">
-        <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
+        <v>【宁德爱倍多】我是您爱倍多商户的顾问，您有价值100元的奶粉新客代金券即将过期，详点  欢迎到店/登录商城使用。 回复TD退订</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2597,1098 +2648,1506 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>N6881179</v>
+        <v>M012013_M7119047</v>
       </c>
       <c r="B207" t="str">
-        <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
+        <v>【来伊份】您的好友陈玲(15800601662)，在来伊份邀请您！点击接受邀请: https://m.laiyifen.com/regis.html?from=/my/home.html&amp;inviteCodeStr=xxdl8k 查看 退订回T</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>N6881179</v>
+        <v>M012013_M7119047</v>
       </c>
       <c r="B208" t="str">
-        <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
+        <v>【来伊份】您的好友施永雷(13701604821)，在来伊份邀请您！点击接受邀请: https://m.laiyifen.com/regis.html?from=/my/home.html&amp;inviteCodeStr=n3rrlo 查看 退订回T</v>
+      </c>
+      <c r="C208">
+        <v>500</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>N3218638</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B209" t="str">
-        <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
+        <v>【牛顿造型】10016的会员卡,于2019-04-08 11:59:46在本店充值500.00元,卡内余额1000.00元,感谢您的光临!</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>N4049746</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B210" t="str">
-        <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
+        <v>【牛顿造型】10015的会员卡,于2019-04-08 11:57:18在本店充值500.00元,卡内余额1000.00元,感谢您的光临!</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>M3390424</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B211" t="str">
-        <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
+        <v>【牛顿造型】10014的会员卡,于2019-04-08 11:56:17在本店充值500.00元,卡内余额1000.00元,感谢您的光临!</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>N9053820</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B212" t="str">
-        <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
+        <v>【牛顿造型】恭喜您!您于11:56:59成为本店会员,会员卡号为10015,感谢您的光临!</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>N7059101</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B213" t="str">
-        <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
+        <v>【牛顿造型】恭喜您!您于11:59:29成为本店会员,会员卡号为10016,感谢您的光临!</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>N9053820</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B214" t="str">
-        <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
+        <v>【牛顿造型】恭喜您!您于11:55:48成为本店会员,会员卡号为10014,感谢您的光临!</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>N5030495</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B215" t="str">
-        <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
+        <v>【牛顿造型】恭喜您!您于17:19:47成为本店会员,会员卡号为80601,感谢您的光临!</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>N4184665</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B216" t="str">
-        <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
+        <v>【牛顿造型】80601的会员卡,于2019-04-08 17:20:19在本店充值1000.00元,卡内余额2000.00元,感谢您的光临!</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>N6873724</v>
+        <v>M013625_M2747200</v>
       </c>
       <c r="B217" t="str">
-        <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
+        <v>【牛顿造型】80790的会员卡,于2019-04-08 17:20:59在本店充值500.00元,卡内余额560.00元,感谢您的光临!</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>N6873724</v>
+        <v>M014035_M5419553</v>
       </c>
       <c r="B218" t="str">
-        <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
+        <v>【爱宝贝】晋中爱宝贝育儿顾问王丽君提醒您，新会员专享优惠即将到期，最近有需要可以来使用一下。 回复TD退订</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>N6873724</v>
+        <v>M014035_M5419553</v>
       </c>
       <c r="B219" t="str">
-        <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
+        <v>【爱宝贝】晋中爱宝贝育儿顾问王丽君提醒您，新会员专享优惠即将到期！有需要可以来使用一下。 回复TD退订</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>N6873724</v>
+        <v>M014035_M5419553</v>
       </c>
       <c r="B220" t="str">
-        <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
+        <v>【爱宝贝】晋中爱宝贝育儿顾问王丽君提醒您，新会员专享优惠即将到期！最近有需要可以来使用一下， 回复TD退订</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>M2664070</v>
+        <v>M0157032</v>
       </c>
       <c r="B221" t="str">
-        <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
+        <v>【德友名车株洲店】初夏来临，老客户到店免费空调系统消毒，空调系统免费检测，预存消费工时配件8折，油漆买二送一13607339689退订回T</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>N1333913</v>
+        <v>M0157032</v>
       </c>
       <c r="B222" t="str">
-        <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
+        <v>【德友名车株洲店】初夏来临，奥迪到店免费空调系统消毒，原厂机油保养套餐低至520/次，油漆买二送一（三个面）13707338987退订回T</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>N1606651</v>
+        <v>M0157032</v>
       </c>
       <c r="B223" t="str">
-        <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
+        <v>【德友名车株洲店】初夏来临，会员客户到店送空调系统消毒，原厂机油保养体验399元起，油漆买二送一（三个面）13607332577小朱退订回T</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>N6651869</v>
+        <v>M016252_M2077463</v>
       </c>
       <c r="B224" t="str">
-        <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
+        <v>【科沃斯】亲，宝贝还满意吗？快去淘宝订单评价吧！评价上传视频可获赠旅行收纳袋6件套哦~活动详情：t.cn/EiVSMNm，回T退订</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>M5972359</v>
+        <v>M016252_M2077463</v>
       </c>
       <c r="B225" t="str">
-        <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
+        <v>【科沃斯】用户您好，扫地机还满意吗？快来评价与我们分享吧！评价即有旅行收纳袋6件套礼品送哦~活动详情：t.cn/EinyFxN，回T退订</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>M2479438</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B226" t="str">
-        <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
+        <v>【美婴房】感谢您在美婴房为宝宝选购商品，我是您的育儿顾问陈凤琪。点 http://s.joowing.com/p01tKYE 找我或查优惠 回复TD退订</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>N4689491</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B227" t="str">
-        <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
+        <v>【美婴房】我是您在美婴房的顾问陈燕，现在我们夏季用品都有活动，等你有时间来看看吧。 回复TD退订</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>N5233471</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B228" t="str">
-        <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
+        <v>【美婴房】感谢您在美婴房为宝宝选购商品，我是您的育儿顾问连亭。点 http://s.joowing.com/p01tKYE 找我或查优惠 回复TD退订</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>N5030495</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B229" t="str">
-        <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
+        <v>【美婴房】我是您在美婴房的顾问张春华，您有代金券即将到期，春装三件任选199元，欢迎您光临选购 回复TD退订</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>N5030495</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B230" t="str">
-        <v>您的验证码是.{0,10}，10分钟内有效。</v>
+        <v>【美婴房】我是您在美婴房的顾问邱芸晴，旗帜奶粉宝宝喝的怎么样啊？现在店里有6送2的活动喔，还有其他好多活动，欢迎来玩 回复TD退订</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>N4689491</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B231" t="str">
-        <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
+        <v>【美婴房】我是您在美婴房的顾问强娴君，现春款三件199啦，夏款爬服特价25一件喽 回复TD退订</v>
+      </c>
+      <c r="C231">
+        <v>500</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>N4689491</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B232" t="str">
-        <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
+        <v>【美婴房】感谢您在美婴房为宝宝选购商品，我是您的育儿顾问孙玉琴。点 http://s.joowing.com/p01tKYE 找我或查优惠 回复TD退订</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>M1509359</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B233" t="str">
-        <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
+        <v>【美婴房】感谢您在美婴房为宝宝选购商品，我是您的育儿顾问高晓青。点 http://s.joowing.com/p01tKYE 找我或查优惠 回复TD退订</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>M9434897</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B234" t="str">
-        <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
+        <v>【美婴房】我是您在美婴房的顾问邱芸晴，您有代金券即将到期，夏装也要上了喔，可以来逛逛啦 回复TD退订</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>M4582717</v>
+        <v>M025401_M5419553</v>
       </c>
       <c r="B235" t="str">
-        <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
+        <v>【美婴房】我是您在美婴房的顾问陈燕，现在我们夏季用品，夏季衣服都有活动。有时间带宝宝过来看看哦 回复TD退订</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>N5268364</v>
+        <v>M030012_M7722154</v>
       </c>
       <c r="B236" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
+        <v>【碧桂园】亲爱的家人，愿幸福平安常与您相伴。森林城市两大星级酒店、滨海商业街、学校、传奇高尔夫球场皆已全面开放，欢迎您随时回家。</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>N5268364</v>
+        <v>M031264_M0063533</v>
       </c>
       <c r="B237" t="str">
-        <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
+        <v>【FURLA】尊贵的FURLA会员您好，我是您的销售顾问Linda，本月呢是我们品牌的包包护理月，FURLA邀请您携带包包，到本店进行免费的护理，给您的包包容光焕发，如果有任何疑问欢迎随时和我联系，专柜电话0871-65238937，祝您生活愉快，谢谢！回复TD退订</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>N8988822</v>
+        <v>M031264_M0063533</v>
       </c>
       <c r="B238" t="str">
-        <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
+        <v>【FURLA】尊贵的FURLA会员您好，本月呢是我们品牌的皮具护理月，您的包包使用已经超过一个月啦，FURLA邀请您携带包包，到本店进行免费的护理，给您的包包容光焕发，如果有任何疑问欢迎随时和我联系，专柜电话0871-65238937，祝您生活愉快，谢谢！回复TD退订</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>M4979026</v>
+        <v>M0336073</v>
       </c>
       <c r="B239" t="str">
-        <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
+        <v>【三剑客】亲，由以你的网购信用良好成邀请你在评语#联#系扣扣89534652退订回T</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>N1666314</v>
+        <v>M0336073</v>
       </c>
       <c r="B240" t="str">
-        <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
+        <v>【三剑客】尊敬的菠菜会员！新年接口优惠进行中。详情咨询客户经理13060943526或89534652退订回T</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>N5233471</v>
+        <v>M0336073</v>
       </c>
       <c r="B241" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
+        <v>【三剑客】【三剑客】【三剑客】尊敬的会员！购物活动大更新，详情咨询客户经理：扣扣89534652退订回T</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>M2561720</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B242" t="str">
-        <v>测试模板是否有效，\d+退订回TD</v>
+        <v>【贝牛】贝牛育儿顾问赛梅提醒您，新会员专享优惠即将到期！里面有10元营优惠券满128使用 回复TD退订</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>N5268364</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B243" t="str">
-        <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
+        <v>【贝牛】贝牛育儿顾问赛梅提醒您，新会员专享优惠即将到期！全场品券满10满198使用 回复TD退订</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>N5268364</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B244" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
+        <v>【贝牛】万家隆超市贝牛育儿顾问提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01LTQx 查看 回复TD退订</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>M2561720</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B245" t="str">
-        <v>测试模板是否有效，日期.{0,12}退订回TD</v>
+        <v>【贝牛】宝宝要过生日啦，贝牛育儿顾问林少菊祝宝宝生日快乐！点 http://s.joowing.com/p01LTQR 查看优惠，如果有疑问请咨询13515066786 回复TD退订</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>N7645941</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B246" t="str">
-        <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
+        <v>【贝牛】贝牛育儿顾问林提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01LTQx 查看，如果有疑问请咨询13515066786 回复TD退订</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>N6623314</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B247" t="str">
-        <v>您好，您的验证码是：\d+</v>
+        <v>【贝牛】贝牛育儿顾问林少菊提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01LTQx 查看，如果有疑问请咨询13515066786 回复TD退订</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>N3131625</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B248" t="str">
-        <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
+        <v>【贝牛】贝牛育儿顾问赛梅提醒您，新会员专享优惠即将到期！10元优惠券满198抵用 回复TD退订</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>M7736805</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B249" t="str">
-        <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
+        <v>【贝牛】贝牛育儿顾问赛梅提醒您，新会员专享优惠即将到期！新客全品券10元，满198元使用 回复TD退订</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>M4364918</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B250" t="str">
-        <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
+        <v>【贝牛】万家隆超市贝牛育儿顾问郑彬华提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01LTQx 查看 回复TD退订</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>M5129810</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B251" t="str">
-        <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
+        <v>【贝牛】贝牛育儿顾问赛梅提醒您，新会员专享优惠即将到期满198使用 回复TD退订</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>M655095_M4818426</v>
+        <v>M034655_M5419553</v>
       </c>
       <c r="B252" t="str">
-        <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
+        <v>【贝牛】贝牛育儿顾问公馆贝牛店提醒您，新会员专享优惠即将到期！点 http://s.joowing.com/p01LTQx 查看 回复TD退订</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>N6716489</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B253" t="str">
-        <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
+        <v>【玖富钱包】0.8%+0.5%两张礼券已到账，你还在等什么！温馨提示：0.8%仅限今日有效哦~玖富，实力派，合规我们永不止步！ 回TD退订</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>M9313989</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B254" t="str">
-        <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
+        <v>【玖富钱包】亲爱的用户：您好！四月春光正明媚，踏青游玩正当时；玖富钱包为您准备了4月专属“会员福利”哦~请登录App-会员页-福利中心，抓紧领取，赚取更多回报！会员等级越高，福利越丰厚哦~ （如已领取请忽略） 回TD退订</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>N9745907</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B255" t="str">
-        <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
+        <v>【玖富钱包】还不认识我吧！我是封闭期21天，期望年化12%的新手福利，给你专属体验，不想来试试吗？快打开APP体验吧~ 回TD退订</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>N3037712</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B256" t="str">
-        <v>您好，您的注册验证码是.{0,10}</v>
+        <v>【玖富钱包】终于等到您，奉上新手专享21天期望年化12%，仅限出借一次！有效期仅60天哦！登录玖富钱包APP开启取金之旅，玖富实力派！ 回TD退订</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>M1233088</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B257" t="str">
-        <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
+        <v>【玖富钱包】玖富普惠实缴注册资本金20亿，华夏银行存管，玖富实力派！新人专享90天期望年化8%。打开玖富钱包APP，开启取金之路吧！ 回TD退订</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>N6716489</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B258" t="str">
-        <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
+        <v>【玖富钱包】最划算操作！选续投享最高199元+0.5%奖励，4月首次操作续投还可赢88元奖励券哟~悄悄告诉你，你有订单可选续投日期已不足5天~快来“悟空理财APP-我-我的订单”锁定你的预期回报吧！ 回TD退订</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>M1233088</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B259" t="str">
-        <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
+        <v>【玖富钱包】&lt;&lt;活动中心&gt;&gt;你想要的福利都在这！天天翻牌，话题pk，邀请擂台赛等等等等，你能想到的通通都在活动中心，还在等什么？赶快打开APP，点击活动中心 回TD退订</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>M5129810</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B260" t="str">
-        <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
+        <v>【玖富钱包】尊敬的用户，开户流程已恢复正常使用。新手专享21天，期望年化回报率12%，有效期自注册日开始仅60天，建议及时使用哦~玖富，实力派，合规我们永不止步！戳→ http://t.cn/Rs3p6KB 回TD退订</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>N9686649</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B261" t="str">
-        <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
+        <v>【玖富钱包】您价值18元的本金券即将到期。21天期望年化12%，用券更划算。玖富，实力派！ 回TD退订</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>M5129810</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B262" t="str">
-        <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
+        <v>【玖富钱包】想多赚？为您墙裂推荐3款新手专享产品，最高期望年化回报率12%，早买早赚。超6000万用户的选择，12年大平台，打开玖富钱包APP，开启取金之旅~ 回TD退订</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>N7566157</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B263" t="str">
-        <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
+        <v>【玖富钱包】最贵的东西都免费，最好的产品要定制，橙色十点半，只给珍贵的你！每天早晚10：30准时限量开抢~届时登录玖富金融APP抢购吧~ 回TD退订</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>N6873724</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B264" t="str">
-        <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
+        <v>【玖富钱包】一年期7.8%本息全额保障的产品哪里找，玖富携手两大国有保险公司推出全新产品“保贝计划”，限量发售手慢无，保障一小步，安全一大步。请在玖富钱包APP首页-保贝计划频道参与。 回TD退订</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>N811652_N1666314</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B265" t="str">
-        <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
+        <v>【玖富钱包】网贷产品安心之选，“保贝计划"限量发售，两大国有保险公司承保全额理赔，保障一小步，安全一大步。打开玖富钱包APP-投资页-全额理赔专区参与。 回TD退订</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>N811652_N1666314</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B266" t="str">
-        <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
+        <v>【玖富钱包】奖励到！您参与的3月续投活动，奖励“本金券”已放至您的账户中，请到“我的-福利券”中查看，有效7天，请及时使用哦~ 玖富-实力派！ 回TD退订</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>N7449087</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B267" t="str">
-        <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
+        <v>【玖富钱包】还不认识我吧！我是封闭期90天，期望年化8%新手福利，给你专属体验，不想来试试吗？快打开APP体验吧~ 回TD退订</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>M8997564</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B268" t="str">
-        <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
+        <v>【玖富钱包】不用看，新手五重礼更划算！3款新手专享产品任你选，最高期望年化回报率12%，早买早赚。首次出借还可获2988积分，积分可兑换实物礼品。请移步玖富钱包APP~ 回TD退订</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>M2802919</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B269" t="str">
-        <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
+        <v>【玖富钱包】会员体系暖心福利！月月享惊喜、还有升级礼，生日礼，小玖给你的专属宠爱~级别越高福利越多哦！立即打开APP-点击“会员”领取你的专属福利吧~ 回TD退订</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>N7139403</v>
+        <v>M040613_M1716014</v>
       </c>
       <c r="B270" t="str">
-        <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
+        <v>【玖富钱包】玖富普惠实缴注册资本金20亿，华夏银行存管，玖富实力派！新人专享21天期望年化12%。打开玖富钱包APP，开启取金之路吧！ 回TD退订</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>M5362782</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B271" t="str">
-        <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划的顾问游晶婷，您一张代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15985777089 回复TD退订</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>N6678451</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B272" t="str">
-        <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划的顾问王新霞，您有价值5元代金券即将到期，详点到龙翔门店通用，有疑问请联系我15980582951 回复TD退订</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>N3966816</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B273" t="str">
-        <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
+        <v>【平潭宝贝计划】育儿顾问提醒您，新会员专享优惠即将到期！点  查看 回复TD退订</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>N3966816</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B274" t="str">
-        <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划商户的顾问，您有价值5元的代金券即将过期，详点  欢迎到店/登录商城使用。 回复TD退订</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>M7611222</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B275" t="str">
-        <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
+        <v>【平潭宝贝计划】宝贝计划育儿顾问黎明提醒您，新会员专享优惠即将到期！点  查看 回复TD退订</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>N4145870</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B276" t="str">
-        <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划商户的顾问，您有一张代金券即将过期，详点  欢迎到店/登录商城使用。 回复TD退订</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>M4623918</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B277" t="str">
-        <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划名城店的顾问薛万霞，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我18650788727 回复TD退订</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>M8093322</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B278" t="str">
-        <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
+        <v>【平潭宝贝计划】我是您的顾问xx，很荣幸为您服务！可以点  找我或者是查看优惠 回复TD退订</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>M4558853</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B279" t="str">
-        <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划商户的顾问，您有价值5元的代金券即将过期，详点  欢迎到龙翔店商城使用。 回复TD退订</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>N3966816</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B280" t="str">
-        <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划商户的顾问，您有价值5元的代金券即将过期，详点  欢迎到龙翔店/登录商城使用。 回复TD退订</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>N8917788</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B281" t="str">
-        <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划的顾问林黎明，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13799926605 回复TD退订</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>N7566157</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B282" t="str">
-        <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
+        <v>【平潭宝贝计划】我是您的顾问，很荣幸为您服务！可以点  找我或者是查看优惠 回复TD退订</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>N2440260</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B283" t="str">
-        <v>有一个新的项目需要审核。</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划客服，很荣幸为您服务！可以点  找我或者是查看优惠 回复TD退订</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>N824972_N5779929</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B284" t="str">
-        <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
+        <v>【平潭宝贝计划】我是您在宝贝计划名城店商户的顾问，您有价值5元的代金券即将过期，详点  欢迎到店/登录商城使用。 回复TD退订</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>M5129810</v>
+        <v>M046130_M5419553</v>
       </c>
       <c r="B285" t="str">
-        <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
+        <v>【平潭宝贝计划】宝贝计划名城店育儿顾问提醒您，新会员专享优惠即将到期！点  查看 回复TD退订</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>M8928040</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B286" t="str">
-        <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的家族战加成问题，为固定10%奖励，连胜奖励为家族贡献加成。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>N4602312</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B287" t="str">
-        <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的猎团升级问题，您反馈的问题已知，需要等到后续更新进行修复，给您带来的不便之处深感抱歉。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>N8369795</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B288" t="str">
-        <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的盟战奖励领取异常已经为您补发，还请您留意邮件。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>N1437892</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B289" t="str">
-        <v>您的验证码是：123</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的礼包码兑换问题，经核实您提供的角色于2019-03-28 21:37:59兑换礼包获得奖励。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>N1083891</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B290" t="str">
-        <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的关注礼包兑换问题，经核实您提供的角色于2019-04-06 11:33:05兑换获得礼包内道具。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>N1083891</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B291" t="str">
-        <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的冲榜奖励无法领取问题，经核实您提供的截图为本服排行榜单截图，该榜单无奖励领取。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B292" t="str">
-        <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的无法登录游戏问题，为角色名符号无法识别导致，已经为您修改角色名。建议您后续角色名内不要带有符号，以免出现类似情况。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B293" t="str">
-        <v>会员.*刚才.*操作,请登陆平台审查。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的角色杀敌异常问题，经核实您提供的角色数据无异常。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B294" t="str">
-        <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的补偿邮件未领取问题，建议您及时领取邮件内奖励，以免超出邮件上限被清除。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B295" t="str">
-        <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的联盟人数显示异常问题，该问题为显示异常，实际无异常。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B296" t="str">
-        <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的游戏显示问题，需要您留意一下是否手机内存不足导致重复下载更新。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B297" t="str">
-        <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的登录显示异常问题，建议您保存好帐号密码后清除游戏缓存，卸载重装。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>M6010411</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B298" t="str">
-        <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的军团任务问题，需要您达到军团总需要次数159次数的3%，也就是5次，才能领取奖励。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>M4364918</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B299" t="str">
-        <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的金融币异常问题，经核实您提供的角色于2019-04-07 16:41:24获得金融币217.7W，2019-04-07 16:42:59商店购买消耗260W。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>M8348728</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B300" t="str">
-        <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的点赞问题，点赞和谣言玩法延迟较大，建议您退出游戏再次登录查看是否有谣言未刷新显示。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B301" t="str">
-        <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
+        <v>【草花手游】尊敬的玩家您好，关于您反馈的投诉问题，经确认游戏更新后并为出现异常无法登录问题，正在预热无法加载情况可能是因网络或设备原因导致，您提交的补偿申请未通过，若您再次遇到类似情况，您可以尝试卸载重装查看是否恢复，或及时联系客服协助处理。感谢您对游戏的支持，祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B302" t="str">
-        <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的元宝丢失问题，经核实您提供的角色于2019/4/4 1:36:52召回红颜-810，2019/4/4 1:42:45召回红颜-900；浣衣坊红颜消失问题，为您提前元宝召回。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B303" t="str">
-        <v>域名.+出现异常情况！</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的卫青重复出战问题，无法通过您通过的截图内体现出您描述的异常问题，建议您录制一份小视屏来为您核实处理。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B304" t="str">
-        <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的爵位晋升问题，需要您奖励爵位晋升四个字上面的绿色进度条堆满才会晋升。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B305" t="str">
-        <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的突破石丢失问题，经核实您提供的角色于2019-04-08 07:36:13神将突破消耗300个突破石。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B306" t="str">
-        <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的冲榜奖励获得问题，经核实您提供的角色于2019-04-08 12:32:09邮件提取七星车钥匙*7。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B307" t="str">
-        <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的要塞活动问题，经技术测试该玩法无异常，建议您保存好帐号密码后清除游戏缓存，卸载重装。您反馈的军团任务奖励领取，需要您达到3%需求总次数，5次史诗战场胜利，才能领取奖励。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B308" t="str">
-        <v>统一用户中心账号开通通知.+请注意跟进。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的大丰收道具丢失问题，经核实您提供的角色于2019/3/13 12:27:04使用23个铜锄使用完、2019/3/13 12:28:24使用43个铁锄使用完、2019-03-13 12:27:59使用3个银锄使用完、2019/3/13 12:28:25使用2个金锄使用完。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>M3202601</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B309" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的人才委托礼包问题，经核实您提供的角色于2019-04-07 11:43:36、2019-04-07 13:57:09获得两个初级人才委托礼包，均获得后立即使用。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>M3434071</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B310" t="str">
-        <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的礼包码无法兑换问题，同类型礼包码无法兑换第二次，更感谢您对我们游戏的热爱于支持。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>M5129810</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B311" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的游戏卡顿，建议您更换网络链接登录尝试，WIFI、流量切换。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>M4980299</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B312" t="str">
-        <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的政策玩法问题，建议您保存好帐号密码后清除游戏缓存，卸载重装。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>N2112240</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B313" t="str">
-        <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的史诗战场军团任务问题，通过您提供的截图来看，您的史诗战场任务完成个人贡献不足，无法领取奖励。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>N4383936</v>
+        <v>M046624_M4041463</v>
       </c>
       <c r="B314" t="str">
-        <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
+        <v>【草花手游】亲爱的玩家，您好。您反馈的角色丢失，需要您登录区服：58。祝您生活愉快！退订回T</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>N4383936</v>
+        <v>M051006_M4243275</v>
       </c>
       <c r="B315" t="str">
-        <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
+        <v>【优美外卖】尊敬的优美外卖会员您好，新用户代金卷7天内有效，请您尽快使用，祝您用餐愉快！ 回复TD退订</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B316" t="str">
-        <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
+        <v>【满帮集团】丁盛陶师傅，恭喜，你的信用额度25000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B317" t="str">
-        <v>您的视频定制已经完成。点击查询下载链接\w+</v>
+        <v>【满帮集团】卢忠淦师傅，恭喜，你的信用额度20000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B318" t="str">
-        <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
+        <v>【满帮集团】谢东财师傅，恭喜，你的信用额度30000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>M6180832</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B319" t="str">
-        <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
+        <v>【满帮集团】李喜娣师傅，恭喜，你的信用额度30000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>N8369795</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B320" t="str">
-        <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
+        <v>【满帮集团】时昌亚师傅，您的货主会员贷借款已经发放到您尾号3872的银行卡账户，金额10000.00元，请及时查看账户余额。祝您生意兴隆，行车安全。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度、加快放款速度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>N8369795</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B321" t="str">
-        <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
+        <v>【满帮集团】李时青师傅，恭喜，你的信用额度12000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>M7223621</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B322" t="str">
-        <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
+        <v>【满帮集团】杨纯师傅，恭喜，你的信用额度12000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>M667356_M1772685</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B323" t="str">
-        <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
+        <v>【满帮集团】邢东亮师傅，恭喜，你的信用额度50000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>M5129810</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B324" t="str">
-        <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
+        <v>【满帮集团】张龙洲师傅，您的货主会员贷借款已经发放到您尾号2272的银行卡账户，金额8000.00元，请及时查看账户余额。祝您生意兴隆，行车安全。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度、加快放款速度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B325" t="str">
-        <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
+        <v>【满帮集团】李志文师傅，非常抱歉，由于综合信用评分不足，您暂时无法开通货主会员贷业务，请3个月后重试。货车帮或运满满公司不会向您收取任何申请费用，所有告知您可以通过刷流水、交保证金等方式帮助开通货主会员贷业务的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>N1449833</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B326" t="str">
-        <v>.*驳回了您的@申请，请注意查看。</v>
+        <v>【满帮集团】白志强师傅，恭喜，你的信用额度20000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B327" t="str">
-        <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
+        <v>【满帮集团】吴育兰师傅，恭喜，你的信用额度30000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B328" t="str">
-        <v>.+您好，请及时处理.+谢谢！</v>
+        <v>【满帮集团】赵乐师傅，恭喜，你的信用额度20000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B329" t="str">
-        <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
+        <v>【满帮集团】岳秀师傅，非常抱歉，由于综合信用评分不足，您暂时无法开通货主会员贷业务，请3个月后重试。货车帮或运满满公司不会向您收取任何申请费用，所有告知您可以通过刷流水、交保证金等方式帮助开通货主会员贷业务的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B330" t="str">
-        <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
+        <v>【满帮集团】李珍师傅，您的货主会员贷借款已经发放到您尾号6977的银行卡账户，金额3000.00元，请及时查看账户余额。祝您生意兴隆，行车安全。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度、加快放款速度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>N4383936</v>
+        <v>M051463_M3044124</v>
       </c>
       <c r="B331" t="str">
-        <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
+        <v>【满帮集团】孙祖明师傅，恭喜，你的信用额度30000.00元，经常使用，有助于额度提升。友情提醒：所有告知您可以通过刷流水、交保证金等方式帮助提升货主会员贷额度的都是诈骗，请您不要相信，注意资金安全回复TD退订。</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>M3202601</v>
+        <v>M055536_M0562712</v>
       </c>
       <c r="B332" t="str">
-        <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
+        <v>【美宜佳】非常感谢您在微信&lt;美宜佳选&gt;小程序订购商品，您的货已到店，为保证水果新鲜，请尽快到店取货，欢迎登录&lt;美宜佳选&gt;咨询团长。退订回T</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>N1199199</v>
+        <v>M055536_M0562712</v>
       </c>
       <c r="B333" t="str">
-        <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
+        <v>【美宜佳】尊敬的各位店长，恭喜发财。美宜佳选已经全省上线， 门店无需成本，只需要保管客人订购商品并核销就可以赚取佣金，还能积累线上熟客，不少门店已有订单。以下链接可以找到相关项目进行学习操作。 http://t.cn/E6fDCy0退订回T</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>N2702621</v>
+        <v>M056232_M4352244</v>
       </c>
       <c r="B334" t="str">
-        <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
+        <v>【罗莱生活】罗莱中厅特卖开始了！舒芯纤维被199元，悦芯呵护枕50元，家居服，夏凉类低至5折，还有更多优惠等你来挑选，千万别错过了！活动时间4.10-4.16服务门店：长沙天虹罗,退订回T</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>N4383936</v>
+        <v>M0562712</v>
       </c>
       <c r="B335" t="str">
-        <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
+        <v>【美宜佳】您好，您4月8日有定单需要送货，请注意查看并于今天12：00前预约送货(5671340转8031)，请按定单到效日期当天送货，由于仓库上午收货繁忙，卸货区狭小，需要等待较长时间。建议安排13:30-15:30送货，谢谢！回复td退订</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>N4383936</v>
+        <v>M0562712</v>
       </c>
       <c r="B336" t="str">
-        <v>您申报的项目未通过审核</v>
+        <v>【美宜佳】恭喜您！3月份在美宜佳优惠券小程序核销[防蚊防虫活动商品]中奖，奖品为“杀蟑胶饵”。请于4月14日前在广东美宜佳公众号联系人工客服，回复【5月防蚊防潮中奖登记】登记收货人及收货地址等领奖信息，逾期视为放弃领取奖品，感谢您的参与！美宜佳，有你有趣！回复td退订</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>N4383936</v>
+        <v>M0562712</v>
       </c>
       <c r="B337" t="str">
-        <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
+        <v>【美宜佳】恭喜您！3月份在美宜佳优惠券小程序核销[防蚊防虫活动商品]中奖，奖品为“除湿机”。请于4月14日前在广东美宜佳公众号联系人工客服，回复【4月防蚊防潮中奖登记】登记收货人及收货地址等领奖信息，逾期视为放弃领取奖品，感谢您的参与！美宜佳，有你有趣！回复td退订</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>M1147250</v>
+        <v>M0562712</v>
       </c>
       <c r="B338" t="str">
-        <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
+        <v>【美宜佳】恭喜您！3月份在美宜佳优惠券小程序核销[防蚊防虫活动商品]中奖，奖品为“取暖器”。请于4月14日前在广东美宜佳公众号联系人工客服，回复【3月防蚊防潮中奖登记】登记收货人及收货地址等领奖信息，逾期视为放弃领取奖品，感谢您的参与！美宜佳，有你有趣！回复td退订</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>M1147250</v>
+        <v>M0562712</v>
       </c>
       <c r="B339" t="str">
-        <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>【美宜佳】您好，您有新的定单，请注意查看并提前一天预约送货(预约电话8557-0306)，谢谢！"回复td退订</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>N4383936</v>
+        <v>M0562712</v>
       </c>
       <c r="B340" t="str">
-        <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
+        <v>【美宜佳】您好，您有新的定单，请注意查看并提前一天预约送货(5671340转8031)，请在定单到效日期当天送货，谢谢！回复td退订</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B341" t="str">
-        <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问吕亚琴，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15257495621 回复TD退订</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B342" t="str">
-        <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问沃宠芬 ，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13957877361 回复TD退订</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B343" t="str">
-        <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问吕亚琴，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -3696,10 +4155,10 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>M8467004</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B344" t="str">
-        <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问周霞林，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15888517873 回复TD退订</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -3707,32 +4166,32 @@
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B345" t="str">
-        <v>您有流程编号为.+需要您登录平台进行审核！</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张婷婷，您有价值5元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B346" t="str">
-        <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问王小小，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>M1147250</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B347" t="str">
-        <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问于素梅，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13586860152 回复TD退订</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -3740,10 +4199,10 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>M1147250</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B348" t="str">
-        <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张南萍，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13221969436 回复TD退订</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -3751,10 +4210,10 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>M1147250</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B349" t="str">
-        <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问，您有价值15元的代金券即将过期，详点  欢迎到店/登录商城使用。 回复TD退订</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -3762,10 +4221,10 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B350" t="str">
-        <v>Failtopurchase,pleasetryagain.</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问，您有价值5元的代金券即将过期，详点  欢迎到店/登录商城使用。12号到14号特卖会 回复TD退订</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -3773,32 +4232,32 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B351" t="str">
-        <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问张南萍，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B352" t="str">
-        <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张南萍，您有价值5元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B353" t="str">
-        <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问林娟，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13958330515 回复TD退订</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -3806,10 +4265,10 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B354" t="str">
-        <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问王小小，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15869365556 回复TD退订</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -3817,21 +4276,21 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B355" t="str">
-        <v>您的快递已.*即将发往中转站。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问张婷婷，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>M7223621</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B356" t="str">
-        <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问袁金霞，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15058295322 回复TD退订</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -3839,21 +4298,21 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>M5129810</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B357" t="str">
-        <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问周霞林，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>N4660285</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B358" t="str">
-        <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问尹建平，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13777236994 回复TD退订</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -3861,10 +4320,10 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>N2772660</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B359" t="str">
-        <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问洪洋洋，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15258315030 回复TD退订</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -3872,10 +4331,10 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B360" t="str">
-        <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张丹，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13566360659 回复TD退订</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -3883,10 +4342,10 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B361" t="str">
-        <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问李玲娟，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15958246618 回复TD退订</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -3894,10 +4353,10 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B362" t="str">
-        <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问李荣娟，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13736072779 回复TD退订</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -3905,10 +4364,10 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B363" t="str">
-        <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张雪芩，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我13235743778 回复TD退订</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -3916,43 +4375,43 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B364" t="str">
-        <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问李荣娟，您有价值5元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B365" t="str">
-        <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问于素梅，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>N4383936</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B366" t="str">
-        <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
+        <v>【虞家宝贝】我是您在虞家宝贝顾问沃宠芬 ，您有价值10元奶粉优惠券即将到期，详点  手机商城/门店通用。 回复TD退订</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>M1147250</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B367" t="str">
-        <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问张婷婷，您有价值5元代金券即将到期，详点  手机商城/门店通用，有疑问请联系我15957860659 回复TD退订</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -3960,10 +4419,10 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>M1147250</v>
+        <v>M056520_M5419553</v>
       </c>
       <c r="B368" t="str">
-        <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
+        <v>【虞家宝贝】我是您在虞家宝贝的顾问，您有价值5元的代金券即将过期，详点  欢迎到店/登录商城使用。（12号到14号特卖会） 回复TD退订</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -3971,10 +4430,10 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>N4383936</v>
+        <v>M0620160</v>
       </c>
       <c r="B369" t="str">
-        <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
+        <v>【Someet】你报名的4月10日“配对成功率全网最高的恋爱社交 侦探推理活动”活动支付通道将于30分钟后关闭,超时将视您为请假,并收到信誉惩罚,请您关注服务号并进行支付。详见微信服务号(SomeetInc) 退订回T</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -3982,10 +4441,10 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>N4383936</v>
+        <v>M0620160</v>
       </c>
       <c r="B370" t="str">
-        <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
+        <v>【Someet】你报名的4月13日“演员小剧场：周末无聊？来场表演实践体验”活动支付通道将于30分钟后关闭,超时将视您为请假,并收到信誉惩罚,请您关注服务号并进行支付。详见微信服务号(SomeetInc) 退订回T</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -3993,10 +4452,10 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>N4383936</v>
+        <v>M0620160</v>
       </c>
       <c r="B371" t="str">
-        <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
+        <v>【Someet】你报名的活动“一本书、一个故事、一...”在今天的15:00开始开始。地点位于线上活动，请合理安排时间，不要迟到哦 退订回T</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -4004,10 +4463,10 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>N4383936</v>
+        <v>M0620160</v>
       </c>
       <c r="B372" t="str">
-        <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
+        <v>【Someet】push没发啊，快去看看吧 退订回T</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -4015,10 +4474,10 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B373" t="str">
-        <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
+        <v>【康岛医用耗材】（淘宝） 医用棉垫活动开始.5-9包打9.5折.10包以上9折 https://c.tb.cn/c.0WgY2K  退订回T</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -4026,10 +4485,10 @@
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B374" t="str">
-        <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
+        <v>【稻草人男装旗舰店】稻草人男装旗舰店做活动啦~恭喜您抽中了一件价值89元的新款T恤现在添加VX即可立即10元换购 VX号码：17758708951 退订回T</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -4037,10 +4496,10 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B375" t="str">
-        <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
+        <v>【稻草人男装旗舰店】做回馈老客户的活动啦~现在添加VX即可立即享受10元换购 VX号码：15606032441 名额有限先到先得哦 退订回T</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -4048,10 +4507,10 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B376" t="str">
-        <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
+        <v>【天亿郎文具礼品】亲，我是天亿郞文具店的客服，根据您阐述的情况，出现这种现象的原因是内部供墨系统没达到真空状态，导致空气压力不足，墨水出不来，一般新笔会有这种情况。解决办法：将整个笔头置入墨水中，旋转吸墨器，重复多次让墨水吸进排出，尽量使得出墨系统达到真空状态。如宝贝依旧存在问题，请与我们联系，我们会提供优质的售后保障，祝您生活愉快~ 退订回T</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -4059,10 +4518,10 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B377" t="str">
-        <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
+        <v>【好多多旗靓店】亲 ，麻烦您上淘宝一下，我是淘宝上您拍下兔子的掌柜，关于您的留言有事情要和您沟通一下 退订回T</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -4070,10 +4529,10 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>N4383936</v>
+        <v>M0716412</v>
       </c>
       <c r="B378" t="str">
-        <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
+        <v>【xx10168130】您好，您的饮水器胶圈已经派送，另外补偿红包一个，请查看客服聊天记录领取 退订回T</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -4081,10 +4540,10 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>M1147250</v>
+        <v>M0716412</v>
       </c>
       <c r="B379" t="str">
-        <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
+        <v>【婧蕊服饰旗舰店】亲您好，胸贴退货申请已同意，请今天安排寄回并且后台填上物流单号，否则退货申请自动关闭后将不再支持退货，另外胸贴属于个人卫生用品，请在未撕膜试穿不影响二次使用的前提下退货哦，不然仓库会检查拒收的，谢谢配合 退订回T</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -4092,10 +4551,10 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>M1147250</v>
+        <v>M0716412</v>
       </c>
       <c r="B380" t="str">
-        <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
+        <v>【稻草人男装旗舰店】稻草人男装旗舰店做回馈老客户的活动啦~现在添加VX即可立即享受10元换购 VX号码：15606032441 退订回T</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -4103,10 +4562,10 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>M1147250</v>
+        <v>M0716412</v>
       </c>
       <c r="B381" t="str">
-        <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
+        <v>【天亿郎文具礼品】亲，我是天亿郞文具店的客服，根据您阐述的情况，出现这种现象的原因是内部供墨系统没达到真空状态，导致空气压力不足，墨水出不来，一般新笔会有这种情况。解决办法：将整个笔头置入墨水中，旋转吸墨器，重复多次让墨水吸进排出，尽量使得出墨系统达到真空状态。如宝贝依旧存在问题，请与我们联系，我们会提供优质的售后服务，祝您生活愉快~ 退订回T</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -4114,10 +4573,10 @@
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>M6240301</v>
+        <v>M0716412</v>
       </c>
       <c r="B382" t="str">
-        <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
+        <v>【婧蕊服饰旗舰店】亲您好，袜子退货申请已同意，请今天安排寄回并且后台填上物流单号，否则退货申请自动关闭后将不再支持退货，另外袜子属于个人卫生用品，请在未拆开吊牌试穿不影响二次使用的前提下退货哦，不然仓库会检查拒收的，谢谢配合！ 退订回T</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4125,21 +4584,21 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>M5168581</v>
+        <v>M0716412</v>
       </c>
       <c r="B383" t="str">
-        <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
+        <v>【天亿郎文具礼品】亲，您好！我是（上海）天亿郎文具店客服，今天下午您下单未付款的钢笔喜欢吗？如果喜欢的话我可以给您大的优惠，这款宝贝性价比超高哦，祝您生活愉快！么么哒~~。——天亿郞文具店 退订回T</v>
       </c>
       <c r="C383">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>N8988951</v>
+        <v>M0716412</v>
       </c>
       <c r="B384" t="str">
-        <v>您的快速登陆验证码为.{0,10}</v>
+        <v>【烟花何须折】抱歉亲，你刚购买的这款格子衬衫仓库那边没货了，得麻烦你这边申请下退款了，谢谢 退订回T</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4147,10 +4606,10 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>N9478151</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B385" t="str">
-        <v>12为您的验证码，30分钟内有效！</v>
+        <v>【中国人保】尊敬的张自英先生,我是中国人保的小潘,手机17721711856,您的爱车苏D573PV保险即将到期,车损91838元,三者100万,不计免赔,交强855元,车船税300元,总保费3740.18元,实收3490.51元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4158,10 +4617,10 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>N6873724</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B386" t="str">
-        <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
+        <v>【中国人保】尊敬的沈晓冬先生,我是中国人保的小潘,手机17721711856,您的爱车苏D2EN90保险即将到期,车损91086元,三者100万,不计免赔,交强990元,车船税360元,总保费4158.3元,实收3858.23元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4169,10 +4628,10 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>N2852505</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B387" t="str">
-        <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
+        <v>【中国人保】尊敬的孙勇先生,我是人保的小汤,手机18652668892,您的爱车苏M806AU保险即将到期,车损65988.4元,三者30万,不计免赔,交强665元,车船税300元,总保费2272.34元,实收2080元,有需要请联系我!退订回T</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4180,10 +4639,10 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>N2341491</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B388" t="str">
-        <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
+        <v>【中国人保】尊敬的张士伟先生,我是中国人保的小潘,手机17721711856,您的爱车苏D01S13保险即将到期,车损49162元,三者100万,不计免赔,交强990元,车船税300元,总保费3303.53元,实收3103.18元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4191,10 +4650,10 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>N2852505</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B389" t="str">
-        <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
+        <v>【中国人保】尊敬的徐公建先生,我是中国人保的小潘,手机17721711856,您的爱车苏D6UD03保险即将到期,车损102460元,三者100万,不计免赔,交强855元,车船税300元,总保费3598.68元,实收3398.75元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4202,10 +4661,10 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>N2745707</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B390" t="str">
-        <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
+        <v>【中国人保】尊敬的洪霞先生,我是中国人保的小潘,手机17721711856,您的爱车苏D5BU75保险即将到期,车损116372元,三者100万,不计免赔,交强855元,车船税300元,总保费3944.04元,实收3695.10元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4213,10 +4672,10 @@
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B391" t="str">
-        <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
+        <v>【中国人保】尊敬的鞠德斌先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7CS93保险即将到期,车损239606元,三者100万,不计免赔,交强855元,车船税360元,总保费5521.15元,实收4999.47元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4224,10 +4683,10 @@
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B392" t="str">
-        <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
+        <v>【中国人保】尊敬的王彩云先生,我是中国人保的小潘,手机17721711856,您的爱车苏D914PR保险即将到期,车损59032元,三者100万,不计免赔,交强855元,车船税300元,总保费3382.82元,实收3182.04元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4235,10 +4694,10 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B393" t="str">
-        <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
+        <v>【中国人保】尊敬的陆曼先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7LS21保险即将到期,车损60523元,三者100万,不计免赔,交强855元,车船税300元,总保费3450.3元,实收2950.04元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4246,10 +4705,10 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B394" t="str">
-        <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+        <v>【中国人保】尊敬的朱洪辉先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7HR19保险即将到期,车损112080元,三者100万,不计免赔,交强855元,车船税2400元,总保费6010.1元,实收5699.59元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4257,10 +4716,10 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B395" t="str">
-        <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
+        <v>【中国人保】尊敬的陈亚伟先生,我是中国人保的小潘,手机17721711856,您的爱车苏D715SP保险即将到期,车损261132元,三者100万,不计免赔,交强855元,车船税360元,总保费4754.25元,实收4355.73元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4268,10 +4727,10 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B396" t="str">
-        <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
+        <v>【中国人保】尊敬的姜琪伟先生,我是中国人保的朱文燕,手机13775016848,您的爱车苏D7RE08保险即将到期,车损164070.4元,三者100万,不计免赔,交强855元,车船税360元,总保费6143.51元,实收5650元,赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票，1年有效期） 有需要请联系我!退订回T</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4279,10 +4738,10 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B397" t="str">
-        <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
+        <v>【中国人保】尊敬的朱家兴先生,我是中国人保的小潘,手机17721711856,您的爱车苏D2PN15保险即将到期,车损130566元,三者100万,不计免赔,交强855元,车船税300元,总保费4194.22元,实收3895.30元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4290,10 +4749,10 @@
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B398" t="str">
-        <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
+        <v>【中国人保】尊敬的冯林先生,我是中国人保的小潘,手机17721711856,您的爱车苏D5JS29保险即将到期,车损86675元,三者100万,不计免赔,交强855元,车船税300元,总保费3582.28元,实收3382.55元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4301,10 +4760,10 @@
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B399" t="str">
-        <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
+        <v>【中国人保】尊敬的周斐先生,我是中国人保的小潘,手机17721711856,您的爱车苏D3AC22保险即将到期,车损143632元,三者100万,不计免赔,交强855元,车船税360元,总保费4235.96元,实收3935.20元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4312,10 +4771,10 @@
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B400" t="str">
-        <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
+        <v>【中国人保】尊敬的杨铁军先生,我是中国人保的小潘,手机17721711856,您的爱车苏D5GJ29保险即将到期,车损163372元,三者10万,不计免赔,交强855元,车船税360元,总保费4279.74元,实收3979.79元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4323,10 +4782,10 @@
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B401" t="str">
-        <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>【中国人保】尊敬的许海霞先生,我是中国人保的小潘,手机17721711856,您的爱车苏D6BB93保险即将到期,车损245340元,三者100万,不计免赔,交强855元,车船税360元,总保费6392.64元,实收5792.88元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4334,10 +4793,10 @@
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B402" t="str">
-        <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
+        <v>【中国人保】尊敬的顾刘斌先生,我是中国人保的小潘,手机17721711856,您的爱车苏M369BR保险即将到期,车损27860元,三者100万,不计免赔,交强855元,车船税300元,总保费2538.01元,实收2438.71元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4345,10 +4804,10 @@
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B403" t="str">
-        <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>【中国人保】尊敬的高琴先生,我是中国人保的小潘,手机17721711856,您的爱车苏D9SL20保险即将到期,车损108946元,三者100万,不计免赔,交强855元,车船税300元,总保费3914.63元,实收3620.67元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4356,10 +4815,10 @@
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>M1147250</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B404" t="str">
-        <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
+        <v>【中国人保】尊敬的任宇先生,我是中国人保的小潘,手机17721711856,您的爱车苏D033ZX保险即将到期,车损120036元,三者100万,不计免赔,交强665元,车船税300元,总保费3105.9元,实收2899.81元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -4367,10 +4826,10 @@
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>N6873724</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B405" t="str">
-        <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
+        <v>【中国人保】尊敬的胡立贵先生,我是人保的小汤,手机18652668892,您的爱车苏M0F332保险即将到期,车损117442.8元,三者100万,不计免赔,交强665元,车船税360元,总保费3281.18元,实收2880元,有需要请联系我!退订回T</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -4378,10 +4837,10 @@
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B406" t="str">
-        <v>您好，您有新订单，详情：.+</v>
+        <v>【中国人保】尊敬的诸葛玉香先生,我是中国人保的小潘,手机17721711856,您的爱车苏D9UR95保险即将到期,车损108006元,三者100万,不计免赔,交强855元,车船税300元,总保费3993.23元,实收3693元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -4389,10 +4848,10 @@
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B407" t="str">
-        <v>诚邀您参加.+详情请致电.+</v>
+        <v>【中国人保】尊敬的李家宝先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7GH69保险即将到期,车损84506元,三者100万,不计免赔,交强855元,车船税300元,总保费3379.13元,实收3179.72元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -4400,10 +4859,10 @@
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B408" t="str">
-        <v>您本次操作的验证码是\d+</v>
+        <v>【中国人保】尊敬的李成丽先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7MV59保险即将到期,车损281812元,三者100万,不计免赔,交强990元,车船税360元,总保费5143.12元,实收4750.81元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -4411,10 +4870,10 @@
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B409" t="str">
-        <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
+        <v>【中国人保】尊敬的闫如伟先生,我是中国人保的小潘,手机17721711856,您的爱车苏D0CT61保险即将到期,车损242520元,三者100万,不计免赔,交强855元,车船税360元,总保费6330.8元,实收5730.06元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -4422,10 +4881,10 @@
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B410" t="str">
-        <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
+        <v>【中国人保】尊敬的哈德珍先生,我是中国人保的小潘,手机17721711856,您的爱车苏D3CU66保险即将到期,车损79203元,三者100万,不计免赔,交强950元,车船税300元,总保费4340.65元,实收3990.68元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -4433,10 +4892,10 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B411" t="str">
-        <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
+        <v>【中国人保】尊敬的成玉平先生,我是人保的小汤,手机18652668892,您的爱车苏M75F17保险即将到期,车损217600元,三者100万,上班族险，座位险，不计免赔,g交强950元,车船税360元,总保费8175.49元,实收6800元,有需要请联系我!退订回T</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -4444,10 +4903,10 @@
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>M6662737</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B412" t="str">
-        <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
+        <v>【中国人保】尊敬的刘娇先生,我是中国人保的小潘,手机17721711856,您的爱车苏D7GQ11保险即将到期,车损229577元,三者100万,不计免赔,交强990元,车船税660元,总保费5577.27元,实收5127.18元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -4455,10 +4914,10 @@
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>N3559833</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B413" t="str">
-        <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
+        <v>【中国人保】尊敬的朱爱兵先生,我是中国人保的小潘,手机17721711856,您的爱车苏DA9U81保险即将到期,车损176626元,三者100万,不计免赔,交强855元,车船税360元,总保费4343.91元,实收3993.21元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -4466,10 +4925,10 @@
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>N4383936</v>
+        <v>M100606_M3928550</v>
       </c>
       <c r="B414" t="str">
-        <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
+        <v>【中国人保】尊敬的李晓波先生,我是中国人保的小潘,手机17721711856,您的爱车苏D8XP32保险即将到期,车损128798元,三者100万,不计免赔,交强855元,车船税300元,总保费4280.84元,实收3930.26元,活动：赠送云南双飞6日游（2人名额，包来回机票、住宿、景点门票），有需要请联系我!退订回T</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -4477,10 +4936,10 @@
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>N4383936</v>
+        <v>M100625_M1716014</v>
       </c>
       <c r="B415" t="str">
-        <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
+        <v>【悟空信用卡】您的8元新人红包还有3天过期，快去"悟空还卡"公众号还信用卡吧，用红包更划算，t.cn/E4BZXeK 回复TD退订。</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -4488,10 +4947,10 @@
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B416" t="str">
-        <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+        <v>【CANALI】何小姐，您好！我们是CANALI杭州大厦专柜，您昨日购买的短休闲衬衫，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -4499,10 +4958,10 @@
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B417" t="str">
-        <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
+        <v>【CANALI】张先生，您好！我是CANALI杭州大厦专柜的形象顾问，最近天气回暖，店铺新品上柜，有空可以过来看看，祝您生活愉快。回复TD退订</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -4510,10 +4969,10 @@
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B418" t="str">
-        <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
+        <v>【CANALI】章先生，您好！我是CANALI杭州大厦专柜的形象顾问，最近天气回暖，我们店里也到新款了，有空可以过来看看，祝您生活愉快。回复TD退订</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -4521,10 +4980,10 @@
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>M1147250</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B419" t="str">
-        <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
+        <v>【CANALI】您好！我是CANALI友谊商厦专柜的形象顾问，感谢您对CANALI品牌的信任。2019春季新品已到店，满5000返300，另有商场提单满10000多送500活动。如有需咨询的问题您可以随时致电我们，专柜电话022-60860108 祝您快乐每一天！回复TD退订</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -4532,10 +4991,10 @@
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>M1147250</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B420" t="str">
-        <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
+        <v>【CANALI】吴先生，您好！我们是CANALI杭州大厦专柜，您昨日购买的衬衫，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -4543,10 +5002,10 @@
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>M1147250</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B421" t="str">
-        <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
+        <v>【CANALI】您好！我是CANALI专柜的，感谢您对品牌的信任，您在我们这里购买了一款衣服有一周了，在穿着过程中如有需咨询的问题您可以随时致电我们，专柜电话0991-6999791。祝您愉快每一天！回复TD退订</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -4554,10 +5013,10 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>M1147250</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B422" t="str">
-        <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
+        <v>【CANALI】您好！我们是CANALI重庆星光专柜，您之前购买的高档成衣，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话023-67769432，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -4565,10 +5024,10 @@
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>M1147250</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B423" t="str">
-        <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
+        <v>【CANALI】您好！我们是CANALI西安中大专柜，您购买的高档成衣，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话029-87203175，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -4576,10 +5035,10 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B424" t="str">
-        <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
+        <v>【CANALI】您好！我是CANALI友谊商厦专柜的形象顾问，您已经是我们的品牌会员，非常感谢您的支持！您可以享受我们品牌消费的积分返利，零门槛，每年两次兑换，可使用积分抵用现金券。期待您的再次光临，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -4587,10 +5046,10 @@
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B425" t="str">
-        <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
+        <v>【CANALI】余先生，您好！我们是CANALI杭州大厦专柜，您昨日购买的牛仔裤，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -4598,10 +5057,10 @@
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B426" t="str">
-        <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
+        <v>【CANALI】白先生，您好！我们是CANALI杭州大厦专柜，您昨日购买的短袖T恤，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -4609,10 +5068,10 @@
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B427" t="str">
-        <v>.+请持身份证至.+办理，详询.+</v>
+        <v>【CANALI】尊敬的贵宾，您好！我们是CANALI杭州大厦专柜，您昨日购买的西裤，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -4620,10 +5079,10 @@
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B428" t="str">
-        <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
+        <v>【CANALI】NI段女士您好！石家庄先天下CANALI店感谢您的支持，提示近期天气变化较大，注意保暖，增减衣服，多喝水，打扰请您见谅！0311-85936712  回复TD退订</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -4631,10 +5090,10 @@
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B429" t="str">
-        <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
+        <v>【CANALI】何先生，您好！我们是CANALI杭州大厦专柜，您昨日购买的衬衫和西裤，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -4642,10 +5101,10 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>N4383936</v>
+        <v>M101255_M0063533</v>
       </c>
       <c r="B430" t="str">
-        <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
+        <v>【CANALI】王小姐，您好！我们是CANALI杭州大厦专柜，您昨日购买的短袖T恤，建议请按照洗水唛上的洗涤方式洗涤。如果您有任何疑问可以随时与我们取得联系，专柜电话0571-85100422，我们将随时为您提供专业优质的服务，祝您生活愉快！回复TD退订</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -4653,10 +5112,10 @@
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>N4383936</v>
+        <v>M105505_M5419553</v>
       </c>
       <c r="B431" t="str">
-        <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
+        <v>【佳加旺】好开心小宝贝要过生日啦！特赠生日券一张。戳  http://s.joowing.com/p01Rgiw  查看。 回复TD退订</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -4664,10 +5123,10 @@
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>N4383936</v>
+        <v>M105505_M5419553</v>
       </c>
       <c r="B432" t="str">
-        <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
+        <v>【佳加旺】好开心小宝贝要过生日啦！特赠生日券一张。戳  http://s.joowing.com/p01RgGt  查看。 回复TD退订</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -4675,10 +5134,10 @@
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>N4383936</v>
+        <v>M105505_M5419553</v>
       </c>
       <c r="B433" t="str">
-        <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
+        <v>【佳加旺】好开心小宝贝要过生日啦！特赠生日券一张。戳  http://s.joowing.com/p01RgGu  查看。 回复TD退订</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -4686,10 +5145,10 @@
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>N4383936</v>
+        <v>M105505_M5419553</v>
       </c>
       <c r="B434" t="str">
-        <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
+        <v>【佳加旺】好开心小宝贝要过生日啦！特赠生日券一张。戳  http://s.joowing.com/p01RgGv  查看。 回复TD退订</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -4697,10 +5156,10 @@
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>N4383936</v>
+        <v>M105505_M5419553</v>
       </c>
       <c r="B435" t="str">
-        <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
+        <v>【佳加旺】好开心小宝贝要过生日啦！特赠生日券一张。戳  http://s.joowing.com/p01RgGw  查看。 回复TD退订</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -4708,10 +5167,10 @@
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>N4383936</v>
+        <v>M1056057</v>
       </c>
       <c r="B436" t="str">
-        <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
+        <v>【润源】恭喜你，获得领取碧霞寺高僧开光加持的本命佛，还送貔貅手串，仅限今天，详情请看 http://www.zhuiyuanwenhua.com/99/   退订回T</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -4719,10 +5178,10 @@
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>N4383936</v>
+        <v>M1060210</v>
       </c>
       <c r="B437" t="str">
-        <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
+        <v>【慧合物流网】尊敬的会员，从义乌发货至美国&lt;美森快船-海运加派送&gt;，低至6.5元/KG。联系我们上www.huihe56.com退订回T</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -4730,10 +5189,10 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B438" t="str">
-        <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
+        <v>【易教练】凭此短信联系客服，在指定校区可免费获得价值480元试驾、精美礼品、300元抵扣券等学车体验套餐，2日内有效。http://t.cn/RaaZG5R 客服电话：400-162-9669 退订回T</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -4741,10 +5200,10 @@
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B439" t="str">
-        <v>.*数量有限售完即止</v>
+        <v>【易教练】易教练计算器提醒AM01手机端驾考计算器，采集到的客户手机号13625025512免费试学！退订回T</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -4752,10 +5211,10 @@
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B440" t="str">
-        <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
+        <v>【易教练】NP02电脑端获取价格，采集到的客户手机号15765656781免费试学！退订回T</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -4763,10 +5222,10 @@
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B441" t="str">
-        <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号15703819271免费试学！退订回T</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -4774,10 +5233,10 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B442" t="str">
-        <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号15713750058免费试学！退订回T</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -4785,10 +5244,10 @@
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B443" t="str">
-        <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号18838248141免费试学！退订回T</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -4796,10 +5255,10 @@
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B444" t="str">
-        <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
+        <v>【易教练】NP02电脑端获取价格，采集到的客户手机号15738766757免费试学！退订回T</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -4807,10 +5266,10 @@
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B445" t="str">
-        <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
+        <v>【易教练】新站手机端红包领取采集到手机号17320162898免费试学！退订回T</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -4818,10 +5277,10 @@
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B446" t="str">
-        <v>您的货物.+已到达，请持身份证到.+提取.+</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13253330203免费试学！退订回T</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -4829,10 +5288,10 @@
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B447" t="str">
-        <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号18538313933免费试学！退订回T</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -4840,10 +5299,10 @@
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B448" t="str">
-        <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号18838097337免费试学！退订回T</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -4851,10 +5310,10 @@
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B449" t="str">
-        <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
+        <v>【易教练】若您选择每周练车2天，预计6月12日，共计65天可以拿到驾照，凭此短信咨询客服，可享受价值168元免费学车一次，2日内有效。 http://t.cn/RaaZG5R 退订回T</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -4862,10 +5321,10 @@
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B450" t="str">
-        <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13383736668免费试学！退订回T</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -4873,10 +5332,10 @@
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B451" t="str">
-        <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
+        <v>【易教练】NM盼达移动端中部表单，采集到的客户手机号15738823390免费试学！退订回T</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -4884,10 +5343,10 @@
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B452" t="str">
-        <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
+        <v>【易教练】NM大车电脑端顶部表单，采集到的客户手机号17335592150免费试学！退订回T</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -4895,10 +5354,10 @@
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B453" t="str">
-        <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
+        <v>【易教练】首页报名表单undefined采集到手机号13625015546免费试学！退订回T</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -4906,10 +5365,10 @@
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B454" t="str">
-        <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13203853272免费试学！退订回T</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -4917,10 +5376,10 @@
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B455" t="str">
-        <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13253330503免费试学！退订回T</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -4928,10 +5387,10 @@
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B456" t="str">
-        <v>卡券.+剩余张数.+请及时更新.+</v>
+        <v>【易教练】NP02电脑端获取价格，采集到的客户手机号15837191955免费试学！退订回T</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -4939,10 +5398,10 @@
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B457" t="str">
-        <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13849090514免费试学！退订回T</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -4950,10 +5409,10 @@
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B458" t="str">
-        <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号15194471973免费试学！退订回T</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -4961,10 +5420,10 @@
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B459" t="str">
-        <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
+        <v>【易教练】新站手机端红包领取采集到手机号13625012254免费试学！退订回T</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -4972,10 +5431,10 @@
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B460" t="str">
-        <v>通知.+早上好，你已成功提交工单，谢谢</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13803812580免费试学！退订回T</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -4983,10 +5442,10 @@
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B461" t="str">
-        <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号18937106863免费试学！退订回T</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -4994,10 +5453,10 @@
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>M1147250</v>
+        <v>M1146415</v>
       </c>
       <c r="B462" t="str">
-        <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号15037136879免费试学！退订回T</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -5005,10 +5464,10 @@
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B463" t="str">
-        <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13838311521免费试学！退订回T</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -5016,10 +5475,10 @@
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B464" t="str">
-        <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号15934556958免费试学！退订回T</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -5027,10 +5486,10 @@
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B465" t="str">
-        <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13137566009免费试学！退订回T</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -5038,10 +5497,10 @@
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>N4383936</v>
+        <v>M1146415</v>
       </c>
       <c r="B466" t="str">
-        <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
+        <v>【易教练】NM02移动端顶部表单，采集到的客户手机号13783517588免费试学！退订回T</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -5049,10 +5508,10 @@
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B467" t="str">
-        <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
+        <v>【嘉美东兆医疗美容】张梦思女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -5060,10 +5519,10 @@
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B468" t="str">
-        <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
+        <v>【元来购】您好，您通过元来购惊喜多多活动，获得了精美礼品，请及时联系我们，完善您的信息，感谢您的支持，元来购祝您生活愉快！回T退订</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -5071,10 +5530,10 @@
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B469" t="str">
-        <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
+        <v>【天津机场贵宾服务】尊敬的贵宾：您好，温馨提醒您，您的天津机场贵宾服务会员卡已到有效期，以免影响您的正常使用，请您及时关注“天津机场贵宾服务”微信公众号或拨打咨询电话：4006496888/(022)24906888办理新会员产品业务。回T退订</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -5082,10 +5541,10 @@
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B470" t="str">
-        <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
+        <v>【小红唇】小主，您账户内的优 惠 券马上就要过期啦，快去小红唇商城抢货吧，http://t.cn/RfZwQj7 退订回T</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -5093,32 +5552,32 @@
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B471" t="str">
-        <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
+        <v>【嘉美东兆医疗美容】王玲女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B472" t="str">
-        <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
+        <v>【嘉美东兆医疗美容】张艳琴女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B473" t="str">
-        <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
+        <v>【七虎租车】乔东升先生，您好！七虎租车提前祝您生日快乐！心想事成！自驾车、婚庆车、旅游包车、会议用车首选七虎租车，租车热线：4000607575 回T退订</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -5126,21 +5585,21 @@
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B474" t="str">
-        <v>您有新的订单，请关注！</v>
+        <v>【嘉美东兆医疗美容】石翠梅女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B475" t="str">
-        <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
+        <v>【七虎租车】伦沛扬先生，您好！七虎租车提前祝您生日快乐！心想事成！自驾车、婚庆车、旅游包车、会议用车首选七虎租车，租车热线：4000607575 回T退订</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -5151,10 +5610,10 @@
         <v>M1147250</v>
       </c>
       <c r="B476" t="str">
-        <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>【嘉美东兆医疗美容】崔琳女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="477">
@@ -5162,10 +5621,10 @@
         <v>M1147250</v>
       </c>
       <c r="B477" t="str">
-        <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
+        <v>【嘉美东兆医疗美容】年利青女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="478">
@@ -5173,18 +5632,18 @@
         <v>M1147250</v>
       </c>
       <c r="B478" t="str">
-        <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
+        <v>【嘉美东兆医疗美容】李美仙女士,感谢您对嘉美的支持,您术后所需注意事项请关注'嘉美东兆'微信公众号!热线0472-2107666 回T退订</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>N487096_N4293657</v>
+        <v>M1165023</v>
       </c>
       <c r="B479" t="str">
-        <v>您的手机验证码为：123456</v>
+        <v>【TT玩加】您预约的《大圣觉醒h5》开放下载啦！抢先安装领取独家礼包福利，点击下载 t.cn/E6fzrbr?，退订回TD</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5192,10 +5651,10 @@
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>N6982558</v>
+        <v>M1165023</v>
       </c>
       <c r="B480" t="str">
-        <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
+        <v>【TT玩加】您预约的《仙变3（自由交易）》开放下载啦！抢先安装领取独家礼包福利，点击下载 t.cn/E6tmTFB?，退订回TD</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5203,10 +5662,10 @@
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>M7024442</v>
+        <v>M1165023</v>
       </c>
       <c r="B481" t="str">
-        <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
+        <v>【TT玩加】您预约的《御剑江湖OL》开放下载啦！抢先安装领取独家礼包福利，点击下载 t.cn/E6tFSnK?，退订回TD</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5214,10 +5673,10 @@
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>N4383936</v>
+        <v>M1165023</v>
       </c>
       <c r="B482" t="str">
-        <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
+        <v>【TT玩加】您预约的《风之幻想web》开放下载啦！抢先安装领取独家礼包福利，点击下载 t.cn/E6tkj40?，退订回TD</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5225,10 +5684,10 @@
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>N4383936</v>
+        <v>M1165023</v>
       </c>
       <c r="B483" t="str">
-        <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
+        <v>【TT玩加】您预约的《城堡奇兵》开放下载啦！抢先安装领取独家礼包福利，点击下载 t.cn/E6VuO1V?，退订回TD</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5236,10 +5695,10 @@
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>N4383936</v>
+        <v>M116634_M4243275</v>
       </c>
       <c r="B484" t="str">
-        <v>后台有新的业务申请，请尽快处理！</v>
+        <v>【伊神伊甸园】亲，伊甸园感谢您对商品（香港阿道夫）的反馈，因为我们疏忽，宣传产品未能把产品的特点解释到位，引起不必要的误会，造成了您此次购物得不愉快，为表示歉意，平台寄送一份小礼包给您，运单号：1033803008432，百世快递，请注意物流信息。 回复TD退订</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5247,10 +5706,10 @@
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>N4383936</v>
+        <v>M1167106</v>
       </c>
       <c r="B485" t="str">
-        <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
+        <v>【得力办公商城】您的验证码为1234。</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5258,10 +5717,10 @@
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>N4383936</v>
+        <v>M1167106</v>
       </c>
       <c r="B486" t="str">
-        <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
+        <v>【得力办公商城】您的验证码为1234。</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5269,10 +5728,10 @@
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B487" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
+        <v>【易久批】@所有人红牛113上线 退订回T</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5280,10 +5739,10 @@
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B488" t="str">
-        <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
+        <v>【易久批】您的兑奖订单：112909400100审核未通过，登录易久批https://t.yijiupi.com/2zMt 了解详情  。 退订回T</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5291,10 +5750,10 @@
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B489" t="str">
-        <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
+        <v>【易久批】您的兑奖订单：711909600101审核未通过，登录易久批https://t.yijiupi.com/2zMg 了解详情  。 退订回T</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -5302,10 +5761,10 @@
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>M1147250</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B490" t="str">
-        <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
+        <v>【易久批】您的兑奖订单：716909600008审核未通过，登录易久批https://t.yijiupi.com/2zNM 了解详情  。 退订回T</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -5313,10 +5772,10 @@
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>N8369795</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B491" t="str">
-        <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
+        <v>【易久批】您的兑奖订单：718909600082审核未通过，登录易久批https://t.yijiupi.com/2zN1 了解详情  。 退订回T</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -5324,10 +5783,10 @@
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>N8369795</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B492" t="str">
-        <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
+        <v>【易久批】易酒批百事可乐50/件，500件起，有需要联系13907430679，3天左右到货 退订回T</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -5335,10 +5794,10 @@
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B493" t="str">
-        <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
+        <v>【易久批】您的兑奖订单：724909700143审核未通过，登录易久批https://t.yijiupi.com/2zN2 了解详情  。 退订回T</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5346,10 +5805,10 @@
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B494" t="str">
-        <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
+        <v>【易久批】您的兑奖订单：113909600196审核未通过，登录易久批https://t.yijiupi.com/2zMq 了解详情  。 退订回T</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -5357,10 +5816,10 @@
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B495" t="str">
-        <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
+        <v>【易久批】您的兑奖订单：718909800009审核未通过，登录易久批https://t.yijiupi.com/2zNT 了解详情  。 退订回T</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -5368,10 +5827,10 @@
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B496" t="str">
-        <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
+        <v>【易久批】您的兑奖订单：718909800010审核未通过，登录易久批https://t.yijiupi.com/2zNV 了解详情  。 退订回T</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -5379,10 +5838,10 @@
     </row>
     <row r="497">
       <c r="A497" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B497" t="str">
-        <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
+        <v>【易久批】您的兑奖订单：113909600105审核未通过，登录易久批https://t.yijiupi.com/2zMo 了解详情  。 退订回T</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -5390,10 +5849,10 @@
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B498" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
+        <v>【易久批】您的兑奖订单：701909700162审核未通过，登录易久批https://t.yijiupi.com/2zMX 了解详情  。 退订回T</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -5401,21 +5860,21 @@
     </row>
     <row r="499">
       <c r="A499" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B499" t="str">
-        <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
+        <v>【易久批】易酒批能量100，相当于体质能量和大乐虎，单瓶售价5元。15瓶一件，原价48元，今天活动价31元。 退订回T</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B500" t="str">
-        <v>感谢使用.+提示.+</v>
+        <v>【易久批】您的兑奖订单：418909500164审核未通过，登录易久批https://t.yijiupi.com/2zNE 了解详情  。 退订回T</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -5423,10 +5882,10 @@
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>N4383936</v>
+        <v>M130155_M2670152</v>
       </c>
       <c r="B501" t="str">
-        <v>感谢您选择使用'云立付'，您的资料已审核通过，如使用过程中如有疑问请致电400-188-6496，我们将竭诚为您服务！</v>
+        <v>【易久批】您的兑奖订单：451909800114审核未通过，登录易久批https://t.yijiupi.com/2zNj 了解详情  。 退订回T</v>
       </c>
       <c r="C501">
         <v>1</v>
